--- a/artfynd/A 58548-2022.xlsx
+++ b/artfynd/A 58548-2022.xlsx
@@ -10526,7 +10526,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>111643993</v>
+        <v>111643994</v>
       </c>
       <c r="B86" t="n">
         <v>96348</v>
@@ -10574,10 +10574,10 @@
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>564022.096035301</v>
+        <v>563938.1604798381</v>
       </c>
       <c r="R86" t="n">
-        <v>6705039.59657369</v>
+        <v>6704953.786161045</v>
       </c>
       <c r="S86" t="n">
         <v>15</v>
@@ -10647,10 +10647,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>111644023</v>
+        <v>111643976</v>
       </c>
       <c r="B87" t="n">
-        <v>98535</v>
+        <v>56543</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -10659,38 +10659,46 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>222498</v>
+        <v>103021</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr"/>
       <c r="P87" t="inlineStr">
         <is>
           <t>Pellkärret, Dlr</t>
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>563926.0071291642</v>
+        <v>563959.9830160879</v>
       </c>
       <c r="R87" t="n">
-        <v>6704942.722304372</v>
+        <v>6704864.911638761</v>
       </c>
       <c r="S87" t="n">
         <v>15</v>
@@ -10759,10 +10767,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>111643996</v>
+        <v>111644022</v>
       </c>
       <c r="B88" t="n">
-        <v>96348</v>
+        <v>98535</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -10771,25 +10779,25 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>220787</v>
+        <v>222498</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
@@ -10799,10 +10807,10 @@
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>564022.4274219956</v>
+        <v>563928.069399631</v>
       </c>
       <c r="R88" t="n">
-        <v>6705020.86335416</v>
+        <v>6704937.827276004</v>
       </c>
       <c r="S88" t="n">
         <v>15</v>
@@ -10871,10 +10879,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>111638852</v>
+        <v>111643969</v>
       </c>
       <c r="B89" t="n">
-        <v>56543</v>
+        <v>89405</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -10887,43 +10895,37 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>103021</v>
+        <v>1202</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
       <c r="P89" t="inlineStr">
         <is>
-          <t>Norra Kallbäck Skysslingen 244, Hedemora (Norra Kallbäck Skysslingen 244, Hedemora), Dlr</t>
+          <t>Pellkärret, Dlr</t>
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>564273.9820338928</v>
+        <v>563961.9324164493</v>
       </c>
       <c r="R89" t="n">
-        <v>6705346.832363938</v>
+        <v>6704950.261043776</v>
       </c>
       <c r="S89" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="T89" t="inlineStr">
         <is>
@@ -10952,7 +10954,7 @@
       </c>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>08:03</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA89" t="inlineStr">
@@ -10962,7 +10964,7 @@
       </c>
       <c r="AB89" t="inlineStr">
         <is>
-          <t>08:03</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD89" t="b">
@@ -10989,10 +10991,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>111643968</v>
+        <v>111644001</v>
       </c>
       <c r="B90" t="n">
-        <v>89405</v>
+        <v>96348</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -11001,25 +11003,25 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I90" t="inlineStr"/>
@@ -11029,10 +11031,10 @@
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>563986.7677190969</v>
+        <v>564373.5569152004</v>
       </c>
       <c r="R90" t="n">
-        <v>6704886.590706035</v>
+        <v>6705413.196864827</v>
       </c>
       <c r="S90" t="n">
         <v>15</v>
@@ -11101,10 +11103,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>111644018</v>
+        <v>111643998</v>
       </c>
       <c r="B91" t="n">
-        <v>5113</v>
+        <v>96348</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -11113,47 +11115,38 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>100526</v>
+        <v>220787</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
-      <c r="N91" t="inlineStr"/>
       <c r="P91" t="inlineStr">
         <is>
           <t>Pellkärret, Dlr</t>
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>564000.7505970574</v>
+        <v>564084.7368881714</v>
       </c>
       <c r="R91" t="n">
-        <v>6704961.796430262</v>
+        <v>6705044.650279458</v>
       </c>
       <c r="S91" t="n">
         <v>15</v>
@@ -11204,7 +11197,6 @@
       <c r="AE91" t="b">
         <v>0</v>
       </c>
-      <c r="AF91" t="inlineStr"/>
       <c r="AG91" t="b">
         <v>0</v>
       </c>
@@ -11223,10 +11215,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>111643984</v>
+        <v>111643997</v>
       </c>
       <c r="B92" t="n">
-        <v>89183</v>
+        <v>96348</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -11235,25 +11227,25 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>3215</v>
+        <v>220787</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I92" t="inlineStr"/>
@@ -11263,10 +11255,10 @@
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>563935.2490328623</v>
+        <v>563960.0269251792</v>
       </c>
       <c r="R92" t="n">
-        <v>6704866.940414187</v>
+        <v>6704946.282213242</v>
       </c>
       <c r="S92" t="n">
         <v>15</v>
@@ -11311,18 +11303,12 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC92" t="inlineStr">
-        <is>
-          <t>Utanför hänsynssnitslat området</t>
-        </is>
-      </c>
       <c r="AD92" t="b">
         <v>0</v>
       </c>
       <c r="AE92" t="b">
         <v>0</v>
       </c>
-      <c r="AF92" t="inlineStr"/>
       <c r="AG92" t="b">
         <v>0</v>
       </c>
@@ -11341,10 +11327,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>111643998</v>
+        <v>111644011</v>
       </c>
       <c r="B93" t="n">
-        <v>96348</v>
+        <v>4717</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -11353,25 +11339,25 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>220787</v>
+        <v>102306</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Granbarkgnagare</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Microbregma emarginatum</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Duftschmid, 1825)</t>
         </is>
       </c>
       <c r="I93" t="inlineStr"/>
@@ -11381,10 +11367,10 @@
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>564084.7368881714</v>
+        <v>563947.9486855237</v>
       </c>
       <c r="R93" t="n">
-        <v>6705044.650279458</v>
+        <v>6704875.055250473</v>
       </c>
       <c r="S93" t="n">
         <v>15</v>
@@ -11453,10 +11439,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>111643978</v>
+        <v>111644000</v>
       </c>
       <c r="B94" t="n">
-        <v>90332</v>
+        <v>96348</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -11465,25 +11451,25 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>4769</v>
+        <v>220787</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I94" t="inlineStr"/>
@@ -11493,10 +11479,10 @@
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>563897.6824720911</v>
+        <v>564382.7160046401</v>
       </c>
       <c r="R94" t="n">
-        <v>6704896.359355085</v>
+        <v>6705398.074181959</v>
       </c>
       <c r="S94" t="n">
         <v>15</v>
@@ -11565,10 +11551,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>111643971</v>
+        <v>111643968</v>
       </c>
       <c r="B95" t="n">
-        <v>90087</v>
+        <v>89405</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -11577,25 +11563,25 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>3298</v>
+        <v>1202</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I95" t="inlineStr"/>
@@ -11605,10 +11591,10 @@
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>564129.6583918922</v>
+        <v>563986.7677190969</v>
       </c>
       <c r="R95" t="n">
-        <v>6705074.047548601</v>
+        <v>6704886.590706035</v>
       </c>
       <c r="S95" t="n">
         <v>15</v>
@@ -11677,10 +11663,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>111644021</v>
+        <v>111643975</v>
       </c>
       <c r="B96" t="n">
-        <v>98535</v>
+        <v>56543</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -11689,38 +11675,46 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>222498</v>
+        <v>103021</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr"/>
       <c r="P96" t="inlineStr">
         <is>
           <t>Pellkärret, Dlr</t>
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>563895.6898476363</v>
+        <v>564036.8712818418</v>
       </c>
       <c r="R96" t="n">
-        <v>6704897.310479084</v>
+        <v>6705069.938933297</v>
       </c>
       <c r="S96" t="n">
         <v>15</v>
@@ -11789,10 +11783,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>111643967</v>
+        <v>111644019</v>
       </c>
       <c r="B97" t="n">
-        <v>89405</v>
+        <v>98535</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -11801,25 +11795,25 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>1202</v>
+        <v>222498</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I97" t="inlineStr"/>
@@ -11829,10 +11823,10 @@
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>564001.2294282404</v>
+        <v>563935.1967805427</v>
       </c>
       <c r="R97" t="n">
-        <v>6705018.515888276</v>
+        <v>6704869.89842237</v>
       </c>
       <c r="S97" t="n">
         <v>15</v>
@@ -11901,10 +11895,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>111643994</v>
+        <v>111643967</v>
       </c>
       <c r="B98" t="n">
-        <v>96348</v>
+        <v>89405</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -11913,46 +11907,38 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L98" t="inlineStr"/>
-      <c r="N98" t="inlineStr"/>
       <c r="P98" t="inlineStr">
         <is>
           <t>Pellkärret, Dlr</t>
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>563938.1604798381</v>
+        <v>564001.2294282404</v>
       </c>
       <c r="R98" t="n">
-        <v>6704953.786161045</v>
+        <v>6705018.515888276</v>
       </c>
       <c r="S98" t="n">
         <v>15</v>
@@ -12003,7 +11989,6 @@
       <c r="AE98" t="b">
         <v>0</v>
       </c>
-      <c r="AF98" t="inlineStr"/>
       <c r="AG98" t="b">
         <v>0</v>
       </c>
@@ -12022,10 +12007,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>111644000</v>
+        <v>111643984</v>
       </c>
       <c r="B99" t="n">
-        <v>96348</v>
+        <v>89183</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -12034,25 +12019,25 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>220787</v>
+        <v>3215</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I99" t="inlineStr"/>
@@ -12062,10 +12047,10 @@
         </is>
       </c>
       <c r="Q99" t="n">
-        <v>564382.7160046401</v>
+        <v>563935.2490328623</v>
       </c>
       <c r="R99" t="n">
-        <v>6705398.074181959</v>
+        <v>6704866.940414187</v>
       </c>
       <c r="S99" t="n">
         <v>15</v>
@@ -12110,12 +12095,18 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC99" t="inlineStr">
+        <is>
+          <t>Utanför hänsynssnitslat området</t>
+        </is>
+      </c>
       <c r="AD99" t="b">
         <v>0</v>
       </c>
       <c r="AE99" t="b">
         <v>0</v>
       </c>
+      <c r="AF99" t="inlineStr"/>
       <c r="AG99" t="b">
         <v>0</v>
       </c>
@@ -12134,10 +12125,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>111644009</v>
+        <v>111638852</v>
       </c>
       <c r="B100" t="n">
-        <v>4717</v>
+        <v>56543</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -12146,41 +12137,47 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>102306</v>
+        <v>103021</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Granbarkgnagare</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Microbregma emarginatum</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>(Duftschmid, 1825)</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
       <c r="P100" t="inlineStr">
         <is>
-          <t>Pellkärret, Dlr</t>
+          <t>Norra Kallbäck Skysslingen 244, Hedemora (Norra Kallbäck Skysslingen 244, Hedemora), Dlr</t>
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>564175.9770425721</v>
+        <v>564273.9820338928</v>
       </c>
       <c r="R100" t="n">
-        <v>6705191.738182176</v>
+        <v>6705346.832363938</v>
       </c>
       <c r="S100" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="T100" t="inlineStr">
         <is>
@@ -12209,7 +12206,7 @@
       </c>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>08:03</t>
         </is>
       </c>
       <c r="AA100" t="inlineStr">
@@ -12219,7 +12216,7 @@
       </c>
       <c r="AB100" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>08:03</t>
         </is>
       </c>
       <c r="AD100" t="b">
@@ -12246,10 +12243,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>111643970</v>
+        <v>111644017</v>
       </c>
       <c r="B101" t="n">
-        <v>89405</v>
+        <v>90687</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -12258,38 +12255,41 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>1202</v>
+        <v>5964</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="N101" t="inlineStr"/>
       <c r="P101" t="inlineStr">
         <is>
           <t>Pellkärret, Dlr</t>
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>564135.2605183946</v>
+        <v>563880.5711718387</v>
       </c>
       <c r="R101" t="n">
-        <v>6705092.392526213</v>
+        <v>6704914.303850577</v>
       </c>
       <c r="S101" t="n">
         <v>15</v>
@@ -12340,6 +12340,7 @@
       <c r="AE101" t="b">
         <v>0</v>
       </c>
+      <c r="AF101" t="inlineStr"/>
       <c r="AG101" t="b">
         <v>0</v>
       </c>
@@ -12358,7 +12359,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>111644001</v>
+        <v>111643999</v>
       </c>
       <c r="B102" t="n">
         <v>96348</v>
@@ -12398,10 +12399,10 @@
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>564373.5569152004</v>
+        <v>564214.7220113428</v>
       </c>
       <c r="R102" t="n">
-        <v>6705413.196864827</v>
+        <v>6705207.21881969</v>
       </c>
       <c r="S102" t="n">
         <v>15</v>
@@ -12470,10 +12471,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>111644002</v>
+        <v>111643966</v>
       </c>
       <c r="B103" t="n">
-        <v>96348</v>
+        <v>89405</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -12482,25 +12483,25 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I103" t="inlineStr"/>
@@ -12510,10 +12511,10 @@
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>564362.9780766467</v>
+        <v>564005.9723301042</v>
       </c>
       <c r="R103" t="n">
-        <v>6705424.842679138</v>
+        <v>6705057.55723764</v>
       </c>
       <c r="S103" t="n">
         <v>15</v>
@@ -12582,10 +12583,10 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>111643969</v>
+        <v>111644004</v>
       </c>
       <c r="B104" t="n">
-        <v>89405</v>
+        <v>73634</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -12594,25 +12595,25 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>1202</v>
+        <v>6426</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I104" t="inlineStr"/>
@@ -12622,10 +12623,10 @@
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>563961.9324164493</v>
+        <v>563968.3080592508</v>
       </c>
       <c r="R104" t="n">
-        <v>6704950.261043776</v>
+        <v>6704869.004009057</v>
       </c>
       <c r="S104" t="n">
         <v>15</v>
@@ -12694,10 +12695,10 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>111644019</v>
+        <v>111644009</v>
       </c>
       <c r="B105" t="n">
-        <v>98535</v>
+        <v>4717</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -12710,21 +12711,21 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>222498</v>
+        <v>102306</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Granbarkgnagare</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Microbregma emarginatum</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Duftschmid, 1825)</t>
         </is>
       </c>
       <c r="I105" t="inlineStr"/>
@@ -12734,10 +12735,10 @@
         </is>
       </c>
       <c r="Q105" t="n">
-        <v>563935.1967805427</v>
+        <v>564175.9770425721</v>
       </c>
       <c r="R105" t="n">
-        <v>6704869.89842237</v>
+        <v>6705191.738182176</v>
       </c>
       <c r="S105" t="n">
         <v>15</v>
@@ -12806,10 +12807,10 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>111643966</v>
+        <v>111643979</v>
       </c>
       <c r="B106" t="n">
-        <v>89405</v>
+        <v>90332</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -12818,25 +12819,25 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>1202</v>
+        <v>4769</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I106" t="inlineStr"/>
@@ -12846,10 +12847,10 @@
         </is>
       </c>
       <c r="Q106" t="n">
-        <v>564005.9723301042</v>
+        <v>563891.7046019271</v>
       </c>
       <c r="R106" t="n">
-        <v>6705057.55723764</v>
+        <v>6704899.212729557</v>
       </c>
       <c r="S106" t="n">
         <v>15</v>
@@ -12918,10 +12919,10 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>111644017</v>
+        <v>111644021</v>
       </c>
       <c r="B107" t="n">
-        <v>90687</v>
+        <v>98535</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -12934,37 +12935,34 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>5964</v>
+        <v>222498</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="N107" t="inlineStr"/>
       <c r="P107" t="inlineStr">
         <is>
           <t>Pellkärret, Dlr</t>
         </is>
       </c>
       <c r="Q107" t="n">
-        <v>563880.5711718387</v>
+        <v>563895.6898476363</v>
       </c>
       <c r="R107" t="n">
-        <v>6704914.303850577</v>
+        <v>6704897.310479084</v>
       </c>
       <c r="S107" t="n">
         <v>15</v>
@@ -13015,7 +13013,6 @@
       <c r="AE107" t="b">
         <v>0</v>
       </c>
-      <c r="AF107" t="inlineStr"/>
       <c r="AG107" t="b">
         <v>0</v>
       </c>
@@ -13034,10 +13031,10 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>111644022</v>
+        <v>111643996</v>
       </c>
       <c r="B108" t="n">
-        <v>98535</v>
+        <v>96348</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -13046,25 +13043,25 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>222498</v>
+        <v>220787</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I108" t="inlineStr"/>
@@ -13074,10 +13071,10 @@
         </is>
       </c>
       <c r="Q108" t="n">
-        <v>563928.069399631</v>
+        <v>564022.4274219956</v>
       </c>
       <c r="R108" t="n">
-        <v>6704937.827276004</v>
+        <v>6705020.86335416</v>
       </c>
       <c r="S108" t="n">
         <v>15</v>
@@ -13146,10 +13143,10 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>111643997</v>
+        <v>111643978</v>
       </c>
       <c r="B109" t="n">
-        <v>96348</v>
+        <v>90332</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -13158,25 +13155,25 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>220787</v>
+        <v>4769</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I109" t="inlineStr"/>
@@ -13186,10 +13183,10 @@
         </is>
       </c>
       <c r="Q109" t="n">
-        <v>563960.0269251792</v>
+        <v>563897.6824720911</v>
       </c>
       <c r="R109" t="n">
-        <v>6704946.282213242</v>
+        <v>6704896.359355085</v>
       </c>
       <c r="S109" t="n">
         <v>15</v>
@@ -13258,10 +13255,10 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>111643975</v>
+        <v>111643995</v>
       </c>
       <c r="B110" t="n">
-        <v>56543</v>
+        <v>96348</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -13270,35 +13267,35 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>103021</v>
+        <v>220787</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
       <c r="N110" t="inlineStr"/>
       <c r="P110" t="inlineStr">
         <is>
@@ -13306,10 +13303,10 @@
         </is>
       </c>
       <c r="Q110" t="n">
-        <v>564036.8712818418</v>
+        <v>563991.6879464064</v>
       </c>
       <c r="R110" t="n">
-        <v>6705069.938933297</v>
+        <v>6704971.499027047</v>
       </c>
       <c r="S110" t="n">
         <v>15</v>
@@ -13360,6 +13357,7 @@
       <c r="AE110" t="b">
         <v>0</v>
       </c>
+      <c r="AF110" t="inlineStr"/>
       <c r="AG110" t="b">
         <v>0</v>
       </c>
@@ -13378,10 +13376,10 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>111643976</v>
+        <v>111644018</v>
       </c>
       <c r="B111" t="n">
-        <v>56543</v>
+        <v>5113</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -13390,33 +13388,34 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>103021</v>
+        <v>100526</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
       <c r="M111" t="inlineStr">
         <is>
-          <t>spel/sång</t>
+          <t>färska gnagspår</t>
         </is>
       </c>
       <c r="N111" t="inlineStr"/>
@@ -13426,10 +13425,10 @@
         </is>
       </c>
       <c r="Q111" t="n">
-        <v>563959.9830160879</v>
+        <v>564000.7505970574</v>
       </c>
       <c r="R111" t="n">
-        <v>6704864.911638761</v>
+        <v>6704961.796430262</v>
       </c>
       <c r="S111" t="n">
         <v>15</v>
@@ -13480,6 +13479,7 @@
       <c r="AE111" t="b">
         <v>0</v>
       </c>
+      <c r="AF111" t="inlineStr"/>
       <c r="AG111" t="b">
         <v>0</v>
       </c>
@@ -13498,10 +13498,10 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>111643979</v>
+        <v>111643993</v>
       </c>
       <c r="B112" t="n">
-        <v>90332</v>
+        <v>96348</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -13510,38 +13510,46 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>4769</v>
+        <v>220787</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L112" t="inlineStr"/>
+      <c r="N112" t="inlineStr"/>
       <c r="P112" t="inlineStr">
         <is>
           <t>Pellkärret, Dlr</t>
         </is>
       </c>
       <c r="Q112" t="n">
-        <v>563891.7046019271</v>
+        <v>564022.096035301</v>
       </c>
       <c r="R112" t="n">
-        <v>6704899.212729557</v>
+        <v>6705039.59657369</v>
       </c>
       <c r="S112" t="n">
         <v>15</v>
@@ -13592,6 +13600,7 @@
       <c r="AE112" t="b">
         <v>0</v>
       </c>
+      <c r="AF112" t="inlineStr"/>
       <c r="AG112" t="b">
         <v>0</v>
       </c>
@@ -13610,10 +13619,10 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>111643977</v>
+        <v>111644010</v>
       </c>
       <c r="B113" t="n">
-        <v>90332</v>
+        <v>4717</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -13626,21 +13635,21 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>4769</v>
+        <v>102306</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Granbarkgnagare</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Microbregma emarginatum</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Duftschmid, 1825)</t>
         </is>
       </c>
       <c r="I113" t="inlineStr"/>
@@ -13650,10 +13659,10 @@
         </is>
       </c>
       <c r="Q113" t="n">
-        <v>563912.9580050925</v>
+        <v>563970.2832921242</v>
       </c>
       <c r="R113" t="n">
-        <v>6704870.491959149</v>
+        <v>6704869.038919549</v>
       </c>
       <c r="S113" t="n">
         <v>15</v>
@@ -13722,10 +13731,10 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>111643995</v>
+        <v>111643977</v>
       </c>
       <c r="B114" t="n">
-        <v>96348</v>
+        <v>90332</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -13734,46 +13743,38 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>220787</v>
+        <v>4769</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L114" t="inlineStr"/>
-      <c r="N114" t="inlineStr"/>
       <c r="P114" t="inlineStr">
         <is>
           <t>Pellkärret, Dlr</t>
         </is>
       </c>
       <c r="Q114" t="n">
-        <v>563991.6879464064</v>
+        <v>563912.9580050925</v>
       </c>
       <c r="R114" t="n">
-        <v>6704971.499027047</v>
+        <v>6704870.491959149</v>
       </c>
       <c r="S114" t="n">
         <v>15</v>
@@ -13824,7 +13825,6 @@
       <c r="AE114" t="b">
         <v>0</v>
       </c>
-      <c r="AF114" t="inlineStr"/>
       <c r="AG114" t="b">
         <v>0</v>
       </c>
@@ -13843,10 +13843,10 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>111643999</v>
+        <v>111643970</v>
       </c>
       <c r="B115" t="n">
-        <v>96348</v>
+        <v>89405</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -13855,25 +13855,25 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E115" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I115" t="inlineStr"/>
@@ -13883,10 +13883,10 @@
         </is>
       </c>
       <c r="Q115" t="n">
-        <v>564214.7220113428</v>
+        <v>564135.2605183946</v>
       </c>
       <c r="R115" t="n">
-        <v>6705207.21881969</v>
+        <v>6705092.392526213</v>
       </c>
       <c r="S115" t="n">
         <v>15</v>
@@ -13955,10 +13955,10 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>111644010</v>
+        <v>111644002</v>
       </c>
       <c r="B116" t="n">
-        <v>4717</v>
+        <v>96348</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -13967,25 +13967,25 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>102306</v>
+        <v>220787</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Granbarkgnagare</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>Microbregma emarginatum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>(Duftschmid, 1825)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I116" t="inlineStr"/>
@@ -13995,10 +13995,10 @@
         </is>
       </c>
       <c r="Q116" t="n">
-        <v>563970.2832921242</v>
+        <v>564362.9780766467</v>
       </c>
       <c r="R116" t="n">
-        <v>6704869.038919549</v>
+        <v>6705424.842679138</v>
       </c>
       <c r="S116" t="n">
         <v>15</v>
@@ -14067,10 +14067,10 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>111644011</v>
+        <v>111643971</v>
       </c>
       <c r="B117" t="n">
-        <v>4717</v>
+        <v>90087</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -14083,21 +14083,21 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>102306</v>
+        <v>3298</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Granbarkgnagare</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>Microbregma emarginatum</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>(Duftschmid, 1825)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I117" t="inlineStr"/>
@@ -14107,10 +14107,10 @@
         </is>
       </c>
       <c r="Q117" t="n">
-        <v>563947.9486855237</v>
+        <v>564129.6583918922</v>
       </c>
       <c r="R117" t="n">
-        <v>6704875.055250473</v>
+        <v>6705074.047548601</v>
       </c>
       <c r="S117" t="n">
         <v>15</v>
@@ -14179,10 +14179,10 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>111644004</v>
+        <v>111644023</v>
       </c>
       <c r="B118" t="n">
-        <v>73634</v>
+        <v>98535</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -14195,21 +14195,21 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>6426</v>
+        <v>222498</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I118" t="inlineStr"/>
@@ -14219,10 +14219,10 @@
         </is>
       </c>
       <c r="Q118" t="n">
-        <v>563968.3080592508</v>
+        <v>563926.0071291642</v>
       </c>
       <c r="R118" t="n">
-        <v>6704869.004009057</v>
+        <v>6704942.722304372</v>
       </c>
       <c r="S118" t="n">
         <v>15</v>

--- a/artfynd/A 58548-2022.xlsx
+++ b/artfynd/A 58548-2022.xlsx
@@ -10526,10 +10526,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>111643994</v>
+        <v>111644011</v>
       </c>
       <c r="B86" t="n">
-        <v>96348</v>
+        <v>4717</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -10538,46 +10538,38 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>220787</v>
+        <v>102306</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Granbarkgnagare</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Microbregma emarginatum</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Duftschmid, 1825)</t>
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L86" t="inlineStr"/>
-      <c r="N86" t="inlineStr"/>
       <c r="P86" t="inlineStr">
         <is>
           <t>Pellkärret, Dlr</t>
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>563938.1604798381</v>
+        <v>563947.9486855237</v>
       </c>
       <c r="R86" t="n">
-        <v>6704953.786161045</v>
+        <v>6704875.055250473</v>
       </c>
       <c r="S86" t="n">
         <v>15</v>
@@ -10628,7 +10620,6 @@
       <c r="AE86" t="b">
         <v>0</v>
       </c>
-      <c r="AF86" t="inlineStr"/>
       <c r="AG86" t="b">
         <v>0</v>
       </c>
@@ -10767,10 +10758,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>111644022</v>
+        <v>111643999</v>
       </c>
       <c r="B88" t="n">
-        <v>98535</v>
+        <v>96348</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -10779,25 +10770,25 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>222498</v>
+        <v>220787</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
@@ -10807,10 +10798,10 @@
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>563928.069399631</v>
+        <v>564214.7220113428</v>
       </c>
       <c r="R88" t="n">
-        <v>6704937.827276004</v>
+        <v>6705207.21881969</v>
       </c>
       <c r="S88" t="n">
         <v>15</v>
@@ -10879,10 +10870,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>111643969</v>
+        <v>111644019</v>
       </c>
       <c r="B89" t="n">
-        <v>89405</v>
+        <v>98535</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -10891,25 +10882,25 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>1202</v>
+        <v>222498</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I89" t="inlineStr"/>
@@ -10919,10 +10910,10 @@
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>563961.9324164493</v>
+        <v>563935.1967805427</v>
       </c>
       <c r="R89" t="n">
-        <v>6704950.261043776</v>
+        <v>6704869.89842237</v>
       </c>
       <c r="S89" t="n">
         <v>15</v>
@@ -10991,10 +10982,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>111644001</v>
+        <v>111644021</v>
       </c>
       <c r="B90" t="n">
-        <v>96348</v>
+        <v>98535</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -11003,25 +10994,25 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>220787</v>
+        <v>222498</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I90" t="inlineStr"/>
@@ -11031,10 +11022,10 @@
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>564373.5569152004</v>
+        <v>563895.6898476363</v>
       </c>
       <c r="R90" t="n">
-        <v>6705413.196864827</v>
+        <v>6704897.310479084</v>
       </c>
       <c r="S90" t="n">
         <v>15</v>
@@ -11103,10 +11094,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>111643998</v>
+        <v>111643971</v>
       </c>
       <c r="B91" t="n">
-        <v>96348</v>
+        <v>90087</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -11115,25 +11106,25 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>220787</v>
+        <v>3298</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I91" t="inlineStr"/>
@@ -11143,10 +11134,10 @@
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>564084.7368881714</v>
+        <v>564129.6583918922</v>
       </c>
       <c r="R91" t="n">
-        <v>6705044.650279458</v>
+        <v>6705074.047548601</v>
       </c>
       <c r="S91" t="n">
         <v>15</v>
@@ -11215,7 +11206,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>111643997</v>
+        <v>111643998</v>
       </c>
       <c r="B92" t="n">
         <v>96348</v>
@@ -11255,10 +11246,10 @@
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>563960.0269251792</v>
+        <v>564084.7368881714</v>
       </c>
       <c r="R92" t="n">
-        <v>6704946.282213242</v>
+        <v>6705044.650279458</v>
       </c>
       <c r="S92" t="n">
         <v>15</v>
@@ -11327,10 +11318,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>111644011</v>
+        <v>111643993</v>
       </c>
       <c r="B93" t="n">
-        <v>4717</v>
+        <v>96348</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -11339,38 +11330,46 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>102306</v>
+        <v>220787</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Granbarkgnagare</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Microbregma emarginatum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>(Duftschmid, 1825)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr"/>
+      <c r="N93" t="inlineStr"/>
       <c r="P93" t="inlineStr">
         <is>
           <t>Pellkärret, Dlr</t>
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>563947.9486855237</v>
+        <v>564022.096035301</v>
       </c>
       <c r="R93" t="n">
-        <v>6704875.055250473</v>
+        <v>6705039.59657369</v>
       </c>
       <c r="S93" t="n">
         <v>15</v>
@@ -11421,6 +11420,7 @@
       <c r="AE93" t="b">
         <v>0</v>
       </c>
+      <c r="AF93" t="inlineStr"/>
       <c r="AG93" t="b">
         <v>0</v>
       </c>
@@ -11439,10 +11439,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>111644000</v>
+        <v>111644022</v>
       </c>
       <c r="B94" t="n">
-        <v>96348</v>
+        <v>98535</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -11451,25 +11451,25 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>220787</v>
+        <v>222498</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I94" t="inlineStr"/>
@@ -11479,10 +11479,10 @@
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>564382.7160046401</v>
+        <v>563928.069399631</v>
       </c>
       <c r="R94" t="n">
-        <v>6705398.074181959</v>
+        <v>6704937.827276004</v>
       </c>
       <c r="S94" t="n">
         <v>15</v>
@@ -11551,7 +11551,7 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>111643968</v>
+        <v>111643966</v>
       </c>
       <c r="B95" t="n">
         <v>89405</v>
@@ -11591,10 +11591,10 @@
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>563986.7677190969</v>
+        <v>564005.9723301042</v>
       </c>
       <c r="R95" t="n">
-        <v>6704886.590706035</v>
+        <v>6705057.55723764</v>
       </c>
       <c r="S95" t="n">
         <v>15</v>
@@ -11663,10 +11663,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>111643975</v>
+        <v>111643968</v>
       </c>
       <c r="B96" t="n">
-        <v>56543</v>
+        <v>89405</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -11679,42 +11679,34 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>103021</v>
+        <v>1202</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
-      <c r="N96" t="inlineStr"/>
       <c r="P96" t="inlineStr">
         <is>
           <t>Pellkärret, Dlr</t>
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>564036.8712818418</v>
+        <v>563986.7677190969</v>
       </c>
       <c r="R96" t="n">
-        <v>6705069.938933297</v>
+        <v>6704886.590706035</v>
       </c>
       <c r="S96" t="n">
         <v>15</v>
@@ -11783,10 +11775,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>111644019</v>
+        <v>111644018</v>
       </c>
       <c r="B97" t="n">
-        <v>98535</v>
+        <v>5113</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -11799,34 +11791,43 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>222498</v>
+        <v>100526</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr"/>
       <c r="P97" t="inlineStr">
         <is>
           <t>Pellkärret, Dlr</t>
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>563935.1967805427</v>
+        <v>564000.7505970574</v>
       </c>
       <c r="R97" t="n">
-        <v>6704869.89842237</v>
+        <v>6704961.796430262</v>
       </c>
       <c r="S97" t="n">
         <v>15</v>
@@ -11877,6 +11878,7 @@
       <c r="AE97" t="b">
         <v>0</v>
       </c>
+      <c r="AF97" t="inlineStr"/>
       <c r="AG97" t="b">
         <v>0</v>
       </c>
@@ -11895,10 +11897,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>111643967</v>
+        <v>111643995</v>
       </c>
       <c r="B98" t="n">
-        <v>89405</v>
+        <v>96348</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -11907,38 +11909,46 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr"/>
+      <c r="N98" t="inlineStr"/>
       <c r="P98" t="inlineStr">
         <is>
           <t>Pellkärret, Dlr</t>
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>564001.2294282404</v>
+        <v>563991.6879464064</v>
       </c>
       <c r="R98" t="n">
-        <v>6705018.515888276</v>
+        <v>6704971.499027047</v>
       </c>
       <c r="S98" t="n">
         <v>15</v>
@@ -11989,6 +11999,7 @@
       <c r="AE98" t="b">
         <v>0</v>
       </c>
+      <c r="AF98" t="inlineStr"/>
       <c r="AG98" t="b">
         <v>0</v>
       </c>
@@ -12007,10 +12018,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>111643984</v>
+        <v>111644004</v>
       </c>
       <c r="B99" t="n">
-        <v>89183</v>
+        <v>73634</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -12023,21 +12034,21 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>3215</v>
+        <v>6426</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I99" t="inlineStr"/>
@@ -12047,10 +12058,10 @@
         </is>
       </c>
       <c r="Q99" t="n">
-        <v>563935.2490328623</v>
+        <v>563968.3080592508</v>
       </c>
       <c r="R99" t="n">
-        <v>6704866.940414187</v>
+        <v>6704869.004009057</v>
       </c>
       <c r="S99" t="n">
         <v>15</v>
@@ -12095,18 +12106,12 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC99" t="inlineStr">
-        <is>
-          <t>Utanför hänsynssnitslat området</t>
-        </is>
-      </c>
       <c r="AD99" t="b">
         <v>0</v>
       </c>
       <c r="AE99" t="b">
         <v>0</v>
       </c>
-      <c r="AF99" t="inlineStr"/>
       <c r="AG99" t="b">
         <v>0</v>
       </c>
@@ -12125,10 +12130,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>111638852</v>
+        <v>111643967</v>
       </c>
       <c r="B100" t="n">
-        <v>56543</v>
+        <v>89405</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -12141,43 +12146,37 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>103021</v>
+        <v>1202</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
       <c r="P100" t="inlineStr">
         <is>
-          <t>Norra Kallbäck Skysslingen 244, Hedemora (Norra Kallbäck Skysslingen 244, Hedemora), Dlr</t>
+          <t>Pellkärret, Dlr</t>
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>564273.9820338928</v>
+        <v>564001.2294282404</v>
       </c>
       <c r="R100" t="n">
-        <v>6705346.832363938</v>
+        <v>6705018.515888276</v>
       </c>
       <c r="S100" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="T100" t="inlineStr">
         <is>
@@ -12206,7 +12205,7 @@
       </c>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>08:03</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA100" t="inlineStr">
@@ -12216,7 +12215,7 @@
       </c>
       <c r="AB100" t="inlineStr">
         <is>
-          <t>08:03</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD100" t="b">
@@ -12243,10 +12242,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>111644017</v>
+        <v>111643996</v>
       </c>
       <c r="B101" t="n">
-        <v>90687</v>
+        <v>96348</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -12255,41 +12254,38 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>5964</v>
+        <v>220787</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="N101" t="inlineStr"/>
       <c r="P101" t="inlineStr">
         <is>
           <t>Pellkärret, Dlr</t>
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>563880.5711718387</v>
+        <v>564022.4274219956</v>
       </c>
       <c r="R101" t="n">
-        <v>6704914.303850577</v>
+        <v>6705020.86335416</v>
       </c>
       <c r="S101" t="n">
         <v>15</v>
@@ -12340,7 +12336,6 @@
       <c r="AE101" t="b">
         <v>0</v>
       </c>
-      <c r="AF101" t="inlineStr"/>
       <c r="AG101" t="b">
         <v>0</v>
       </c>
@@ -12359,10 +12354,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>111643999</v>
+        <v>111644009</v>
       </c>
       <c r="B102" t="n">
-        <v>96348</v>
+        <v>4717</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -12371,25 +12366,25 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>220787</v>
+        <v>102306</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Granbarkgnagare</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Microbregma emarginatum</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Duftschmid, 1825)</t>
         </is>
       </c>
       <c r="I102" t="inlineStr"/>
@@ -12399,10 +12394,10 @@
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>564214.7220113428</v>
+        <v>564175.9770425721</v>
       </c>
       <c r="R102" t="n">
-        <v>6705207.21881969</v>
+        <v>6705191.738182176</v>
       </c>
       <c r="S102" t="n">
         <v>15</v>
@@ -12471,10 +12466,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>111643966</v>
+        <v>111644017</v>
       </c>
       <c r="B103" t="n">
-        <v>89405</v>
+        <v>90687</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -12483,38 +12478,41 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>1202</v>
+        <v>5964</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="N103" t="inlineStr"/>
       <c r="P103" t="inlineStr">
         <is>
           <t>Pellkärret, Dlr</t>
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>564005.9723301042</v>
+        <v>563880.5711718387</v>
       </c>
       <c r="R103" t="n">
-        <v>6705057.55723764</v>
+        <v>6704914.303850577</v>
       </c>
       <c r="S103" t="n">
         <v>15</v>
@@ -12565,6 +12563,7 @@
       <c r="AE103" t="b">
         <v>0</v>
       </c>
+      <c r="AF103" t="inlineStr"/>
       <c r="AG103" t="b">
         <v>0</v>
       </c>
@@ -12583,10 +12582,10 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>111644004</v>
+        <v>111643970</v>
       </c>
       <c r="B104" t="n">
-        <v>73634</v>
+        <v>89405</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -12595,25 +12594,25 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>6426</v>
+        <v>1202</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I104" t="inlineStr"/>
@@ -12623,10 +12622,10 @@
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>563968.3080592508</v>
+        <v>564135.2605183946</v>
       </c>
       <c r="R104" t="n">
-        <v>6704869.004009057</v>
+        <v>6705092.392526213</v>
       </c>
       <c r="S104" t="n">
         <v>15</v>
@@ -12695,10 +12694,10 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>111644009</v>
+        <v>111644001</v>
       </c>
       <c r="B105" t="n">
-        <v>4717</v>
+        <v>96348</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -12707,25 +12706,25 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>102306</v>
+        <v>220787</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Granbarkgnagare</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Microbregma emarginatum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>(Duftschmid, 1825)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I105" t="inlineStr"/>
@@ -12735,10 +12734,10 @@
         </is>
       </c>
       <c r="Q105" t="n">
-        <v>564175.9770425721</v>
+        <v>564373.5569152004</v>
       </c>
       <c r="R105" t="n">
-        <v>6705191.738182176</v>
+        <v>6705413.196864827</v>
       </c>
       <c r="S105" t="n">
         <v>15</v>
@@ -12807,10 +12806,10 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>111643979</v>
+        <v>111643997</v>
       </c>
       <c r="B106" t="n">
-        <v>90332</v>
+        <v>96348</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -12819,25 +12818,25 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>4769</v>
+        <v>220787</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I106" t="inlineStr"/>
@@ -12847,10 +12846,10 @@
         </is>
       </c>
       <c r="Q106" t="n">
-        <v>563891.7046019271</v>
+        <v>563960.0269251792</v>
       </c>
       <c r="R106" t="n">
-        <v>6704899.212729557</v>
+        <v>6704946.282213242</v>
       </c>
       <c r="S106" t="n">
         <v>15</v>
@@ -12919,10 +12918,10 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>111644021</v>
+        <v>111643978</v>
       </c>
       <c r="B107" t="n">
-        <v>98535</v>
+        <v>90332</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -12935,21 +12934,21 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>222498</v>
+        <v>4769</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I107" t="inlineStr"/>
@@ -12959,10 +12958,10 @@
         </is>
       </c>
       <c r="Q107" t="n">
-        <v>563895.6898476363</v>
+        <v>563897.6824720911</v>
       </c>
       <c r="R107" t="n">
-        <v>6704897.310479084</v>
+        <v>6704896.359355085</v>
       </c>
       <c r="S107" t="n">
         <v>15</v>
@@ -13031,10 +13030,10 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>111643996</v>
+        <v>111644023</v>
       </c>
       <c r="B108" t="n">
-        <v>96348</v>
+        <v>98535</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -13043,25 +13042,25 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>220787</v>
+        <v>222498</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I108" t="inlineStr"/>
@@ -13071,10 +13070,10 @@
         </is>
       </c>
       <c r="Q108" t="n">
-        <v>564022.4274219956</v>
+        <v>563926.0071291642</v>
       </c>
       <c r="R108" t="n">
-        <v>6705020.86335416</v>
+        <v>6704942.722304372</v>
       </c>
       <c r="S108" t="n">
         <v>15</v>
@@ -13143,10 +13142,10 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>111643978</v>
+        <v>111643975</v>
       </c>
       <c r="B109" t="n">
-        <v>90332</v>
+        <v>56543</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -13155,38 +13154,46 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>4769</v>
+        <v>103021</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
+      <c r="N109" t="inlineStr"/>
       <c r="P109" t="inlineStr">
         <is>
           <t>Pellkärret, Dlr</t>
         </is>
       </c>
       <c r="Q109" t="n">
-        <v>563897.6824720911</v>
+        <v>564036.8712818418</v>
       </c>
       <c r="R109" t="n">
-        <v>6704896.359355085</v>
+        <v>6705069.938933297</v>
       </c>
       <c r="S109" t="n">
         <v>15</v>
@@ -13255,10 +13262,10 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>111643995</v>
+        <v>111644010</v>
       </c>
       <c r="B110" t="n">
-        <v>96348</v>
+        <v>4717</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -13267,46 +13274,38 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>220787</v>
+        <v>102306</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Granbarkgnagare</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Microbregma emarginatum</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Duftschmid, 1825)</t>
         </is>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L110" t="inlineStr"/>
-      <c r="N110" t="inlineStr"/>
       <c r="P110" t="inlineStr">
         <is>
           <t>Pellkärret, Dlr</t>
         </is>
       </c>
       <c r="Q110" t="n">
-        <v>563991.6879464064</v>
+        <v>563970.2832921242</v>
       </c>
       <c r="R110" t="n">
-        <v>6704971.499027047</v>
+        <v>6704869.038919549</v>
       </c>
       <c r="S110" t="n">
         <v>15</v>
@@ -13357,7 +13356,6 @@
       <c r="AE110" t="b">
         <v>0</v>
       </c>
-      <c r="AF110" t="inlineStr"/>
       <c r="AG110" t="b">
         <v>0</v>
       </c>
@@ -13376,10 +13374,10 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>111644018</v>
+        <v>111643977</v>
       </c>
       <c r="B111" t="n">
-        <v>5113</v>
+        <v>90332</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -13392,43 +13390,34 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>100526</v>
+        <v>4769</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
-      <c r="N111" t="inlineStr"/>
       <c r="P111" t="inlineStr">
         <is>
           <t>Pellkärret, Dlr</t>
         </is>
       </c>
       <c r="Q111" t="n">
-        <v>564000.7505970574</v>
+        <v>563912.9580050925</v>
       </c>
       <c r="R111" t="n">
-        <v>6704961.796430262</v>
+        <v>6704870.491959149</v>
       </c>
       <c r="S111" t="n">
         <v>15</v>
@@ -13479,7 +13468,6 @@
       <c r="AE111" t="b">
         <v>0</v>
       </c>
-      <c r="AF111" t="inlineStr"/>
       <c r="AG111" t="b">
         <v>0</v>
       </c>
@@ -13498,7 +13486,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>111643993</v>
+        <v>111644000</v>
       </c>
       <c r="B112" t="n">
         <v>96348</v>
@@ -13532,24 +13520,16 @@
         </is>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L112" t="inlineStr"/>
-      <c r="N112" t="inlineStr"/>
       <c r="P112" t="inlineStr">
         <is>
           <t>Pellkärret, Dlr</t>
         </is>
       </c>
       <c r="Q112" t="n">
-        <v>564022.096035301</v>
+        <v>564382.7160046401</v>
       </c>
       <c r="R112" t="n">
-        <v>6705039.59657369</v>
+        <v>6705398.074181959</v>
       </c>
       <c r="S112" t="n">
         <v>15</v>
@@ -13600,7 +13580,6 @@
       <c r="AE112" t="b">
         <v>0</v>
       </c>
-      <c r="AF112" t="inlineStr"/>
       <c r="AG112" t="b">
         <v>0</v>
       </c>
@@ -13619,10 +13598,10 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>111644010</v>
+        <v>111643969</v>
       </c>
       <c r="B113" t="n">
-        <v>4717</v>
+        <v>89405</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -13631,25 +13610,25 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>102306</v>
+        <v>1202</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Granbarkgnagare</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>Microbregma emarginatum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>(Duftschmid, 1825)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I113" t="inlineStr"/>
@@ -13659,10 +13638,10 @@
         </is>
       </c>
       <c r="Q113" t="n">
-        <v>563970.2832921242</v>
+        <v>563961.9324164493</v>
       </c>
       <c r="R113" t="n">
-        <v>6704869.038919549</v>
+        <v>6704950.261043776</v>
       </c>
       <c r="S113" t="n">
         <v>15</v>
@@ -13731,10 +13710,10 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>111643977</v>
+        <v>111638852</v>
       </c>
       <c r="B114" t="n">
-        <v>90332</v>
+        <v>56543</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -13743,41 +13722,47 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>4769</v>
+        <v>103021</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
       <c r="P114" t="inlineStr">
         <is>
-          <t>Pellkärret, Dlr</t>
+          <t>Norra Kallbäck Skysslingen 244, Hedemora (Norra Kallbäck Skysslingen 244, Hedemora), Dlr</t>
         </is>
       </c>
       <c r="Q114" t="n">
-        <v>563912.9580050925</v>
+        <v>564273.9820338928</v>
       </c>
       <c r="R114" t="n">
-        <v>6704870.491959149</v>
+        <v>6705346.832363938</v>
       </c>
       <c r="S114" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="T114" t="inlineStr">
         <is>
@@ -13806,7 +13791,7 @@
       </c>
       <c r="Z114" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>08:03</t>
         </is>
       </c>
       <c r="AA114" t="inlineStr">
@@ -13816,7 +13801,7 @@
       </c>
       <c r="AB114" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>08:03</t>
         </is>
       </c>
       <c r="AD114" t="b">
@@ -13843,10 +13828,10 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>111643970</v>
+        <v>111643984</v>
       </c>
       <c r="B115" t="n">
-        <v>89405</v>
+        <v>89183</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -13855,25 +13840,25 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E115" t="n">
-        <v>1202</v>
+        <v>3215</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I115" t="inlineStr"/>
@@ -13883,10 +13868,10 @@
         </is>
       </c>
       <c r="Q115" t="n">
-        <v>564135.2605183946</v>
+        <v>563935.2490328623</v>
       </c>
       <c r="R115" t="n">
-        <v>6705092.392526213</v>
+        <v>6704866.940414187</v>
       </c>
       <c r="S115" t="n">
         <v>15</v>
@@ -13931,12 +13916,18 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC115" t="inlineStr">
+        <is>
+          <t>Utanför hänsynssnitslat området</t>
+        </is>
+      </c>
       <c r="AD115" t="b">
         <v>0</v>
       </c>
       <c r="AE115" t="b">
         <v>0</v>
       </c>
+      <c r="AF115" t="inlineStr"/>
       <c r="AG115" t="b">
         <v>0</v>
       </c>
@@ -13955,10 +13946,10 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>111644002</v>
+        <v>111643979</v>
       </c>
       <c r="B116" t="n">
-        <v>96348</v>
+        <v>90332</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -13967,25 +13958,25 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>220787</v>
+        <v>4769</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I116" t="inlineStr"/>
@@ -13995,10 +13986,10 @@
         </is>
       </c>
       <c r="Q116" t="n">
-        <v>564362.9780766467</v>
+        <v>563891.7046019271</v>
       </c>
       <c r="R116" t="n">
-        <v>6705424.842679138</v>
+        <v>6704899.212729557</v>
       </c>
       <c r="S116" t="n">
         <v>15</v>
@@ -14067,10 +14058,10 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>111643971</v>
+        <v>111644002</v>
       </c>
       <c r="B117" t="n">
-        <v>90087</v>
+        <v>96348</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -14079,25 +14070,25 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>3298</v>
+        <v>220787</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I117" t="inlineStr"/>
@@ -14107,10 +14098,10 @@
         </is>
       </c>
       <c r="Q117" t="n">
-        <v>564129.6583918922</v>
+        <v>564362.9780766467</v>
       </c>
       <c r="R117" t="n">
-        <v>6705074.047548601</v>
+        <v>6705424.842679138</v>
       </c>
       <c r="S117" t="n">
         <v>15</v>
@@ -14179,10 +14170,10 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>111644023</v>
+        <v>111643994</v>
       </c>
       <c r="B118" t="n">
-        <v>98535</v>
+        <v>96348</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -14191,38 +14182,46 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E118" t="n">
-        <v>222498</v>
+        <v>220787</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L118" t="inlineStr"/>
+      <c r="N118" t="inlineStr"/>
       <c r="P118" t="inlineStr">
         <is>
           <t>Pellkärret, Dlr</t>
         </is>
       </c>
       <c r="Q118" t="n">
-        <v>563926.0071291642</v>
+        <v>563938.1604798381</v>
       </c>
       <c r="R118" t="n">
-        <v>6704942.722304372</v>
+        <v>6704953.786161045</v>
       </c>
       <c r="S118" t="n">
         <v>15</v>
@@ -14273,6 +14272,7 @@
       <c r="AE118" t="b">
         <v>0</v>
       </c>
+      <c r="AF118" t="inlineStr"/>
       <c r="AG118" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 58548-2022.xlsx
+++ b/artfynd/A 58548-2022.xlsx
@@ -10526,10 +10526,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>111644011</v>
+        <v>111643993</v>
       </c>
       <c r="B86" t="n">
-        <v>4717</v>
+        <v>96348</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -10538,38 +10538,46 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>102306</v>
+        <v>220787</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Granbarkgnagare</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Microbregma emarginatum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>(Duftschmid, 1825)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr"/>
+      <c r="N86" t="inlineStr"/>
       <c r="P86" t="inlineStr">
         <is>
           <t>Pellkärret, Dlr</t>
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>563947.9486855237</v>
+        <v>564022.096035301</v>
       </c>
       <c r="R86" t="n">
-        <v>6704875.055250473</v>
+        <v>6705039.59657369</v>
       </c>
       <c r="S86" t="n">
         <v>15</v>
@@ -10620,6 +10628,7 @@
       <c r="AE86" t="b">
         <v>0</v>
       </c>
+      <c r="AF86" t="inlineStr"/>
       <c r="AG86" t="b">
         <v>0</v>
       </c>
@@ -10638,10 +10647,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>111643976</v>
+        <v>111643977</v>
       </c>
       <c r="B87" t="n">
-        <v>56543</v>
+        <v>90332</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -10650,46 +10659,38 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>103021</v>
+        <v>4769</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
-      <c r="N87" t="inlineStr"/>
       <c r="P87" t="inlineStr">
         <is>
           <t>Pellkärret, Dlr</t>
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>563959.9830160879</v>
+        <v>563912.9580050925</v>
       </c>
       <c r="R87" t="n">
-        <v>6704864.911638761</v>
+        <v>6704870.491959149</v>
       </c>
       <c r="S87" t="n">
         <v>15</v>
@@ -10758,10 +10759,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>111643999</v>
+        <v>111643976</v>
       </c>
       <c r="B88" t="n">
-        <v>96348</v>
+        <v>56543</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -10770,38 +10771,46 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>220787</v>
+        <v>103021</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr"/>
       <c r="P88" t="inlineStr">
         <is>
           <t>Pellkärret, Dlr</t>
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>564214.7220113428</v>
+        <v>563959.9830160879</v>
       </c>
       <c r="R88" t="n">
-        <v>6705207.21881969</v>
+        <v>6704864.911638761</v>
       </c>
       <c r="S88" t="n">
         <v>15</v>
@@ -10870,10 +10879,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>111644019</v>
+        <v>111643984</v>
       </c>
       <c r="B89" t="n">
-        <v>98535</v>
+        <v>89183</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -10886,21 +10895,21 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>222498</v>
+        <v>3215</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I89" t="inlineStr"/>
@@ -10910,10 +10919,10 @@
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>563935.1967805427</v>
+        <v>563935.2490328623</v>
       </c>
       <c r="R89" t="n">
-        <v>6704869.89842237</v>
+        <v>6704866.940414187</v>
       </c>
       <c r="S89" t="n">
         <v>15</v>
@@ -10958,12 +10967,18 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC89" t="inlineStr">
+        <is>
+          <t>Utanför hänsynssnitslat området</t>
+        </is>
+      </c>
       <c r="AD89" t="b">
         <v>0</v>
       </c>
       <c r="AE89" t="b">
         <v>0</v>
       </c>
+      <c r="AF89" t="inlineStr"/>
       <c r="AG89" t="b">
         <v>0</v>
       </c>
@@ -10982,10 +10997,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>111644021</v>
+        <v>111644017</v>
       </c>
       <c r="B90" t="n">
-        <v>98535</v>
+        <v>90687</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -10998,34 +11013,37 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>222498</v>
+        <v>5964</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="N90" t="inlineStr"/>
       <c r="P90" t="inlineStr">
         <is>
           <t>Pellkärret, Dlr</t>
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>563895.6898476363</v>
+        <v>563880.5711718387</v>
       </c>
       <c r="R90" t="n">
-        <v>6704897.310479084</v>
+        <v>6704914.303850577</v>
       </c>
       <c r="S90" t="n">
         <v>15</v>
@@ -11076,6 +11094,7 @@
       <c r="AE90" t="b">
         <v>0</v>
       </c>
+      <c r="AF90" t="inlineStr"/>
       <c r="AG90" t="b">
         <v>0</v>
       </c>
@@ -11094,10 +11113,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>111643971</v>
+        <v>111644009</v>
       </c>
       <c r="B91" t="n">
-        <v>90087</v>
+        <v>4717</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -11110,21 +11129,21 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>3298</v>
+        <v>102306</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Granbarkgnagare</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Microbregma emarginatum</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Duftschmid, 1825)</t>
         </is>
       </c>
       <c r="I91" t="inlineStr"/>
@@ -11134,10 +11153,10 @@
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>564129.6583918922</v>
+        <v>564175.9770425721</v>
       </c>
       <c r="R91" t="n">
-        <v>6705074.047548601</v>
+        <v>6705191.738182176</v>
       </c>
       <c r="S91" t="n">
         <v>15</v>
@@ -11206,10 +11225,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>111643998</v>
+        <v>111643975</v>
       </c>
       <c r="B92" t="n">
-        <v>96348</v>
+        <v>56543</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -11218,38 +11237,46 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>220787</v>
+        <v>103021</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr"/>
       <c r="P92" t="inlineStr">
         <is>
           <t>Pellkärret, Dlr</t>
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>564084.7368881714</v>
+        <v>564036.8712818418</v>
       </c>
       <c r="R92" t="n">
-        <v>6705044.650279458</v>
+        <v>6705069.938933297</v>
       </c>
       <c r="S92" t="n">
         <v>15</v>
@@ -11318,10 +11345,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>111643993</v>
+        <v>111643979</v>
       </c>
       <c r="B93" t="n">
-        <v>96348</v>
+        <v>90332</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -11330,46 +11357,38 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>220787</v>
+        <v>4769</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L93" t="inlineStr"/>
-      <c r="N93" t="inlineStr"/>
       <c r="P93" t="inlineStr">
         <is>
           <t>Pellkärret, Dlr</t>
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>564022.096035301</v>
+        <v>563891.7046019271</v>
       </c>
       <c r="R93" t="n">
-        <v>6705039.59657369</v>
+        <v>6704899.212729557</v>
       </c>
       <c r="S93" t="n">
         <v>15</v>
@@ -11420,7 +11439,6 @@
       <c r="AE93" t="b">
         <v>0</v>
       </c>
-      <c r="AF93" t="inlineStr"/>
       <c r="AG93" t="b">
         <v>0</v>
       </c>
@@ -11439,10 +11457,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>111644022</v>
+        <v>111638852</v>
       </c>
       <c r="B94" t="n">
-        <v>98535</v>
+        <v>56543</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -11451,41 +11469,47 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>222498</v>
+        <v>103021</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
       <c r="P94" t="inlineStr">
         <is>
-          <t>Pellkärret, Dlr</t>
+          <t>Norra Kallbäck Skysslingen 244, Hedemora (Norra Kallbäck Skysslingen 244, Hedemora), Dlr</t>
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>563928.069399631</v>
+        <v>564273.9820338928</v>
       </c>
       <c r="R94" t="n">
-        <v>6704937.827276004</v>
+        <v>6705346.832363938</v>
       </c>
       <c r="S94" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="T94" t="inlineStr">
         <is>
@@ -11514,7 +11538,7 @@
       </c>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>08:03</t>
         </is>
       </c>
       <c r="AA94" t="inlineStr">
@@ -11524,7 +11548,7 @@
       </c>
       <c r="AB94" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>08:03</t>
         </is>
       </c>
       <c r="AD94" t="b">
@@ -11551,10 +11575,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>111643966</v>
+        <v>111644021</v>
       </c>
       <c r="B95" t="n">
-        <v>89405</v>
+        <v>98535</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -11563,25 +11587,25 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>1202</v>
+        <v>222498</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I95" t="inlineStr"/>
@@ -11591,10 +11615,10 @@
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>564005.9723301042</v>
+        <v>563895.6898476363</v>
       </c>
       <c r="R95" t="n">
-        <v>6705057.55723764</v>
+        <v>6704897.310479084</v>
       </c>
       <c r="S95" t="n">
         <v>15</v>
@@ -11663,10 +11687,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>111643968</v>
+        <v>111643994</v>
       </c>
       <c r="B96" t="n">
-        <v>89405</v>
+        <v>96348</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -11675,38 +11699,46 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr"/>
+      <c r="N96" t="inlineStr"/>
       <c r="P96" t="inlineStr">
         <is>
           <t>Pellkärret, Dlr</t>
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>563986.7677190969</v>
+        <v>563938.1604798381</v>
       </c>
       <c r="R96" t="n">
-        <v>6704886.590706035</v>
+        <v>6704953.786161045</v>
       </c>
       <c r="S96" t="n">
         <v>15</v>
@@ -11757,6 +11789,7 @@
       <c r="AE96" t="b">
         <v>0</v>
       </c>
+      <c r="AF96" t="inlineStr"/>
       <c r="AG96" t="b">
         <v>0</v>
       </c>
@@ -11775,10 +11808,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>111644018</v>
+        <v>111643998</v>
       </c>
       <c r="B97" t="n">
-        <v>5113</v>
+        <v>96348</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -11787,47 +11820,38 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>100526</v>
+        <v>220787</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
-      <c r="N97" t="inlineStr"/>
       <c r="P97" t="inlineStr">
         <is>
           <t>Pellkärret, Dlr</t>
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>564000.7505970574</v>
+        <v>564084.7368881714</v>
       </c>
       <c r="R97" t="n">
-        <v>6704961.796430262</v>
+        <v>6705044.650279458</v>
       </c>
       <c r="S97" t="n">
         <v>15</v>
@@ -11878,7 +11902,6 @@
       <c r="AE97" t="b">
         <v>0</v>
       </c>
-      <c r="AF97" t="inlineStr"/>
       <c r="AG97" t="b">
         <v>0</v>
       </c>
@@ -11897,10 +11920,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>111643995</v>
+        <v>111644018</v>
       </c>
       <c r="B98" t="n">
-        <v>96348</v>
+        <v>5113</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -11909,35 +11932,36 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>220787</v>
+        <v>100526</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
       <c r="N98" t="inlineStr"/>
       <c r="P98" t="inlineStr">
         <is>
@@ -11945,10 +11969,10 @@
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>563991.6879464064</v>
+        <v>564000.7505970574</v>
       </c>
       <c r="R98" t="n">
-        <v>6704971.499027047</v>
+        <v>6704961.796430262</v>
       </c>
       <c r="S98" t="n">
         <v>15</v>
@@ -12018,10 +12042,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>111644004</v>
+        <v>111643996</v>
       </c>
       <c r="B99" t="n">
-        <v>73634</v>
+        <v>96348</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -12030,25 +12054,25 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>6426</v>
+        <v>220787</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I99" t="inlineStr"/>
@@ -12058,10 +12082,10 @@
         </is>
       </c>
       <c r="Q99" t="n">
-        <v>563968.3080592508</v>
+        <v>564022.4274219956</v>
       </c>
       <c r="R99" t="n">
-        <v>6704869.004009057</v>
+        <v>6705020.86335416</v>
       </c>
       <c r="S99" t="n">
         <v>15</v>
@@ -12130,10 +12154,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>111643967</v>
+        <v>111643978</v>
       </c>
       <c r="B100" t="n">
-        <v>89405</v>
+        <v>90332</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -12142,25 +12166,25 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>1202</v>
+        <v>4769</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I100" t="inlineStr"/>
@@ -12170,10 +12194,10 @@
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>564001.2294282404</v>
+        <v>563897.6824720911</v>
       </c>
       <c r="R100" t="n">
-        <v>6705018.515888276</v>
+        <v>6704896.359355085</v>
       </c>
       <c r="S100" t="n">
         <v>15</v>
@@ -12242,7 +12266,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>111643996</v>
+        <v>111643999</v>
       </c>
       <c r="B101" t="n">
         <v>96348</v>
@@ -12282,10 +12306,10 @@
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>564022.4274219956</v>
+        <v>564214.7220113428</v>
       </c>
       <c r="R101" t="n">
-        <v>6705020.86335416</v>
+        <v>6705207.21881969</v>
       </c>
       <c r="S101" t="n">
         <v>15</v>
@@ -12354,10 +12378,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>111644009</v>
+        <v>111643968</v>
       </c>
       <c r="B102" t="n">
-        <v>4717</v>
+        <v>89405</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -12366,25 +12390,25 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>102306</v>
+        <v>1202</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Granbarkgnagare</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Microbregma emarginatum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>(Duftschmid, 1825)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I102" t="inlineStr"/>
@@ -12394,10 +12418,10 @@
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>564175.9770425721</v>
+        <v>563986.7677190969</v>
       </c>
       <c r="R102" t="n">
-        <v>6705191.738182176</v>
+        <v>6704886.590706035</v>
       </c>
       <c r="S102" t="n">
         <v>15</v>
@@ -12466,10 +12490,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>111644017</v>
+        <v>111644010</v>
       </c>
       <c r="B103" t="n">
-        <v>90687</v>
+        <v>4717</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -12482,37 +12506,34 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>5964</v>
+        <v>102306</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Granbarkgnagare</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Microbregma emarginatum</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Duftschmid, 1825)</t>
         </is>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="N103" t="inlineStr"/>
       <c r="P103" t="inlineStr">
         <is>
           <t>Pellkärret, Dlr</t>
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>563880.5711718387</v>
+        <v>563970.2832921242</v>
       </c>
       <c r="R103" t="n">
-        <v>6704914.303850577</v>
+        <v>6704869.038919549</v>
       </c>
       <c r="S103" t="n">
         <v>15</v>
@@ -12563,7 +12584,6 @@
       <c r="AE103" t="b">
         <v>0</v>
       </c>
-      <c r="AF103" t="inlineStr"/>
       <c r="AG103" t="b">
         <v>0</v>
       </c>
@@ -12582,10 +12602,10 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>111643970</v>
+        <v>111643971</v>
       </c>
       <c r="B104" t="n">
-        <v>89405</v>
+        <v>90087</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -12594,25 +12614,25 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>1202</v>
+        <v>3298</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I104" t="inlineStr"/>
@@ -12622,10 +12642,10 @@
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>564135.2605183946</v>
+        <v>564129.6583918922</v>
       </c>
       <c r="R104" t="n">
-        <v>6705092.392526213</v>
+        <v>6705074.047548601</v>
       </c>
       <c r="S104" t="n">
         <v>15</v>
@@ -12694,10 +12714,10 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>111644001</v>
+        <v>111644023</v>
       </c>
       <c r="B105" t="n">
-        <v>96348</v>
+        <v>98535</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -12706,25 +12726,25 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>220787</v>
+        <v>222498</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I105" t="inlineStr"/>
@@ -12734,10 +12754,10 @@
         </is>
       </c>
       <c r="Q105" t="n">
-        <v>564373.5569152004</v>
+        <v>563926.0071291642</v>
       </c>
       <c r="R105" t="n">
-        <v>6705413.196864827</v>
+        <v>6704942.722304372</v>
       </c>
       <c r="S105" t="n">
         <v>15</v>
@@ -12806,7 +12826,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>111643997</v>
+        <v>111644000</v>
       </c>
       <c r="B106" t="n">
         <v>96348</v>
@@ -12846,10 +12866,10 @@
         </is>
       </c>
       <c r="Q106" t="n">
-        <v>563960.0269251792</v>
+        <v>564382.7160046401</v>
       </c>
       <c r="R106" t="n">
-        <v>6704946.282213242</v>
+        <v>6705398.074181959</v>
       </c>
       <c r="S106" t="n">
         <v>15</v>
@@ -12918,10 +12938,10 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>111643978</v>
+        <v>111643967</v>
       </c>
       <c r="B107" t="n">
-        <v>90332</v>
+        <v>89405</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -12930,25 +12950,25 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>4769</v>
+        <v>1202</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I107" t="inlineStr"/>
@@ -12958,10 +12978,10 @@
         </is>
       </c>
       <c r="Q107" t="n">
-        <v>563897.6824720911</v>
+        <v>564001.2294282404</v>
       </c>
       <c r="R107" t="n">
-        <v>6704896.359355085</v>
+        <v>6705018.515888276</v>
       </c>
       <c r="S107" t="n">
         <v>15</v>
@@ -13030,10 +13050,10 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>111644023</v>
+        <v>111643970</v>
       </c>
       <c r="B108" t="n">
-        <v>98535</v>
+        <v>89405</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -13042,25 +13062,25 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>222498</v>
+        <v>1202</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I108" t="inlineStr"/>
@@ -13070,10 +13090,10 @@
         </is>
       </c>
       <c r="Q108" t="n">
-        <v>563926.0071291642</v>
+        <v>564135.2605183946</v>
       </c>
       <c r="R108" t="n">
-        <v>6704942.722304372</v>
+        <v>6705092.392526213</v>
       </c>
       <c r="S108" t="n">
         <v>15</v>
@@ -13142,10 +13162,10 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>111643975</v>
+        <v>111644001</v>
       </c>
       <c r="B109" t="n">
-        <v>56543</v>
+        <v>96348</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -13154,46 +13174,38 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>103021</v>
+        <v>220787</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
-      <c r="N109" t="inlineStr"/>
       <c r="P109" t="inlineStr">
         <is>
           <t>Pellkärret, Dlr</t>
         </is>
       </c>
       <c r="Q109" t="n">
-        <v>564036.8712818418</v>
+        <v>564373.5569152004</v>
       </c>
       <c r="R109" t="n">
-        <v>6705069.938933297</v>
+        <v>6705413.196864827</v>
       </c>
       <c r="S109" t="n">
         <v>15</v>
@@ -13262,7 +13274,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>111644010</v>
+        <v>111644011</v>
       </c>
       <c r="B110" t="n">
         <v>4717</v>
@@ -13302,10 +13314,10 @@
         </is>
       </c>
       <c r="Q110" t="n">
-        <v>563970.2832921242</v>
+        <v>563947.9486855237</v>
       </c>
       <c r="R110" t="n">
-        <v>6704869.038919549</v>
+        <v>6704875.055250473</v>
       </c>
       <c r="S110" t="n">
         <v>15</v>
@@ -13374,10 +13386,10 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>111643977</v>
+        <v>111643969</v>
       </c>
       <c r="B111" t="n">
-        <v>90332</v>
+        <v>89405</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -13386,25 +13398,25 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>4769</v>
+        <v>1202</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I111" t="inlineStr"/>
@@ -13414,10 +13426,10 @@
         </is>
       </c>
       <c r="Q111" t="n">
-        <v>563912.9580050925</v>
+        <v>563961.9324164493</v>
       </c>
       <c r="R111" t="n">
-        <v>6704870.491959149</v>
+        <v>6704950.261043776</v>
       </c>
       <c r="S111" t="n">
         <v>15</v>
@@ -13486,10 +13498,10 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>111644000</v>
+        <v>111644004</v>
       </c>
       <c r="B112" t="n">
-        <v>96348</v>
+        <v>73634</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -13498,25 +13510,25 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>220787</v>
+        <v>6426</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I112" t="inlineStr"/>
@@ -13526,10 +13538,10 @@
         </is>
       </c>
       <c r="Q112" t="n">
-        <v>564382.7160046401</v>
+        <v>563968.3080592508</v>
       </c>
       <c r="R112" t="n">
-        <v>6705398.074181959</v>
+        <v>6704869.004009057</v>
       </c>
       <c r="S112" t="n">
         <v>15</v>
@@ -13598,10 +13610,10 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>111643969</v>
+        <v>111644019</v>
       </c>
       <c r="B113" t="n">
-        <v>89405</v>
+        <v>98535</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -13610,25 +13622,25 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>1202</v>
+        <v>222498</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I113" t="inlineStr"/>
@@ -13638,10 +13650,10 @@
         </is>
       </c>
       <c r="Q113" t="n">
-        <v>563961.9324164493</v>
+        <v>563935.1967805427</v>
       </c>
       <c r="R113" t="n">
-        <v>6704950.261043776</v>
+        <v>6704869.89842237</v>
       </c>
       <c r="S113" t="n">
         <v>15</v>
@@ -13710,10 +13722,10 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>111638852</v>
+        <v>111643995</v>
       </c>
       <c r="B114" t="n">
-        <v>56543</v>
+        <v>96348</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -13722,47 +13734,49 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>103021</v>
+        <v>220787</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="M114" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L114" t="inlineStr"/>
+      <c r="N114" t="inlineStr"/>
       <c r="P114" t="inlineStr">
         <is>
-          <t>Norra Kallbäck Skysslingen 244, Hedemora (Norra Kallbäck Skysslingen 244, Hedemora), Dlr</t>
+          <t>Pellkärret, Dlr</t>
         </is>
       </c>
       <c r="Q114" t="n">
-        <v>564273.9820338928</v>
+        <v>563991.6879464064</v>
       </c>
       <c r="R114" t="n">
-        <v>6705346.832363938</v>
+        <v>6704971.499027047</v>
       </c>
       <c r="S114" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="T114" t="inlineStr">
         <is>
@@ -13791,7 +13805,7 @@
       </c>
       <c r="Z114" t="inlineStr">
         <is>
-          <t>08:03</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA114" t="inlineStr">
@@ -13801,7 +13815,7 @@
       </c>
       <c r="AB114" t="inlineStr">
         <is>
-          <t>08:03</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD114" t="b">
@@ -13810,6 +13824,7 @@
       <c r="AE114" t="b">
         <v>0</v>
       </c>
+      <c r="AF114" t="inlineStr"/>
       <c r="AG114" t="b">
         <v>0</v>
       </c>
@@ -13828,10 +13843,10 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>111643984</v>
+        <v>111643997</v>
       </c>
       <c r="B115" t="n">
-        <v>89183</v>
+        <v>96348</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -13840,25 +13855,25 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E115" t="n">
-        <v>3215</v>
+        <v>220787</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I115" t="inlineStr"/>
@@ -13868,10 +13883,10 @@
         </is>
       </c>
       <c r="Q115" t="n">
-        <v>563935.2490328623</v>
+        <v>563960.0269251792</v>
       </c>
       <c r="R115" t="n">
-        <v>6704866.940414187</v>
+        <v>6704946.282213242</v>
       </c>
       <c r="S115" t="n">
         <v>15</v>
@@ -13916,18 +13931,12 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC115" t="inlineStr">
-        <is>
-          <t>Utanför hänsynssnitslat området</t>
-        </is>
-      </c>
       <c r="AD115" t="b">
         <v>0</v>
       </c>
       <c r="AE115" t="b">
         <v>0</v>
       </c>
-      <c r="AF115" t="inlineStr"/>
       <c r="AG115" t="b">
         <v>0</v>
       </c>
@@ -13946,10 +13955,10 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>111643979</v>
+        <v>111644002</v>
       </c>
       <c r="B116" t="n">
-        <v>90332</v>
+        <v>96348</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -13958,25 +13967,25 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>4769</v>
+        <v>220787</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I116" t="inlineStr"/>
@@ -13986,10 +13995,10 @@
         </is>
       </c>
       <c r="Q116" t="n">
-        <v>563891.7046019271</v>
+        <v>564362.9780766467</v>
       </c>
       <c r="R116" t="n">
-        <v>6704899.212729557</v>
+        <v>6705424.842679138</v>
       </c>
       <c r="S116" t="n">
         <v>15</v>
@@ -14058,10 +14067,10 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>111644002</v>
+        <v>111643966</v>
       </c>
       <c r="B117" t="n">
-        <v>96348</v>
+        <v>89405</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -14070,25 +14079,25 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I117" t="inlineStr"/>
@@ -14098,10 +14107,10 @@
         </is>
       </c>
       <c r="Q117" t="n">
-        <v>564362.9780766467</v>
+        <v>564005.9723301042</v>
       </c>
       <c r="R117" t="n">
-        <v>6705424.842679138</v>
+        <v>6705057.55723764</v>
       </c>
       <c r="S117" t="n">
         <v>15</v>
@@ -14170,10 +14179,10 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>111643994</v>
+        <v>111644022</v>
       </c>
       <c r="B118" t="n">
-        <v>96348</v>
+        <v>98535</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -14182,46 +14191,38 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E118" t="n">
-        <v>220787</v>
+        <v>222498</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L118" t="inlineStr"/>
-      <c r="N118" t="inlineStr"/>
       <c r="P118" t="inlineStr">
         <is>
           <t>Pellkärret, Dlr</t>
         </is>
       </c>
       <c r="Q118" t="n">
-        <v>563938.1604798381</v>
+        <v>563928.069399631</v>
       </c>
       <c r="R118" t="n">
-        <v>6704953.786161045</v>
+        <v>6704937.827276004</v>
       </c>
       <c r="S118" t="n">
         <v>15</v>
@@ -14272,7 +14273,6 @@
       <c r="AE118" t="b">
         <v>0</v>
       </c>
-      <c r="AF118" t="inlineStr"/>
       <c r="AG118" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 58548-2022.xlsx
+++ b/artfynd/A 58548-2022.xlsx
@@ -10526,10 +10526,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>111643993</v>
+        <v>111643967</v>
       </c>
       <c r="B86" t="n">
-        <v>96348</v>
+        <v>89405</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -10538,46 +10538,38 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L86" t="inlineStr"/>
-      <c r="N86" t="inlineStr"/>
       <c r="P86" t="inlineStr">
         <is>
           <t>Pellkärret, Dlr</t>
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>564022.096035301</v>
+        <v>564001.2294282404</v>
       </c>
       <c r="R86" t="n">
-        <v>6705039.59657369</v>
+        <v>6705018.515888276</v>
       </c>
       <c r="S86" t="n">
         <v>15</v>
@@ -10628,7 +10620,6 @@
       <c r="AE86" t="b">
         <v>0</v>
       </c>
-      <c r="AF86" t="inlineStr"/>
       <c r="AG86" t="b">
         <v>0</v>
       </c>
@@ -10647,10 +10638,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>111643977</v>
+        <v>111643996</v>
       </c>
       <c r="B87" t="n">
-        <v>90332</v>
+        <v>96348</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -10659,25 +10650,25 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>4769</v>
+        <v>220787</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
@@ -10687,10 +10678,10 @@
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>563912.9580050925</v>
+        <v>564022.4274219956</v>
       </c>
       <c r="R87" t="n">
-        <v>6704870.491959149</v>
+        <v>6705020.86335416</v>
       </c>
       <c r="S87" t="n">
         <v>15</v>
@@ -10759,10 +10750,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>111643976</v>
+        <v>111643995</v>
       </c>
       <c r="B88" t="n">
-        <v>56543</v>
+        <v>96348</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -10771,35 +10762,35 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>103021</v>
+        <v>220787</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
       <c r="N88" t="inlineStr"/>
       <c r="P88" t="inlineStr">
         <is>
@@ -10807,10 +10798,10 @@
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>563959.9830160879</v>
+        <v>563991.6879464064</v>
       </c>
       <c r="R88" t="n">
-        <v>6704864.911638761</v>
+        <v>6704971.499027047</v>
       </c>
       <c r="S88" t="n">
         <v>15</v>
@@ -10861,6 +10852,7 @@
       <c r="AE88" t="b">
         <v>0</v>
       </c>
+      <c r="AF88" t="inlineStr"/>
       <c r="AG88" t="b">
         <v>0</v>
       </c>
@@ -10879,10 +10871,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>111643984</v>
+        <v>111644000</v>
       </c>
       <c r="B89" t="n">
-        <v>89183</v>
+        <v>96348</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -10891,25 +10883,25 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>3215</v>
+        <v>220787</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I89" t="inlineStr"/>
@@ -10919,10 +10911,10 @@
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>563935.2490328623</v>
+        <v>564382.7160046401</v>
       </c>
       <c r="R89" t="n">
-        <v>6704866.940414187</v>
+        <v>6705398.074181959</v>
       </c>
       <c r="S89" t="n">
         <v>15</v>
@@ -10967,18 +10959,12 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC89" t="inlineStr">
-        <is>
-          <t>Utanför hänsynssnitslat området</t>
-        </is>
-      </c>
       <c r="AD89" t="b">
         <v>0</v>
       </c>
       <c r="AE89" t="b">
         <v>0</v>
       </c>
-      <c r="AF89" t="inlineStr"/>
       <c r="AG89" t="b">
         <v>0</v>
       </c>
@@ -10997,10 +10983,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>111644017</v>
+        <v>111644022</v>
       </c>
       <c r="B90" t="n">
-        <v>90687</v>
+        <v>98535</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -11013,37 +10999,34 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>5964</v>
+        <v>222498</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="N90" t="inlineStr"/>
       <c r="P90" t="inlineStr">
         <is>
           <t>Pellkärret, Dlr</t>
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>563880.5711718387</v>
+        <v>563928.069399631</v>
       </c>
       <c r="R90" t="n">
-        <v>6704914.303850577</v>
+        <v>6704937.827276004</v>
       </c>
       <c r="S90" t="n">
         <v>15</v>
@@ -11094,7 +11077,6 @@
       <c r="AE90" t="b">
         <v>0</v>
       </c>
-      <c r="AF90" t="inlineStr"/>
       <c r="AG90" t="b">
         <v>0</v>
       </c>
@@ -11113,10 +11095,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>111644009</v>
+        <v>111638852</v>
       </c>
       <c r="B91" t="n">
-        <v>4717</v>
+        <v>56543</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -11125,41 +11107,47 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>102306</v>
+        <v>103021</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Granbarkgnagare</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Microbregma emarginatum</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>(Duftschmid, 1825)</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
       <c r="P91" t="inlineStr">
         <is>
-          <t>Pellkärret, Dlr</t>
+          <t>Norra Kallbäck Skysslingen 244, Hedemora (Norra Kallbäck Skysslingen 244, Hedemora), Dlr</t>
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>564175.9770425721</v>
+        <v>564273.9820338928</v>
       </c>
       <c r="R91" t="n">
-        <v>6705191.738182176</v>
+        <v>6705346.832363938</v>
       </c>
       <c r="S91" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="T91" t="inlineStr">
         <is>
@@ -11188,7 +11176,7 @@
       </c>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>08:03</t>
         </is>
       </c>
       <c r="AA91" t="inlineStr">
@@ -11198,7 +11186,7 @@
       </c>
       <c r="AB91" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>08:03</t>
         </is>
       </c>
       <c r="AD91" t="b">
@@ -11225,10 +11213,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>111643975</v>
+        <v>111644021</v>
       </c>
       <c r="B92" t="n">
-        <v>56543</v>
+        <v>98535</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -11237,46 +11225,38 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>103021</v>
+        <v>222498</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
-      <c r="N92" t="inlineStr"/>
       <c r="P92" t="inlineStr">
         <is>
           <t>Pellkärret, Dlr</t>
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>564036.8712818418</v>
+        <v>563895.6898476363</v>
       </c>
       <c r="R92" t="n">
-        <v>6705069.938933297</v>
+        <v>6704897.310479084</v>
       </c>
       <c r="S92" t="n">
         <v>15</v>
@@ -11345,10 +11325,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>111643979</v>
+        <v>111644023</v>
       </c>
       <c r="B93" t="n">
-        <v>90332</v>
+        <v>98535</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -11361,21 +11341,21 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>4769</v>
+        <v>222498</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I93" t="inlineStr"/>
@@ -11385,10 +11365,10 @@
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>563891.7046019271</v>
+        <v>563926.0071291642</v>
       </c>
       <c r="R93" t="n">
-        <v>6704899.212729557</v>
+        <v>6704942.722304372</v>
       </c>
       <c r="S93" t="n">
         <v>15</v>
@@ -11457,10 +11437,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>111638852</v>
+        <v>111644001</v>
       </c>
       <c r="B94" t="n">
-        <v>56543</v>
+        <v>96348</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -11469,47 +11449,41 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>103021</v>
+        <v>220787</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
       <c r="P94" t="inlineStr">
         <is>
-          <t>Norra Kallbäck Skysslingen 244, Hedemora (Norra Kallbäck Skysslingen 244, Hedemora), Dlr</t>
+          <t>Pellkärret, Dlr</t>
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>564273.9820338928</v>
+        <v>564373.5569152004</v>
       </c>
       <c r="R94" t="n">
-        <v>6705346.832363938</v>
+        <v>6705413.196864827</v>
       </c>
       <c r="S94" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="T94" t="inlineStr">
         <is>
@@ -11538,7 +11512,7 @@
       </c>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>08:03</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA94" t="inlineStr">
@@ -11548,7 +11522,7 @@
       </c>
       <c r="AB94" t="inlineStr">
         <is>
-          <t>08:03</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD94" t="b">
@@ -11575,10 +11549,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>111644021</v>
+        <v>111644002</v>
       </c>
       <c r="B95" t="n">
-        <v>98535</v>
+        <v>96348</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -11587,25 +11561,25 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>222498</v>
+        <v>220787</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I95" t="inlineStr"/>
@@ -11615,10 +11589,10 @@
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>563895.6898476363</v>
+        <v>564362.9780766467</v>
       </c>
       <c r="R95" t="n">
-        <v>6704897.310479084</v>
+        <v>6705424.842679138</v>
       </c>
       <c r="S95" t="n">
         <v>15</v>
@@ -11687,10 +11661,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>111643994</v>
+        <v>111644004</v>
       </c>
       <c r="B96" t="n">
-        <v>96348</v>
+        <v>73634</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -11699,46 +11673,38 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>220787</v>
+        <v>6426</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L96" t="inlineStr"/>
-      <c r="N96" t="inlineStr"/>
       <c r="P96" t="inlineStr">
         <is>
           <t>Pellkärret, Dlr</t>
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>563938.1604798381</v>
+        <v>563968.3080592508</v>
       </c>
       <c r="R96" t="n">
-        <v>6704953.786161045</v>
+        <v>6704869.004009057</v>
       </c>
       <c r="S96" t="n">
         <v>15</v>
@@ -11789,7 +11755,6 @@
       <c r="AE96" t="b">
         <v>0</v>
       </c>
-      <c r="AF96" t="inlineStr"/>
       <c r="AG96" t="b">
         <v>0</v>
       </c>
@@ -11808,10 +11773,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>111643998</v>
+        <v>111643979</v>
       </c>
       <c r="B97" t="n">
-        <v>96348</v>
+        <v>90332</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -11820,25 +11785,25 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>220787</v>
+        <v>4769</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I97" t="inlineStr"/>
@@ -11848,10 +11813,10 @@
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>564084.7368881714</v>
+        <v>563891.7046019271</v>
       </c>
       <c r="R97" t="n">
-        <v>6705044.650279458</v>
+        <v>6704899.212729557</v>
       </c>
       <c r="S97" t="n">
         <v>15</v>
@@ -11920,10 +11885,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>111644018</v>
+        <v>111644010</v>
       </c>
       <c r="B98" t="n">
-        <v>5113</v>
+        <v>4717</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -11936,43 +11901,34 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>100526</v>
+        <v>102306</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Granbarkgnagare</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Microbregma emarginatum</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Duftschmid, 1825)</t>
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
-      <c r="N98" t="inlineStr"/>
       <c r="P98" t="inlineStr">
         <is>
           <t>Pellkärret, Dlr</t>
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>564000.7505970574</v>
+        <v>563970.2832921242</v>
       </c>
       <c r="R98" t="n">
-        <v>6704961.796430262</v>
+        <v>6704869.038919549</v>
       </c>
       <c r="S98" t="n">
         <v>15</v>
@@ -12023,7 +11979,6 @@
       <c r="AE98" t="b">
         <v>0</v>
       </c>
-      <c r="AF98" t="inlineStr"/>
       <c r="AG98" t="b">
         <v>0</v>
       </c>
@@ -12042,10 +11997,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>111643996</v>
+        <v>111643970</v>
       </c>
       <c r="B99" t="n">
-        <v>96348</v>
+        <v>89405</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -12054,25 +12009,25 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I99" t="inlineStr"/>
@@ -12082,10 +12037,10 @@
         </is>
       </c>
       <c r="Q99" t="n">
-        <v>564022.4274219956</v>
+        <v>564135.2605183946</v>
       </c>
       <c r="R99" t="n">
-        <v>6705020.86335416</v>
+        <v>6705092.392526213</v>
       </c>
       <c r="S99" t="n">
         <v>15</v>
@@ -12154,10 +12109,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>111643978</v>
+        <v>111643997</v>
       </c>
       <c r="B100" t="n">
-        <v>90332</v>
+        <v>96348</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -12166,25 +12121,25 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>4769</v>
+        <v>220787</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I100" t="inlineStr"/>
@@ -12194,10 +12149,10 @@
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>563897.6824720911</v>
+        <v>563960.0269251792</v>
       </c>
       <c r="R100" t="n">
-        <v>6704896.359355085</v>
+        <v>6704946.282213242</v>
       </c>
       <c r="S100" t="n">
         <v>15</v>
@@ -12266,10 +12221,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>111643999</v>
+        <v>111643975</v>
       </c>
       <c r="B101" t="n">
-        <v>96348</v>
+        <v>56543</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -12278,38 +12233,46 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>220787</v>
+        <v>103021</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
+      <c r="N101" t="inlineStr"/>
       <c r="P101" t="inlineStr">
         <is>
           <t>Pellkärret, Dlr</t>
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>564214.7220113428</v>
+        <v>564036.8712818418</v>
       </c>
       <c r="R101" t="n">
-        <v>6705207.21881969</v>
+        <v>6705069.938933297</v>
       </c>
       <c r="S101" t="n">
         <v>15</v>
@@ -12378,10 +12341,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>111643968</v>
+        <v>111643998</v>
       </c>
       <c r="B102" t="n">
-        <v>89405</v>
+        <v>96348</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -12390,25 +12353,25 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I102" t="inlineStr"/>
@@ -12418,10 +12381,10 @@
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>563986.7677190969</v>
+        <v>564084.7368881714</v>
       </c>
       <c r="R102" t="n">
-        <v>6704886.590706035</v>
+        <v>6705044.650279458</v>
       </c>
       <c r="S102" t="n">
         <v>15</v>
@@ -12490,10 +12453,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>111644010</v>
+        <v>111644018</v>
       </c>
       <c r="B103" t="n">
-        <v>4717</v>
+        <v>5113</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -12506,34 +12469,43 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>102306</v>
+        <v>100526</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Granbarkgnagare</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Microbregma emarginatum</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>(Duftschmid, 1825)</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
+      <c r="N103" t="inlineStr"/>
       <c r="P103" t="inlineStr">
         <is>
           <t>Pellkärret, Dlr</t>
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>563970.2832921242</v>
+        <v>564000.7505970574</v>
       </c>
       <c r="R103" t="n">
-        <v>6704869.038919549</v>
+        <v>6704961.796430262</v>
       </c>
       <c r="S103" t="n">
         <v>15</v>
@@ -12584,6 +12556,7 @@
       <c r="AE103" t="b">
         <v>0</v>
       </c>
+      <c r="AF103" t="inlineStr"/>
       <c r="AG103" t="b">
         <v>0</v>
       </c>
@@ -12602,10 +12575,10 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>111643971</v>
+        <v>111643978</v>
       </c>
       <c r="B104" t="n">
-        <v>90087</v>
+        <v>90332</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -12618,21 +12591,21 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>3298</v>
+        <v>4769</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I104" t="inlineStr"/>
@@ -12642,10 +12615,10 @@
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>564129.6583918922</v>
+        <v>563897.6824720911</v>
       </c>
       <c r="R104" t="n">
-        <v>6705074.047548601</v>
+        <v>6704896.359355085</v>
       </c>
       <c r="S104" t="n">
         <v>15</v>
@@ -12714,10 +12687,10 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>111644023</v>
+        <v>111644009</v>
       </c>
       <c r="B105" t="n">
-        <v>98535</v>
+        <v>4717</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -12730,21 +12703,21 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>222498</v>
+        <v>102306</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Granbarkgnagare</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Microbregma emarginatum</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Duftschmid, 1825)</t>
         </is>
       </c>
       <c r="I105" t="inlineStr"/>
@@ -12754,10 +12727,10 @@
         </is>
       </c>
       <c r="Q105" t="n">
-        <v>563926.0071291642</v>
+        <v>564175.9770425721</v>
       </c>
       <c r="R105" t="n">
-        <v>6704942.722304372</v>
+        <v>6705191.738182176</v>
       </c>
       <c r="S105" t="n">
         <v>15</v>
@@ -12826,10 +12799,10 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>111644000</v>
+        <v>111643968</v>
       </c>
       <c r="B106" t="n">
-        <v>96348</v>
+        <v>89405</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -12838,25 +12811,25 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I106" t="inlineStr"/>
@@ -12866,10 +12839,10 @@
         </is>
       </c>
       <c r="Q106" t="n">
-        <v>564382.7160046401</v>
+        <v>563986.7677190969</v>
       </c>
       <c r="R106" t="n">
-        <v>6705398.074181959</v>
+        <v>6704886.590706035</v>
       </c>
       <c r="S106" t="n">
         <v>15</v>
@@ -12938,10 +12911,10 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>111643967</v>
+        <v>111643999</v>
       </c>
       <c r="B107" t="n">
-        <v>89405</v>
+        <v>96348</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -12950,25 +12923,25 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I107" t="inlineStr"/>
@@ -12978,10 +12951,10 @@
         </is>
       </c>
       <c r="Q107" t="n">
-        <v>564001.2294282404</v>
+        <v>564214.7220113428</v>
       </c>
       <c r="R107" t="n">
-        <v>6705018.515888276</v>
+        <v>6705207.21881969</v>
       </c>
       <c r="S107" t="n">
         <v>15</v>
@@ -13050,10 +13023,10 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>111643970</v>
+        <v>111644011</v>
       </c>
       <c r="B108" t="n">
-        <v>89405</v>
+        <v>4717</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -13062,25 +13035,25 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>1202</v>
+        <v>102306</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Granbarkgnagare</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Microbregma emarginatum</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Duftschmid, 1825)</t>
         </is>
       </c>
       <c r="I108" t="inlineStr"/>
@@ -13090,10 +13063,10 @@
         </is>
       </c>
       <c r="Q108" t="n">
-        <v>564135.2605183946</v>
+        <v>563947.9486855237</v>
       </c>
       <c r="R108" t="n">
-        <v>6705092.392526213</v>
+        <v>6704875.055250473</v>
       </c>
       <c r="S108" t="n">
         <v>15</v>
@@ -13162,10 +13135,10 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>111644001</v>
+        <v>111643966</v>
       </c>
       <c r="B109" t="n">
-        <v>96348</v>
+        <v>89405</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -13174,25 +13147,25 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I109" t="inlineStr"/>
@@ -13202,10 +13175,10 @@
         </is>
       </c>
       <c r="Q109" t="n">
-        <v>564373.5569152004</v>
+        <v>564005.9723301042</v>
       </c>
       <c r="R109" t="n">
-        <v>6705413.196864827</v>
+        <v>6705057.55723764</v>
       </c>
       <c r="S109" t="n">
         <v>15</v>
@@ -13274,10 +13247,10 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>111644011</v>
+        <v>111644019</v>
       </c>
       <c r="B110" t="n">
-        <v>4717</v>
+        <v>98535</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -13290,21 +13263,21 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>102306</v>
+        <v>222498</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Granbarkgnagare</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Microbregma emarginatum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>(Duftschmid, 1825)</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I110" t="inlineStr"/>
@@ -13314,10 +13287,10 @@
         </is>
       </c>
       <c r="Q110" t="n">
-        <v>563947.9486855237</v>
+        <v>563935.1967805427</v>
       </c>
       <c r="R110" t="n">
-        <v>6704875.055250473</v>
+        <v>6704869.89842237</v>
       </c>
       <c r="S110" t="n">
         <v>15</v>
@@ -13386,10 +13359,10 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>111643969</v>
+        <v>111643994</v>
       </c>
       <c r="B111" t="n">
-        <v>89405</v>
+        <v>96348</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -13398,38 +13371,46 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L111" t="inlineStr"/>
+      <c r="N111" t="inlineStr"/>
       <c r="P111" t="inlineStr">
         <is>
           <t>Pellkärret, Dlr</t>
         </is>
       </c>
       <c r="Q111" t="n">
-        <v>563961.9324164493</v>
+        <v>563938.1604798381</v>
       </c>
       <c r="R111" t="n">
-        <v>6704950.261043776</v>
+        <v>6704953.786161045</v>
       </c>
       <c r="S111" t="n">
         <v>15</v>
@@ -13480,6 +13461,7 @@
       <c r="AE111" t="b">
         <v>0</v>
       </c>
+      <c r="AF111" t="inlineStr"/>
       <c r="AG111" t="b">
         <v>0</v>
       </c>
@@ -13498,10 +13480,10 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>111644004</v>
+        <v>111643971</v>
       </c>
       <c r="B112" t="n">
-        <v>73634</v>
+        <v>90087</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -13514,21 +13496,21 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>6426</v>
+        <v>3298</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I112" t="inlineStr"/>
@@ -13538,10 +13520,10 @@
         </is>
       </c>
       <c r="Q112" t="n">
-        <v>563968.3080592508</v>
+        <v>564129.6583918922</v>
       </c>
       <c r="R112" t="n">
-        <v>6704869.004009057</v>
+        <v>6705074.047548601</v>
       </c>
       <c r="S112" t="n">
         <v>15</v>
@@ -13610,10 +13592,10 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>111644019</v>
+        <v>111643993</v>
       </c>
       <c r="B113" t="n">
-        <v>98535</v>
+        <v>96348</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -13622,38 +13604,46 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>222498</v>
+        <v>220787</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L113" t="inlineStr"/>
+      <c r="N113" t="inlineStr"/>
       <c r="P113" t="inlineStr">
         <is>
           <t>Pellkärret, Dlr</t>
         </is>
       </c>
       <c r="Q113" t="n">
-        <v>563935.1967805427</v>
+        <v>564022.096035301</v>
       </c>
       <c r="R113" t="n">
-        <v>6704869.89842237</v>
+        <v>6705039.59657369</v>
       </c>
       <c r="S113" t="n">
         <v>15</v>
@@ -13704,6 +13694,7 @@
       <c r="AE113" t="b">
         <v>0</v>
       </c>
+      <c r="AF113" t="inlineStr"/>
       <c r="AG113" t="b">
         <v>0</v>
       </c>
@@ -13722,10 +13713,10 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>111643995</v>
+        <v>111643977</v>
       </c>
       <c r="B114" t="n">
-        <v>96348</v>
+        <v>90332</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -13734,46 +13725,38 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>220787</v>
+        <v>4769</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L114" t="inlineStr"/>
-      <c r="N114" t="inlineStr"/>
       <c r="P114" t="inlineStr">
         <is>
           <t>Pellkärret, Dlr</t>
         </is>
       </c>
       <c r="Q114" t="n">
-        <v>563991.6879464064</v>
+        <v>563912.9580050925</v>
       </c>
       <c r="R114" t="n">
-        <v>6704971.499027047</v>
+        <v>6704870.491959149</v>
       </c>
       <c r="S114" t="n">
         <v>15</v>
@@ -13824,7 +13807,6 @@
       <c r="AE114" t="b">
         <v>0</v>
       </c>
-      <c r="AF114" t="inlineStr"/>
       <c r="AG114" t="b">
         <v>0</v>
       </c>
@@ -13843,10 +13825,10 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>111643997</v>
+        <v>111643976</v>
       </c>
       <c r="B115" t="n">
-        <v>96348</v>
+        <v>56543</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -13855,38 +13837,46 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E115" t="n">
-        <v>220787</v>
+        <v>103021</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
+      <c r="N115" t="inlineStr"/>
       <c r="P115" t="inlineStr">
         <is>
           <t>Pellkärret, Dlr</t>
         </is>
       </c>
       <c r="Q115" t="n">
-        <v>563960.0269251792</v>
+        <v>563959.9830160879</v>
       </c>
       <c r="R115" t="n">
-        <v>6704946.282213242</v>
+        <v>6704864.911638761</v>
       </c>
       <c r="S115" t="n">
         <v>15</v>
@@ -13955,10 +13945,10 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>111644002</v>
+        <v>111644017</v>
       </c>
       <c r="B116" t="n">
-        <v>96348</v>
+        <v>90687</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -13967,38 +13957,41 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>220787</v>
+        <v>5964</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="N116" t="inlineStr"/>
       <c r="P116" t="inlineStr">
         <is>
           <t>Pellkärret, Dlr</t>
         </is>
       </c>
       <c r="Q116" t="n">
-        <v>564362.9780766467</v>
+        <v>563880.5711718387</v>
       </c>
       <c r="R116" t="n">
-        <v>6705424.842679138</v>
+        <v>6704914.303850577</v>
       </c>
       <c r="S116" t="n">
         <v>15</v>
@@ -14049,6 +14042,7 @@
       <c r="AE116" t="b">
         <v>0</v>
       </c>
+      <c r="AF116" t="inlineStr"/>
       <c r="AG116" t="b">
         <v>0</v>
       </c>
@@ -14067,7 +14061,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>111643966</v>
+        <v>111643969</v>
       </c>
       <c r="B117" t="n">
         <v>89405</v>
@@ -14107,10 +14101,10 @@
         </is>
       </c>
       <c r="Q117" t="n">
-        <v>564005.9723301042</v>
+        <v>563961.9324164493</v>
       </c>
       <c r="R117" t="n">
-        <v>6705057.55723764</v>
+        <v>6704950.261043776</v>
       </c>
       <c r="S117" t="n">
         <v>15</v>
@@ -14179,10 +14173,10 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>111644022</v>
+        <v>111643984</v>
       </c>
       <c r="B118" t="n">
-        <v>98535</v>
+        <v>89183</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -14195,21 +14189,21 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>222498</v>
+        <v>3215</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I118" t="inlineStr"/>
@@ -14219,10 +14213,10 @@
         </is>
       </c>
       <c r="Q118" t="n">
-        <v>563928.069399631</v>
+        <v>563935.2490328623</v>
       </c>
       <c r="R118" t="n">
-        <v>6704937.827276004</v>
+        <v>6704866.940414187</v>
       </c>
       <c r="S118" t="n">
         <v>15</v>
@@ -14267,12 +14261,18 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC118" t="inlineStr">
+        <is>
+          <t>Utanför hänsynssnitslat området</t>
+        </is>
+      </c>
       <c r="AD118" t="b">
         <v>0</v>
       </c>
       <c r="AE118" t="b">
         <v>0</v>
       </c>
+      <c r="AF118" t="inlineStr"/>
       <c r="AG118" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 58548-2022.xlsx
+++ b/artfynd/A 58548-2022.xlsx
@@ -10526,10 +10526,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>111643967</v>
+        <v>111644001</v>
       </c>
       <c r="B86" t="n">
-        <v>89405</v>
+        <v>96348</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -10538,25 +10538,25 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
@@ -10566,10 +10566,10 @@
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>564001.2294282404</v>
+        <v>564373.5569152004</v>
       </c>
       <c r="R86" t="n">
-        <v>6705018.515888276</v>
+        <v>6705413.196864827</v>
       </c>
       <c r="S86" t="n">
         <v>15</v>
@@ -10638,7 +10638,7 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>111643996</v>
+        <v>111643997</v>
       </c>
       <c r="B87" t="n">
         <v>96348</v>
@@ -10678,10 +10678,10 @@
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>564022.4274219956</v>
+        <v>563960.0269251792</v>
       </c>
       <c r="R87" t="n">
-        <v>6705020.86335416</v>
+        <v>6704946.282213242</v>
       </c>
       <c r="S87" t="n">
         <v>15</v>
@@ -10750,10 +10750,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>111643995</v>
+        <v>111644022</v>
       </c>
       <c r="B88" t="n">
-        <v>96348</v>
+        <v>98535</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -10762,46 +10762,38 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>220787</v>
+        <v>222498</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L88" t="inlineStr"/>
-      <c r="N88" t="inlineStr"/>
       <c r="P88" t="inlineStr">
         <is>
           <t>Pellkärret, Dlr</t>
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>563991.6879464064</v>
+        <v>563928.069399631</v>
       </c>
       <c r="R88" t="n">
-        <v>6704971.499027047</v>
+        <v>6704937.827276004</v>
       </c>
       <c r="S88" t="n">
         <v>15</v>
@@ -10852,7 +10844,6 @@
       <c r="AE88" t="b">
         <v>0</v>
       </c>
-      <c r="AF88" t="inlineStr"/>
       <c r="AG88" t="b">
         <v>0</v>
       </c>
@@ -10871,10 +10862,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>111644000</v>
+        <v>111643984</v>
       </c>
       <c r="B89" t="n">
-        <v>96348</v>
+        <v>89183</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -10883,25 +10874,25 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>220787</v>
+        <v>3215</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I89" t="inlineStr"/>
@@ -10911,10 +10902,10 @@
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>564382.7160046401</v>
+        <v>563935.2490328623</v>
       </c>
       <c r="R89" t="n">
-        <v>6705398.074181959</v>
+        <v>6704866.940414187</v>
       </c>
       <c r="S89" t="n">
         <v>15</v>
@@ -10959,12 +10950,18 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC89" t="inlineStr">
+        <is>
+          <t>Utanför hänsynssnitslat området</t>
+        </is>
+      </c>
       <c r="AD89" t="b">
         <v>0</v>
       </c>
       <c r="AE89" t="b">
         <v>0</v>
       </c>
+      <c r="AF89" t="inlineStr"/>
       <c r="AG89" t="b">
         <v>0</v>
       </c>
@@ -10983,10 +10980,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>111644022</v>
+        <v>111643971</v>
       </c>
       <c r="B90" t="n">
-        <v>98535</v>
+        <v>90087</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -10999,21 +10996,21 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>222498</v>
+        <v>3298</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I90" t="inlineStr"/>
@@ -11023,10 +11020,10 @@
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>563928.069399631</v>
+        <v>564129.6583918922</v>
       </c>
       <c r="R90" t="n">
-        <v>6704937.827276004</v>
+        <v>6705074.047548601</v>
       </c>
       <c r="S90" t="n">
         <v>15</v>
@@ -11095,10 +11092,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>111638852</v>
+        <v>111643993</v>
       </c>
       <c r="B91" t="n">
-        <v>56543</v>
+        <v>96348</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -11107,47 +11104,49 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>103021</v>
+        <v>220787</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr"/>
+      <c r="N91" t="inlineStr"/>
       <c r="P91" t="inlineStr">
         <is>
-          <t>Norra Kallbäck Skysslingen 244, Hedemora (Norra Kallbäck Skysslingen 244, Hedemora), Dlr</t>
+          <t>Pellkärret, Dlr</t>
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>564273.9820338928</v>
+        <v>564022.096035301</v>
       </c>
       <c r="R91" t="n">
-        <v>6705346.832363938</v>
+        <v>6705039.59657369</v>
       </c>
       <c r="S91" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="T91" t="inlineStr">
         <is>
@@ -11176,7 +11175,7 @@
       </c>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>08:03</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA91" t="inlineStr">
@@ -11186,7 +11185,7 @@
       </c>
       <c r="AB91" t="inlineStr">
         <is>
-          <t>08:03</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD91" t="b">
@@ -11195,6 +11194,7 @@
       <c r="AE91" t="b">
         <v>0</v>
       </c>
+      <c r="AF91" t="inlineStr"/>
       <c r="AG91" t="b">
         <v>0</v>
       </c>
@@ -11213,10 +11213,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>111644021</v>
+        <v>111643968</v>
       </c>
       <c r="B92" t="n">
-        <v>98535</v>
+        <v>89405</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -11225,25 +11225,25 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>222498</v>
+        <v>1202</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I92" t="inlineStr"/>
@@ -11253,10 +11253,10 @@
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>563895.6898476363</v>
+        <v>563986.7677190969</v>
       </c>
       <c r="R92" t="n">
-        <v>6704897.310479084</v>
+        <v>6704886.590706035</v>
       </c>
       <c r="S92" t="n">
         <v>15</v>
@@ -11325,10 +11325,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>111644023</v>
+        <v>111643999</v>
       </c>
       <c r="B93" t="n">
-        <v>98535</v>
+        <v>96348</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -11337,25 +11337,25 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>222498</v>
+        <v>220787</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I93" t="inlineStr"/>
@@ -11365,10 +11365,10 @@
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>563926.0071291642</v>
+        <v>564214.7220113428</v>
       </c>
       <c r="R93" t="n">
-        <v>6704942.722304372</v>
+        <v>6705207.21881969</v>
       </c>
       <c r="S93" t="n">
         <v>15</v>
@@ -11437,10 +11437,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>111644001</v>
+        <v>111644021</v>
       </c>
       <c r="B94" t="n">
-        <v>96348</v>
+        <v>98535</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -11449,25 +11449,25 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>220787</v>
+        <v>222498</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I94" t="inlineStr"/>
@@ -11477,10 +11477,10 @@
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>564373.5569152004</v>
+        <v>563895.6898476363</v>
       </c>
       <c r="R94" t="n">
-        <v>6705413.196864827</v>
+        <v>6704897.310479084</v>
       </c>
       <c r="S94" t="n">
         <v>15</v>
@@ -11549,10 +11549,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>111644002</v>
+        <v>111638852</v>
       </c>
       <c r="B95" t="n">
-        <v>96348</v>
+        <v>56543</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -11561,41 +11561,47 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>220787</v>
+        <v>103021</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
       <c r="P95" t="inlineStr">
         <is>
-          <t>Pellkärret, Dlr</t>
+          <t>Norra Kallbäck Skysslingen 244, Hedemora (Norra Kallbäck Skysslingen 244, Hedemora), Dlr</t>
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>564362.9780766467</v>
+        <v>564273.9820338928</v>
       </c>
       <c r="R95" t="n">
-        <v>6705424.842679138</v>
+        <v>6705346.832363938</v>
       </c>
       <c r="S95" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="T95" t="inlineStr">
         <is>
@@ -11624,7 +11630,7 @@
       </c>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>08:03</t>
         </is>
       </c>
       <c r="AA95" t="inlineStr">
@@ -11634,7 +11640,7 @@
       </c>
       <c r="AB95" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>08:03</t>
         </is>
       </c>
       <c r="AD95" t="b">
@@ -11661,10 +11667,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>111644004</v>
+        <v>111643996</v>
       </c>
       <c r="B96" t="n">
-        <v>73634</v>
+        <v>96348</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -11673,25 +11679,25 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>6426</v>
+        <v>220787</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
@@ -11701,10 +11707,10 @@
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>563968.3080592508</v>
+        <v>564022.4274219956</v>
       </c>
       <c r="R96" t="n">
-        <v>6704869.004009057</v>
+        <v>6705020.86335416</v>
       </c>
       <c r="S96" t="n">
         <v>15</v>
@@ -11773,10 +11779,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>111643979</v>
+        <v>111644017</v>
       </c>
       <c r="B97" t="n">
-        <v>90332</v>
+        <v>90687</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -11789,34 +11795,37 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>4769</v>
+        <v>5964</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="N97" t="inlineStr"/>
       <c r="P97" t="inlineStr">
         <is>
           <t>Pellkärret, Dlr</t>
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>563891.7046019271</v>
+        <v>563880.5711718387</v>
       </c>
       <c r="R97" t="n">
-        <v>6704899.212729557</v>
+        <v>6704914.303850577</v>
       </c>
       <c r="S97" t="n">
         <v>15</v>
@@ -11867,6 +11876,7 @@
       <c r="AE97" t="b">
         <v>0</v>
       </c>
+      <c r="AF97" t="inlineStr"/>
       <c r="AG97" t="b">
         <v>0</v>
       </c>
@@ -11885,10 +11895,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>111644010</v>
+        <v>111644019</v>
       </c>
       <c r="B98" t="n">
-        <v>4717</v>
+        <v>98535</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -11901,21 +11911,21 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>102306</v>
+        <v>222498</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Granbarkgnagare</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Microbregma emarginatum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>(Duftschmid, 1825)</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
@@ -11925,10 +11935,10 @@
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>563970.2832921242</v>
+        <v>563935.1967805427</v>
       </c>
       <c r="R98" t="n">
-        <v>6704869.038919549</v>
+        <v>6704869.89842237</v>
       </c>
       <c r="S98" t="n">
         <v>15</v>
@@ -11997,10 +12007,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>111643970</v>
+        <v>111643998</v>
       </c>
       <c r="B99" t="n">
-        <v>89405</v>
+        <v>96348</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -12009,25 +12019,25 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I99" t="inlineStr"/>
@@ -12037,10 +12047,10 @@
         </is>
       </c>
       <c r="Q99" t="n">
-        <v>564135.2605183946</v>
+        <v>564084.7368881714</v>
       </c>
       <c r="R99" t="n">
-        <v>6705092.392526213</v>
+        <v>6705044.650279458</v>
       </c>
       <c r="S99" t="n">
         <v>15</v>
@@ -12109,10 +12119,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>111643997</v>
+        <v>111643975</v>
       </c>
       <c r="B100" t="n">
-        <v>96348</v>
+        <v>56543</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -12121,38 +12131,46 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>220787</v>
+        <v>103021</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr"/>
       <c r="P100" t="inlineStr">
         <is>
           <t>Pellkärret, Dlr</t>
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>563960.0269251792</v>
+        <v>564036.8712818418</v>
       </c>
       <c r="R100" t="n">
-        <v>6704946.282213242</v>
+        <v>6705069.938933297</v>
       </c>
       <c r="S100" t="n">
         <v>15</v>
@@ -12221,10 +12239,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>111643975</v>
+        <v>111644004</v>
       </c>
       <c r="B101" t="n">
-        <v>56543</v>
+        <v>73634</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -12233,46 +12251,38 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>103021</v>
+        <v>6426</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
-      <c r="N101" t="inlineStr"/>
       <c r="P101" t="inlineStr">
         <is>
           <t>Pellkärret, Dlr</t>
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>564036.8712818418</v>
+        <v>563968.3080592508</v>
       </c>
       <c r="R101" t="n">
-        <v>6705069.938933297</v>
+        <v>6704869.004009057</v>
       </c>
       <c r="S101" t="n">
         <v>15</v>
@@ -12341,7 +12351,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>111643998</v>
+        <v>111644000</v>
       </c>
       <c r="B102" t="n">
         <v>96348</v>
@@ -12381,10 +12391,10 @@
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>564084.7368881714</v>
+        <v>564382.7160046401</v>
       </c>
       <c r="R102" t="n">
-        <v>6705044.650279458</v>
+        <v>6705398.074181959</v>
       </c>
       <c r="S102" t="n">
         <v>15</v>
@@ -12453,10 +12463,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>111644018</v>
+        <v>111643979</v>
       </c>
       <c r="B103" t="n">
-        <v>5113</v>
+        <v>90332</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -12469,43 +12479,34 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>100526</v>
+        <v>4769</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
-      <c r="N103" t="inlineStr"/>
       <c r="P103" t="inlineStr">
         <is>
           <t>Pellkärret, Dlr</t>
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>564000.7505970574</v>
+        <v>563891.7046019271</v>
       </c>
       <c r="R103" t="n">
-        <v>6704961.796430262</v>
+        <v>6704899.212729557</v>
       </c>
       <c r="S103" t="n">
         <v>15</v>
@@ -12556,7 +12557,6 @@
       <c r="AE103" t="b">
         <v>0</v>
       </c>
-      <c r="AF103" t="inlineStr"/>
       <c r="AG103" t="b">
         <v>0</v>
       </c>
@@ -12575,10 +12575,10 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>111643978</v>
+        <v>111643966</v>
       </c>
       <c r="B104" t="n">
-        <v>90332</v>
+        <v>89405</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -12587,25 +12587,25 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>4769</v>
+        <v>1202</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I104" t="inlineStr"/>
@@ -12615,10 +12615,10 @@
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>563897.6824720911</v>
+        <v>564005.9723301042</v>
       </c>
       <c r="R104" t="n">
-        <v>6704896.359355085</v>
+        <v>6705057.55723764</v>
       </c>
       <c r="S104" t="n">
         <v>15</v>
@@ -12687,10 +12687,10 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>111644009</v>
+        <v>111644018</v>
       </c>
       <c r="B105" t="n">
-        <v>4717</v>
+        <v>5113</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -12703,34 +12703,43 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>102306</v>
+        <v>100526</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Granbarkgnagare</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Microbregma emarginatum</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>(Duftschmid, 1825)</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
+      <c r="N105" t="inlineStr"/>
       <c r="P105" t="inlineStr">
         <is>
           <t>Pellkärret, Dlr</t>
         </is>
       </c>
       <c r="Q105" t="n">
-        <v>564175.9770425721</v>
+        <v>564000.7505970574</v>
       </c>
       <c r="R105" t="n">
-        <v>6705191.738182176</v>
+        <v>6704961.796430262</v>
       </c>
       <c r="S105" t="n">
         <v>15</v>
@@ -12781,6 +12790,7 @@
       <c r="AE105" t="b">
         <v>0</v>
       </c>
+      <c r="AF105" t="inlineStr"/>
       <c r="AG105" t="b">
         <v>0</v>
       </c>
@@ -12799,10 +12809,10 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>111643968</v>
+        <v>111644009</v>
       </c>
       <c r="B106" t="n">
-        <v>89405</v>
+        <v>4717</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -12811,25 +12821,25 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>1202</v>
+        <v>102306</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Granbarkgnagare</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Microbregma emarginatum</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Duftschmid, 1825)</t>
         </is>
       </c>
       <c r="I106" t="inlineStr"/>
@@ -12839,10 +12849,10 @@
         </is>
       </c>
       <c r="Q106" t="n">
-        <v>563986.7677190969</v>
+        <v>564175.9770425721</v>
       </c>
       <c r="R106" t="n">
-        <v>6704886.590706035</v>
+        <v>6705191.738182176</v>
       </c>
       <c r="S106" t="n">
         <v>15</v>
@@ -12911,10 +12921,10 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>111643999</v>
+        <v>111643978</v>
       </c>
       <c r="B107" t="n">
-        <v>96348</v>
+        <v>90332</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -12923,25 +12933,25 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>220787</v>
+        <v>4769</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I107" t="inlineStr"/>
@@ -12951,10 +12961,10 @@
         </is>
       </c>
       <c r="Q107" t="n">
-        <v>564214.7220113428</v>
+        <v>563897.6824720911</v>
       </c>
       <c r="R107" t="n">
-        <v>6705207.21881969</v>
+        <v>6704896.359355085</v>
       </c>
       <c r="S107" t="n">
         <v>15</v>
@@ -13135,10 +13145,10 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>111643966</v>
+        <v>111644010</v>
       </c>
       <c r="B109" t="n">
-        <v>89405</v>
+        <v>4717</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -13147,25 +13157,25 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>1202</v>
+        <v>102306</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Granbarkgnagare</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Microbregma emarginatum</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Duftschmid, 1825)</t>
         </is>
       </c>
       <c r="I109" t="inlineStr"/>
@@ -13175,10 +13185,10 @@
         </is>
       </c>
       <c r="Q109" t="n">
-        <v>564005.9723301042</v>
+        <v>563970.2832921242</v>
       </c>
       <c r="R109" t="n">
-        <v>6705057.55723764</v>
+        <v>6704869.038919549</v>
       </c>
       <c r="S109" t="n">
         <v>15</v>
@@ -13247,10 +13257,10 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>111644019</v>
+        <v>111643969</v>
       </c>
       <c r="B110" t="n">
-        <v>98535</v>
+        <v>89405</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -13259,25 +13269,25 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>222498</v>
+        <v>1202</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I110" t="inlineStr"/>
@@ -13287,10 +13297,10 @@
         </is>
       </c>
       <c r="Q110" t="n">
-        <v>563935.1967805427</v>
+        <v>563961.9324164493</v>
       </c>
       <c r="R110" t="n">
-        <v>6704869.89842237</v>
+        <v>6704950.261043776</v>
       </c>
       <c r="S110" t="n">
         <v>15</v>
@@ -13359,10 +13369,10 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>111643994</v>
+        <v>111643967</v>
       </c>
       <c r="B111" t="n">
-        <v>96348</v>
+        <v>89405</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -13371,46 +13381,38 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L111" t="inlineStr"/>
-      <c r="N111" t="inlineStr"/>
       <c r="P111" t="inlineStr">
         <is>
           <t>Pellkärret, Dlr</t>
         </is>
       </c>
       <c r="Q111" t="n">
-        <v>563938.1604798381</v>
+        <v>564001.2294282404</v>
       </c>
       <c r="R111" t="n">
-        <v>6704953.786161045</v>
+        <v>6705018.515888276</v>
       </c>
       <c r="S111" t="n">
         <v>15</v>
@@ -13461,7 +13463,6 @@
       <c r="AE111" t="b">
         <v>0</v>
       </c>
-      <c r="AF111" t="inlineStr"/>
       <c r="AG111" t="b">
         <v>0</v>
       </c>
@@ -13480,10 +13481,10 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>111643971</v>
+        <v>111643976</v>
       </c>
       <c r="B112" t="n">
-        <v>90087</v>
+        <v>56543</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -13492,38 +13493,46 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>3298</v>
+        <v>103021</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
+      <c r="N112" t="inlineStr"/>
       <c r="P112" t="inlineStr">
         <is>
           <t>Pellkärret, Dlr</t>
         </is>
       </c>
       <c r="Q112" t="n">
-        <v>564129.6583918922</v>
+        <v>563959.9830160879</v>
       </c>
       <c r="R112" t="n">
-        <v>6705074.047548601</v>
+        <v>6704864.911638761</v>
       </c>
       <c r="S112" t="n">
         <v>15</v>
@@ -13592,7 +13601,7 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>111643993</v>
+        <v>111643994</v>
       </c>
       <c r="B113" t="n">
         <v>96348</v>
@@ -13640,10 +13649,10 @@
         </is>
       </c>
       <c r="Q113" t="n">
-        <v>564022.096035301</v>
+        <v>563938.1604798381</v>
       </c>
       <c r="R113" t="n">
-        <v>6705039.59657369</v>
+        <v>6704953.786161045</v>
       </c>
       <c r="S113" t="n">
         <v>15</v>
@@ -13713,10 +13722,10 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>111643977</v>
+        <v>111643995</v>
       </c>
       <c r="B114" t="n">
-        <v>90332</v>
+        <v>96348</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -13725,38 +13734,46 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>4769</v>
+        <v>220787</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L114" t="inlineStr"/>
+      <c r="N114" t="inlineStr"/>
       <c r="P114" t="inlineStr">
         <is>
           <t>Pellkärret, Dlr</t>
         </is>
       </c>
       <c r="Q114" t="n">
-        <v>563912.9580050925</v>
+        <v>563991.6879464064</v>
       </c>
       <c r="R114" t="n">
-        <v>6704870.491959149</v>
+        <v>6704971.499027047</v>
       </c>
       <c r="S114" t="n">
         <v>15</v>
@@ -13807,6 +13824,7 @@
       <c r="AE114" t="b">
         <v>0</v>
       </c>
+      <c r="AF114" t="inlineStr"/>
       <c r="AG114" t="b">
         <v>0</v>
       </c>
@@ -13825,10 +13843,10 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>111643976</v>
+        <v>111643970</v>
       </c>
       <c r="B115" t="n">
-        <v>56543</v>
+        <v>89405</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -13841,42 +13859,34 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>103021</v>
+        <v>1202</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
-      <c r="N115" t="inlineStr"/>
       <c r="P115" t="inlineStr">
         <is>
           <t>Pellkärret, Dlr</t>
         </is>
       </c>
       <c r="Q115" t="n">
-        <v>563959.9830160879</v>
+        <v>564135.2605183946</v>
       </c>
       <c r="R115" t="n">
-        <v>6704864.911638761</v>
+        <v>6705092.392526213</v>
       </c>
       <c r="S115" t="n">
         <v>15</v>
@@ -13945,10 +13955,10 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>111644017</v>
+        <v>111644002</v>
       </c>
       <c r="B116" t="n">
-        <v>90687</v>
+        <v>96348</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -13957,41 +13967,38 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>5964</v>
+        <v>220787</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="N116" t="inlineStr"/>
       <c r="P116" t="inlineStr">
         <is>
           <t>Pellkärret, Dlr</t>
         </is>
       </c>
       <c r="Q116" t="n">
-        <v>563880.5711718387</v>
+        <v>564362.9780766467</v>
       </c>
       <c r="R116" t="n">
-        <v>6704914.303850577</v>
+        <v>6705424.842679138</v>
       </c>
       <c r="S116" t="n">
         <v>15</v>
@@ -14042,7 +14049,6 @@
       <c r="AE116" t="b">
         <v>0</v>
       </c>
-      <c r="AF116" t="inlineStr"/>
       <c r="AG116" t="b">
         <v>0</v>
       </c>
@@ -14061,10 +14067,10 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>111643969</v>
+        <v>111644023</v>
       </c>
       <c r="B117" t="n">
-        <v>89405</v>
+        <v>98535</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -14073,25 +14079,25 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>1202</v>
+        <v>222498</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I117" t="inlineStr"/>
@@ -14101,10 +14107,10 @@
         </is>
       </c>
       <c r="Q117" t="n">
-        <v>563961.9324164493</v>
+        <v>563926.0071291642</v>
       </c>
       <c r="R117" t="n">
-        <v>6704950.261043776</v>
+        <v>6704942.722304372</v>
       </c>
       <c r="S117" t="n">
         <v>15</v>
@@ -14173,10 +14179,10 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>111643984</v>
+        <v>111643977</v>
       </c>
       <c r="B118" t="n">
-        <v>89183</v>
+        <v>90332</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -14189,21 +14195,21 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>3215</v>
+        <v>4769</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I118" t="inlineStr"/>
@@ -14213,10 +14219,10 @@
         </is>
       </c>
       <c r="Q118" t="n">
-        <v>563935.2490328623</v>
+        <v>563912.9580050925</v>
       </c>
       <c r="R118" t="n">
-        <v>6704866.940414187</v>
+        <v>6704870.491959149</v>
       </c>
       <c r="S118" t="n">
         <v>15</v>
@@ -14261,18 +14267,12 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC118" t="inlineStr">
-        <is>
-          <t>Utanför hänsynssnitslat området</t>
-        </is>
-      </c>
       <c r="AD118" t="b">
         <v>0</v>
       </c>
       <c r="AE118" t="b">
         <v>0</v>
       </c>
-      <c r="AF118" t="inlineStr"/>
       <c r="AG118" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 58548-2022.xlsx
+++ b/artfynd/A 58548-2022.xlsx
@@ -10526,10 +10526,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>111644001</v>
+        <v>111644011</v>
       </c>
       <c r="B86" t="n">
-        <v>96348</v>
+        <v>4717</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -10538,25 +10538,25 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>220787</v>
+        <v>102306</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Granbarkgnagare</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Microbregma emarginatum</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Duftschmid, 1825)</t>
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
@@ -10566,10 +10566,10 @@
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>564373.5569152004</v>
+        <v>563947.9486855237</v>
       </c>
       <c r="R86" t="n">
-        <v>6705413.196864827</v>
+        <v>6704875.055250473</v>
       </c>
       <c r="S86" t="n">
         <v>15</v>
@@ -10638,7 +10638,7 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>111643997</v>
+        <v>111643994</v>
       </c>
       <c r="B87" t="n">
         <v>96348</v>
@@ -10672,16 +10672,24 @@
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr"/>
+      <c r="N87" t="inlineStr"/>
       <c r="P87" t="inlineStr">
         <is>
           <t>Pellkärret, Dlr</t>
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>563960.0269251792</v>
+        <v>563938.1604798381</v>
       </c>
       <c r="R87" t="n">
-        <v>6704946.282213242</v>
+        <v>6704953.786161045</v>
       </c>
       <c r="S87" t="n">
         <v>15</v>
@@ -10732,6 +10740,7 @@
       <c r="AE87" t="b">
         <v>0</v>
       </c>
+      <c r="AF87" t="inlineStr"/>
       <c r="AG87" t="b">
         <v>0</v>
       </c>
@@ -10750,10 +10759,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>111644022</v>
+        <v>111643976</v>
       </c>
       <c r="B88" t="n">
-        <v>98535</v>
+        <v>56543</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -10762,38 +10771,46 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>222498</v>
+        <v>103021</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr"/>
       <c r="P88" t="inlineStr">
         <is>
           <t>Pellkärret, Dlr</t>
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>563928.069399631</v>
+        <v>563959.9830160879</v>
       </c>
       <c r="R88" t="n">
-        <v>6704937.827276004</v>
+        <v>6704864.911638761</v>
       </c>
       <c r="S88" t="n">
         <v>15</v>
@@ -10862,10 +10879,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>111643984</v>
+        <v>111643979</v>
       </c>
       <c r="B89" t="n">
-        <v>89183</v>
+        <v>90332</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -10878,21 +10895,21 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>3215</v>
+        <v>4769</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I89" t="inlineStr"/>
@@ -10902,10 +10919,10 @@
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>563935.2490328623</v>
+        <v>563891.7046019271</v>
       </c>
       <c r="R89" t="n">
-        <v>6704866.940414187</v>
+        <v>6704899.212729557</v>
       </c>
       <c r="S89" t="n">
         <v>15</v>
@@ -10950,18 +10967,12 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC89" t="inlineStr">
-        <is>
-          <t>Utanför hänsynssnitslat området</t>
-        </is>
-      </c>
       <c r="AD89" t="b">
         <v>0</v>
       </c>
       <c r="AE89" t="b">
         <v>0</v>
       </c>
-      <c r="AF89" t="inlineStr"/>
       <c r="AG89" t="b">
         <v>0</v>
       </c>
@@ -10980,10 +10991,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>111643971</v>
+        <v>111644017</v>
       </c>
       <c r="B90" t="n">
-        <v>90087</v>
+        <v>90687</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -10996,34 +11007,37 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>3298</v>
+        <v>5964</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="N90" t="inlineStr"/>
       <c r="P90" t="inlineStr">
         <is>
           <t>Pellkärret, Dlr</t>
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>564129.6583918922</v>
+        <v>563880.5711718387</v>
       </c>
       <c r="R90" t="n">
-        <v>6705074.047548601</v>
+        <v>6704914.303850577</v>
       </c>
       <c r="S90" t="n">
         <v>15</v>
@@ -11074,6 +11088,7 @@
       <c r="AE90" t="b">
         <v>0</v>
       </c>
+      <c r="AF90" t="inlineStr"/>
       <c r="AG90" t="b">
         <v>0</v>
       </c>
@@ -11092,7 +11107,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>111643993</v>
+        <v>111644000</v>
       </c>
       <c r="B91" t="n">
         <v>96348</v>
@@ -11126,24 +11141,16 @@
         </is>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L91" t="inlineStr"/>
-      <c r="N91" t="inlineStr"/>
       <c r="P91" t="inlineStr">
         <is>
           <t>Pellkärret, Dlr</t>
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>564022.096035301</v>
+        <v>564382.7160046401</v>
       </c>
       <c r="R91" t="n">
-        <v>6705039.59657369</v>
+        <v>6705398.074181959</v>
       </c>
       <c r="S91" t="n">
         <v>15</v>
@@ -11194,7 +11201,6 @@
       <c r="AE91" t="b">
         <v>0</v>
       </c>
-      <c r="AF91" t="inlineStr"/>
       <c r="AG91" t="b">
         <v>0</v>
       </c>
@@ -11213,10 +11219,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>111643968</v>
+        <v>111643995</v>
       </c>
       <c r="B92" t="n">
-        <v>89405</v>
+        <v>96348</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -11225,38 +11231,46 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr"/>
+      <c r="N92" t="inlineStr"/>
       <c r="P92" t="inlineStr">
         <is>
           <t>Pellkärret, Dlr</t>
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>563986.7677190969</v>
+        <v>563991.6879464064</v>
       </c>
       <c r="R92" t="n">
-        <v>6704886.590706035</v>
+        <v>6704971.499027047</v>
       </c>
       <c r="S92" t="n">
         <v>15</v>
@@ -11307,6 +11321,7 @@
       <c r="AE92" t="b">
         <v>0</v>
       </c>
+      <c r="AF92" t="inlineStr"/>
       <c r="AG92" t="b">
         <v>0</v>
       </c>
@@ -11325,10 +11340,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>111643999</v>
+        <v>111643966</v>
       </c>
       <c r="B93" t="n">
-        <v>96348</v>
+        <v>89405</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -11337,25 +11352,25 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I93" t="inlineStr"/>
@@ -11365,10 +11380,10 @@
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>564214.7220113428</v>
+        <v>564005.9723301042</v>
       </c>
       <c r="R93" t="n">
-        <v>6705207.21881969</v>
+        <v>6705057.55723764</v>
       </c>
       <c r="S93" t="n">
         <v>15</v>
@@ -11437,7 +11452,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>111644021</v>
+        <v>111644022</v>
       </c>
       <c r="B94" t="n">
         <v>98535</v>
@@ -11477,10 +11492,10 @@
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>563895.6898476363</v>
+        <v>563928.069399631</v>
       </c>
       <c r="R94" t="n">
-        <v>6704897.310479084</v>
+        <v>6704937.827276004</v>
       </c>
       <c r="S94" t="n">
         <v>15</v>
@@ -11549,10 +11564,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>111638852</v>
+        <v>111643998</v>
       </c>
       <c r="B95" t="n">
-        <v>56543</v>
+        <v>96348</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -11561,47 +11576,41 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>103021</v>
+        <v>220787</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="M95" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
       <c r="P95" t="inlineStr">
         <is>
-          <t>Norra Kallbäck Skysslingen 244, Hedemora (Norra Kallbäck Skysslingen 244, Hedemora), Dlr</t>
+          <t>Pellkärret, Dlr</t>
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>564273.9820338928</v>
+        <v>564084.7368881714</v>
       </c>
       <c r="R95" t="n">
-        <v>6705346.832363938</v>
+        <v>6705044.650279458</v>
       </c>
       <c r="S95" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="T95" t="inlineStr">
         <is>
@@ -11630,7 +11639,7 @@
       </c>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>08:03</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA95" t="inlineStr">
@@ -11640,7 +11649,7 @@
       </c>
       <c r="AB95" t="inlineStr">
         <is>
-          <t>08:03</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD95" t="b">
@@ -11667,10 +11676,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>111643996</v>
+        <v>111643978</v>
       </c>
       <c r="B96" t="n">
-        <v>96348</v>
+        <v>90332</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -11679,25 +11688,25 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>220787</v>
+        <v>4769</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
@@ -11707,10 +11716,10 @@
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>564022.4274219956</v>
+        <v>563897.6824720911</v>
       </c>
       <c r="R96" t="n">
-        <v>6705020.86335416</v>
+        <v>6704896.359355085</v>
       </c>
       <c r="S96" t="n">
         <v>15</v>
@@ -11779,10 +11788,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>111644017</v>
+        <v>111643984</v>
       </c>
       <c r="B97" t="n">
-        <v>90687</v>
+        <v>89183</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -11795,37 +11804,34 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>5964</v>
+        <v>3215</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="N97" t="inlineStr"/>
       <c r="P97" t="inlineStr">
         <is>
           <t>Pellkärret, Dlr</t>
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>563880.5711718387</v>
+        <v>563935.2490328623</v>
       </c>
       <c r="R97" t="n">
-        <v>6704914.303850577</v>
+        <v>6704866.940414187</v>
       </c>
       <c r="S97" t="n">
         <v>15</v>
@@ -11868,6 +11874,11 @@
       <c r="AB97" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC97" t="inlineStr">
+        <is>
+          <t>Utanför hänsynssnitslat området</t>
         </is>
       </c>
       <c r="AD97" t="b">
@@ -11895,10 +11906,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>111644019</v>
+        <v>111643996</v>
       </c>
       <c r="B98" t="n">
-        <v>98535</v>
+        <v>96348</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -11907,25 +11918,25 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>222498</v>
+        <v>220787</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
@@ -11935,10 +11946,10 @@
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>563935.1967805427</v>
+        <v>564022.4274219956</v>
       </c>
       <c r="R98" t="n">
-        <v>6704869.89842237</v>
+        <v>6705020.86335416</v>
       </c>
       <c r="S98" t="n">
         <v>15</v>
@@ -12007,7 +12018,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>111643998</v>
+        <v>111643993</v>
       </c>
       <c r="B99" t="n">
         <v>96348</v>
@@ -12041,16 +12052,24 @@
         </is>
       </c>
       <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr"/>
+      <c r="N99" t="inlineStr"/>
       <c r="P99" t="inlineStr">
         <is>
           <t>Pellkärret, Dlr</t>
         </is>
       </c>
       <c r="Q99" t="n">
-        <v>564084.7368881714</v>
+        <v>564022.096035301</v>
       </c>
       <c r="R99" t="n">
-        <v>6705044.650279458</v>
+        <v>6705039.59657369</v>
       </c>
       <c r="S99" t="n">
         <v>15</v>
@@ -12101,6 +12120,7 @@
       <c r="AE99" t="b">
         <v>0</v>
       </c>
+      <c r="AF99" t="inlineStr"/>
       <c r="AG99" t="b">
         <v>0</v>
       </c>
@@ -12119,7 +12139,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>111643975</v>
+        <v>111638852</v>
       </c>
       <c r="B100" t="n">
         <v>56543</v>
@@ -12154,26 +12174,24 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
       <c r="M100" t="inlineStr">
         <is>
           <t>spel/sång</t>
         </is>
       </c>
-      <c r="N100" t="inlineStr"/>
       <c r="P100" t="inlineStr">
         <is>
-          <t>Pellkärret, Dlr</t>
+          <t>Norra Kallbäck Skysslingen 244, Hedemora (Norra Kallbäck Skysslingen 244, Hedemora), Dlr</t>
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>564036.8712818418</v>
+        <v>564273.9820338928</v>
       </c>
       <c r="R100" t="n">
-        <v>6705069.938933297</v>
+        <v>6705346.832363938</v>
       </c>
       <c r="S100" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="T100" t="inlineStr">
         <is>
@@ -12202,7 +12220,7 @@
       </c>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>08:03</t>
         </is>
       </c>
       <c r="AA100" t="inlineStr">
@@ -12212,7 +12230,7 @@
       </c>
       <c r="AB100" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>08:03</t>
         </is>
       </c>
       <c r="AD100" t="b">
@@ -12239,10 +12257,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>111644004</v>
+        <v>111644001</v>
       </c>
       <c r="B101" t="n">
-        <v>73634</v>
+        <v>96348</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -12251,25 +12269,25 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>6426</v>
+        <v>220787</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I101" t="inlineStr"/>
@@ -12279,10 +12297,10 @@
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>563968.3080592508</v>
+        <v>564373.5569152004</v>
       </c>
       <c r="R101" t="n">
-        <v>6704869.004009057</v>
+        <v>6705413.196864827</v>
       </c>
       <c r="S101" t="n">
         <v>15</v>
@@ -12351,10 +12369,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>111644000</v>
+        <v>111644021</v>
       </c>
       <c r="B102" t="n">
-        <v>96348</v>
+        <v>98535</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -12363,25 +12381,25 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>220787</v>
+        <v>222498</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I102" t="inlineStr"/>
@@ -12391,10 +12409,10 @@
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>564382.7160046401</v>
+        <v>563895.6898476363</v>
       </c>
       <c r="R102" t="n">
-        <v>6705398.074181959</v>
+        <v>6704897.310479084</v>
       </c>
       <c r="S102" t="n">
         <v>15</v>
@@ -12463,10 +12481,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>111643979</v>
+        <v>111644009</v>
       </c>
       <c r="B103" t="n">
-        <v>90332</v>
+        <v>4717</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -12479,21 +12497,21 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>4769</v>
+        <v>102306</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Granbarkgnagare</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Microbregma emarginatum</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Duftschmid, 1825)</t>
         </is>
       </c>
       <c r="I103" t="inlineStr"/>
@@ -12503,10 +12521,10 @@
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>563891.7046019271</v>
+        <v>564175.9770425721</v>
       </c>
       <c r="R103" t="n">
-        <v>6704899.212729557</v>
+        <v>6705191.738182176</v>
       </c>
       <c r="S103" t="n">
         <v>15</v>
@@ -12575,10 +12593,10 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>111643966</v>
+        <v>111644019</v>
       </c>
       <c r="B104" t="n">
-        <v>89405</v>
+        <v>98535</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -12587,25 +12605,25 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>1202</v>
+        <v>222498</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I104" t="inlineStr"/>
@@ -12615,10 +12633,10 @@
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>564005.9723301042</v>
+        <v>563935.1967805427</v>
       </c>
       <c r="R104" t="n">
-        <v>6705057.55723764</v>
+        <v>6704869.89842237</v>
       </c>
       <c r="S104" t="n">
         <v>15</v>
@@ -12687,10 +12705,10 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>111644018</v>
+        <v>111643967</v>
       </c>
       <c r="B105" t="n">
-        <v>5113</v>
+        <v>89405</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -12699,47 +12717,38 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>100526</v>
+        <v>1202</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
-      <c r="N105" t="inlineStr"/>
       <c r="P105" t="inlineStr">
         <is>
           <t>Pellkärret, Dlr</t>
         </is>
       </c>
       <c r="Q105" t="n">
-        <v>564000.7505970574</v>
+        <v>564001.2294282404</v>
       </c>
       <c r="R105" t="n">
-        <v>6704961.796430262</v>
+        <v>6705018.515888276</v>
       </c>
       <c r="S105" t="n">
         <v>15</v>
@@ -12790,7 +12799,6 @@
       <c r="AE105" t="b">
         <v>0</v>
       </c>
-      <c r="AF105" t="inlineStr"/>
       <c r="AG105" t="b">
         <v>0</v>
       </c>
@@ -12809,10 +12817,10 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>111644009</v>
+        <v>111643975</v>
       </c>
       <c r="B106" t="n">
-        <v>4717</v>
+        <v>56543</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -12821,38 +12829,46 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>102306</v>
+        <v>103021</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Granbarkgnagare</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Microbregma emarginatum</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>(Duftschmid, 1825)</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
+      <c r="N106" t="inlineStr"/>
       <c r="P106" t="inlineStr">
         <is>
           <t>Pellkärret, Dlr</t>
         </is>
       </c>
       <c r="Q106" t="n">
-        <v>564175.9770425721</v>
+        <v>564036.8712818418</v>
       </c>
       <c r="R106" t="n">
-        <v>6705191.738182176</v>
+        <v>6705069.938933297</v>
       </c>
       <c r="S106" t="n">
         <v>15</v>
@@ -12921,7 +12937,7 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>111643978</v>
+        <v>111643977</v>
       </c>
       <c r="B107" t="n">
         <v>90332</v>
@@ -12961,10 +12977,10 @@
         </is>
       </c>
       <c r="Q107" t="n">
-        <v>563897.6824720911</v>
+        <v>563912.9580050925</v>
       </c>
       <c r="R107" t="n">
-        <v>6704896.359355085</v>
+        <v>6704870.491959149</v>
       </c>
       <c r="S107" t="n">
         <v>15</v>
@@ -13033,10 +13049,10 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>111644011</v>
+        <v>111643999</v>
       </c>
       <c r="B108" t="n">
-        <v>4717</v>
+        <v>96348</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -13045,25 +13061,25 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>102306</v>
+        <v>220787</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Granbarkgnagare</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Microbregma emarginatum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>(Duftschmid, 1825)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I108" t="inlineStr"/>
@@ -13073,10 +13089,10 @@
         </is>
       </c>
       <c r="Q108" t="n">
-        <v>563947.9486855237</v>
+        <v>564214.7220113428</v>
       </c>
       <c r="R108" t="n">
-        <v>6704875.055250473</v>
+        <v>6705207.21881969</v>
       </c>
       <c r="S108" t="n">
         <v>15</v>
@@ -13145,10 +13161,10 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>111644010</v>
+        <v>111643970</v>
       </c>
       <c r="B109" t="n">
-        <v>4717</v>
+        <v>89405</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -13157,25 +13173,25 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>102306</v>
+        <v>1202</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Granbarkgnagare</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Microbregma emarginatum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>(Duftschmid, 1825)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I109" t="inlineStr"/>
@@ -13185,10 +13201,10 @@
         </is>
       </c>
       <c r="Q109" t="n">
-        <v>563970.2832921242</v>
+        <v>564135.2605183946</v>
       </c>
       <c r="R109" t="n">
-        <v>6704869.038919549</v>
+        <v>6705092.392526213</v>
       </c>
       <c r="S109" t="n">
         <v>15</v>
@@ -13257,10 +13273,10 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>111643969</v>
+        <v>111643997</v>
       </c>
       <c r="B110" t="n">
-        <v>89405</v>
+        <v>96348</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -13269,25 +13285,25 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I110" t="inlineStr"/>
@@ -13297,10 +13313,10 @@
         </is>
       </c>
       <c r="Q110" t="n">
-        <v>563961.9324164493</v>
+        <v>563960.0269251792</v>
       </c>
       <c r="R110" t="n">
-        <v>6704950.261043776</v>
+        <v>6704946.282213242</v>
       </c>
       <c r="S110" t="n">
         <v>15</v>
@@ -13369,10 +13385,10 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>111643967</v>
+        <v>111644010</v>
       </c>
       <c r="B111" t="n">
-        <v>89405</v>
+        <v>4717</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -13381,25 +13397,25 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>1202</v>
+        <v>102306</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Granbarkgnagare</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Microbregma emarginatum</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Duftschmid, 1825)</t>
         </is>
       </c>
       <c r="I111" t="inlineStr"/>
@@ -13409,10 +13425,10 @@
         </is>
       </c>
       <c r="Q111" t="n">
-        <v>564001.2294282404</v>
+        <v>563970.2832921242</v>
       </c>
       <c r="R111" t="n">
-        <v>6705018.515888276</v>
+        <v>6704869.038919549</v>
       </c>
       <c r="S111" t="n">
         <v>15</v>
@@ -13481,10 +13497,10 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>111643976</v>
+        <v>111644023</v>
       </c>
       <c r="B112" t="n">
-        <v>56543</v>
+        <v>98535</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -13493,46 +13509,38 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>103021</v>
+        <v>222498</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
-      <c r="N112" t="inlineStr"/>
       <c r="P112" t="inlineStr">
         <is>
           <t>Pellkärret, Dlr</t>
         </is>
       </c>
       <c r="Q112" t="n">
-        <v>563959.9830160879</v>
+        <v>563926.0071291642</v>
       </c>
       <c r="R112" t="n">
-        <v>6704864.911638761</v>
+        <v>6704942.722304372</v>
       </c>
       <c r="S112" t="n">
         <v>15</v>
@@ -13601,7 +13609,7 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>111643994</v>
+        <v>111644002</v>
       </c>
       <c r="B113" t="n">
         <v>96348</v>
@@ -13635,24 +13643,16 @@
         </is>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L113" t="inlineStr"/>
-      <c r="N113" t="inlineStr"/>
       <c r="P113" t="inlineStr">
         <is>
           <t>Pellkärret, Dlr</t>
         </is>
       </c>
       <c r="Q113" t="n">
-        <v>563938.1604798381</v>
+        <v>564362.9780766467</v>
       </c>
       <c r="R113" t="n">
-        <v>6704953.786161045</v>
+        <v>6705424.842679138</v>
       </c>
       <c r="S113" t="n">
         <v>15</v>
@@ -13703,7 +13703,6 @@
       <c r="AE113" t="b">
         <v>0</v>
       </c>
-      <c r="AF113" t="inlineStr"/>
       <c r="AG113" t="b">
         <v>0</v>
       </c>
@@ -13722,10 +13721,10 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>111643995</v>
+        <v>111643969</v>
       </c>
       <c r="B114" t="n">
-        <v>96348</v>
+        <v>89405</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -13734,46 +13733,38 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L114" t="inlineStr"/>
-      <c r="N114" t="inlineStr"/>
       <c r="P114" t="inlineStr">
         <is>
           <t>Pellkärret, Dlr</t>
         </is>
       </c>
       <c r="Q114" t="n">
-        <v>563991.6879464064</v>
+        <v>563961.9324164493</v>
       </c>
       <c r="R114" t="n">
-        <v>6704971.499027047</v>
+        <v>6704950.261043776</v>
       </c>
       <c r="S114" t="n">
         <v>15</v>
@@ -13824,7 +13815,6 @@
       <c r="AE114" t="b">
         <v>0</v>
       </c>
-      <c r="AF114" t="inlineStr"/>
       <c r="AG114" t="b">
         <v>0</v>
       </c>
@@ -13843,7 +13833,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>111643970</v>
+        <v>111643968</v>
       </c>
       <c r="B115" t="n">
         <v>89405</v>
@@ -13883,10 +13873,10 @@
         </is>
       </c>
       <c r="Q115" t="n">
-        <v>564135.2605183946</v>
+        <v>563986.7677190969</v>
       </c>
       <c r="R115" t="n">
-        <v>6705092.392526213</v>
+        <v>6704886.590706035</v>
       </c>
       <c r="S115" t="n">
         <v>15</v>
@@ -13955,10 +13945,10 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>111644002</v>
+        <v>111643971</v>
       </c>
       <c r="B116" t="n">
-        <v>96348</v>
+        <v>90087</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -13967,25 +13957,25 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>220787</v>
+        <v>3298</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I116" t="inlineStr"/>
@@ -13995,10 +13985,10 @@
         </is>
       </c>
       <c r="Q116" t="n">
-        <v>564362.9780766467</v>
+        <v>564129.6583918922</v>
       </c>
       <c r="R116" t="n">
-        <v>6705424.842679138</v>
+        <v>6705074.047548601</v>
       </c>
       <c r="S116" t="n">
         <v>15</v>
@@ -14067,10 +14057,10 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>111644023</v>
+        <v>111644004</v>
       </c>
       <c r="B117" t="n">
-        <v>98535</v>
+        <v>73634</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -14083,21 +14073,21 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>222498</v>
+        <v>6426</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I117" t="inlineStr"/>
@@ -14107,10 +14097,10 @@
         </is>
       </c>
       <c r="Q117" t="n">
-        <v>563926.0071291642</v>
+        <v>563968.3080592508</v>
       </c>
       <c r="R117" t="n">
-        <v>6704942.722304372</v>
+        <v>6704869.004009057</v>
       </c>
       <c r="S117" t="n">
         <v>15</v>
@@ -14179,10 +14169,10 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>111643977</v>
+        <v>111644018</v>
       </c>
       <c r="B118" t="n">
-        <v>90332</v>
+        <v>5113</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -14195,34 +14185,43 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>4769</v>
+        <v>100526</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
+      <c r="N118" t="inlineStr"/>
       <c r="P118" t="inlineStr">
         <is>
           <t>Pellkärret, Dlr</t>
         </is>
       </c>
       <c r="Q118" t="n">
-        <v>563912.9580050925</v>
+        <v>564000.7505970574</v>
       </c>
       <c r="R118" t="n">
-        <v>6704870.491959149</v>
+        <v>6704961.796430262</v>
       </c>
       <c r="S118" t="n">
         <v>15</v>
@@ -14273,6 +14272,7 @@
       <c r="AE118" t="b">
         <v>0</v>
       </c>
+      <c r="AF118" t="inlineStr"/>
       <c r="AG118" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 58548-2022.xlsx
+++ b/artfynd/A 58548-2022.xlsx
@@ -10526,10 +10526,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>111644011</v>
+        <v>111644002</v>
       </c>
       <c r="B86" t="n">
-        <v>4717</v>
+        <v>96348</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -10538,25 +10538,25 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>102306</v>
+        <v>220787</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Granbarkgnagare</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Microbregma emarginatum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>(Duftschmid, 1825)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
@@ -10566,10 +10566,10 @@
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>563947.9486855237</v>
+        <v>564362.9780766467</v>
       </c>
       <c r="R86" t="n">
-        <v>6704875.055250473</v>
+        <v>6705424.842679138</v>
       </c>
       <c r="S86" t="n">
         <v>15</v>
@@ -10638,7 +10638,7 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>111643994</v>
+        <v>111644000</v>
       </c>
       <c r="B87" t="n">
         <v>96348</v>
@@ -10672,24 +10672,16 @@
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L87" t="inlineStr"/>
-      <c r="N87" t="inlineStr"/>
       <c r="P87" t="inlineStr">
         <is>
           <t>Pellkärret, Dlr</t>
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>563938.1604798381</v>
+        <v>564382.7160046401</v>
       </c>
       <c r="R87" t="n">
-        <v>6704953.786161045</v>
+        <v>6705398.074181959</v>
       </c>
       <c r="S87" t="n">
         <v>15</v>
@@ -10740,7 +10732,6 @@
       <c r="AE87" t="b">
         <v>0</v>
       </c>
-      <c r="AF87" t="inlineStr"/>
       <c r="AG87" t="b">
         <v>0</v>
       </c>
@@ -10759,10 +10750,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>111643976</v>
+        <v>111643978</v>
       </c>
       <c r="B88" t="n">
-        <v>56543</v>
+        <v>90332</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -10771,46 +10762,38 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>103021</v>
+        <v>4769</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
-      <c r="N88" t="inlineStr"/>
       <c r="P88" t="inlineStr">
         <is>
           <t>Pellkärret, Dlr</t>
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>563959.9830160879</v>
+        <v>563897.6824720911</v>
       </c>
       <c r="R88" t="n">
-        <v>6704864.911638761</v>
+        <v>6704896.359355085</v>
       </c>
       <c r="S88" t="n">
         <v>15</v>
@@ -10879,10 +10862,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>111643979</v>
+        <v>111644018</v>
       </c>
       <c r="B89" t="n">
-        <v>90332</v>
+        <v>5113</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -10895,34 +10878,43 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>4769</v>
+        <v>100526</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr"/>
       <c r="P89" t="inlineStr">
         <is>
           <t>Pellkärret, Dlr</t>
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>563891.7046019271</v>
+        <v>564000.7505970574</v>
       </c>
       <c r="R89" t="n">
-        <v>6704899.212729557</v>
+        <v>6704961.796430262</v>
       </c>
       <c r="S89" t="n">
         <v>15</v>
@@ -10973,6 +10965,7 @@
       <c r="AE89" t="b">
         <v>0</v>
       </c>
+      <c r="AF89" t="inlineStr"/>
       <c r="AG89" t="b">
         <v>0</v>
       </c>
@@ -10991,10 +10984,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>111644017</v>
+        <v>111643975</v>
       </c>
       <c r="B90" t="n">
-        <v>90687</v>
+        <v>56543</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -11003,30 +10996,35 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>5964</v>
+        <v>103021</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
       <c r="N90" t="inlineStr"/>
       <c r="P90" t="inlineStr">
         <is>
@@ -11034,10 +11032,10 @@
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>563880.5711718387</v>
+        <v>564036.8712818418</v>
       </c>
       <c r="R90" t="n">
-        <v>6704914.303850577</v>
+        <v>6705069.938933297</v>
       </c>
       <c r="S90" t="n">
         <v>15</v>
@@ -11088,7 +11086,6 @@
       <c r="AE90" t="b">
         <v>0</v>
       </c>
-      <c r="AF90" t="inlineStr"/>
       <c r="AG90" t="b">
         <v>0</v>
       </c>
@@ -11107,10 +11104,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>111644000</v>
+        <v>111644004</v>
       </c>
       <c r="B91" t="n">
-        <v>96348</v>
+        <v>73634</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -11119,25 +11116,25 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>220787</v>
+        <v>6426</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I91" t="inlineStr"/>
@@ -11147,10 +11144,10 @@
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>564382.7160046401</v>
+        <v>563968.3080592508</v>
       </c>
       <c r="R91" t="n">
-        <v>6705398.074181959</v>
+        <v>6704869.004009057</v>
       </c>
       <c r="S91" t="n">
         <v>15</v>
@@ -11219,7 +11216,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>111643995</v>
+        <v>111643993</v>
       </c>
       <c r="B92" t="n">
         <v>96348</v>
@@ -11267,10 +11264,10 @@
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>563991.6879464064</v>
+        <v>564022.096035301</v>
       </c>
       <c r="R92" t="n">
-        <v>6704971.499027047</v>
+        <v>6705039.59657369</v>
       </c>
       <c r="S92" t="n">
         <v>15</v>
@@ -11340,10 +11337,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>111643966</v>
+        <v>111643984</v>
       </c>
       <c r="B93" t="n">
-        <v>89405</v>
+        <v>89183</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -11352,25 +11349,25 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>1202</v>
+        <v>3215</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I93" t="inlineStr"/>
@@ -11380,10 +11377,10 @@
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>564005.9723301042</v>
+        <v>563935.2490328623</v>
       </c>
       <c r="R93" t="n">
-        <v>6705057.55723764</v>
+        <v>6704866.940414187</v>
       </c>
       <c r="S93" t="n">
         <v>15</v>
@@ -11428,12 +11425,18 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC93" t="inlineStr">
+        <is>
+          <t>Utanför hänsynssnitslat området</t>
+        </is>
+      </c>
       <c r="AD93" t="b">
         <v>0</v>
       </c>
       <c r="AE93" t="b">
         <v>0</v>
       </c>
+      <c r="AF93" t="inlineStr"/>
       <c r="AG93" t="b">
         <v>0</v>
       </c>
@@ -11452,10 +11455,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>111644022</v>
+        <v>111643970</v>
       </c>
       <c r="B94" t="n">
-        <v>98535</v>
+        <v>89405</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -11464,25 +11467,25 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>222498</v>
+        <v>1202</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I94" t="inlineStr"/>
@@ -11492,10 +11495,10 @@
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>563928.069399631</v>
+        <v>564135.2605183946</v>
       </c>
       <c r="R94" t="n">
-        <v>6704937.827276004</v>
+        <v>6705092.392526213</v>
       </c>
       <c r="S94" t="n">
         <v>15</v>
@@ -11564,10 +11567,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>111643998</v>
+        <v>111643967</v>
       </c>
       <c r="B95" t="n">
-        <v>96348</v>
+        <v>89405</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -11576,25 +11579,25 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I95" t="inlineStr"/>
@@ -11604,10 +11607,10 @@
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>564084.7368881714</v>
+        <v>564001.2294282404</v>
       </c>
       <c r="R95" t="n">
-        <v>6705044.650279458</v>
+        <v>6705018.515888276</v>
       </c>
       <c r="S95" t="n">
         <v>15</v>
@@ -11676,10 +11679,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>111643978</v>
+        <v>111643996</v>
       </c>
       <c r="B96" t="n">
-        <v>90332</v>
+        <v>96348</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -11688,25 +11691,25 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>4769</v>
+        <v>220787</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
@@ -11716,10 +11719,10 @@
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>563897.6824720911</v>
+        <v>564022.4274219956</v>
       </c>
       <c r="R96" t="n">
-        <v>6704896.359355085</v>
+        <v>6705020.86335416</v>
       </c>
       <c r="S96" t="n">
         <v>15</v>
@@ -11788,10 +11791,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>111643984</v>
+        <v>111643998</v>
       </c>
       <c r="B97" t="n">
-        <v>89183</v>
+        <v>96348</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -11800,25 +11803,25 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>3215</v>
+        <v>220787</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I97" t="inlineStr"/>
@@ -11828,10 +11831,10 @@
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>563935.2490328623</v>
+        <v>564084.7368881714</v>
       </c>
       <c r="R97" t="n">
-        <v>6704866.940414187</v>
+        <v>6705044.650279458</v>
       </c>
       <c r="S97" t="n">
         <v>15</v>
@@ -11876,18 +11879,12 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC97" t="inlineStr">
-        <is>
-          <t>Utanför hänsynssnitslat området</t>
-        </is>
-      </c>
       <c r="AD97" t="b">
         <v>0</v>
       </c>
       <c r="AE97" t="b">
         <v>0</v>
       </c>
-      <c r="AF97" t="inlineStr"/>
       <c r="AG97" t="b">
         <v>0</v>
       </c>
@@ -11906,10 +11903,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>111643996</v>
+        <v>111643971</v>
       </c>
       <c r="B98" t="n">
-        <v>96348</v>
+        <v>90087</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -11918,25 +11915,25 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>220787</v>
+        <v>3298</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
@@ -11946,10 +11943,10 @@
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>564022.4274219956</v>
+        <v>564129.6583918922</v>
       </c>
       <c r="R98" t="n">
-        <v>6705020.86335416</v>
+        <v>6705074.047548601</v>
       </c>
       <c r="S98" t="n">
         <v>15</v>
@@ -12018,10 +12015,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>111643993</v>
+        <v>111638852</v>
       </c>
       <c r="B99" t="n">
-        <v>96348</v>
+        <v>56543</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -12030,49 +12027,47 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>220787</v>
+        <v>103021</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L99" t="inlineStr"/>
-      <c r="N99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
       <c r="P99" t="inlineStr">
         <is>
-          <t>Pellkärret, Dlr</t>
+          <t>Norra Kallbäck Skysslingen 244, Hedemora (Norra Kallbäck Skysslingen 244, Hedemora), Dlr</t>
         </is>
       </c>
       <c r="Q99" t="n">
-        <v>564022.096035301</v>
+        <v>564273.9820338928</v>
       </c>
       <c r="R99" t="n">
-        <v>6705039.59657369</v>
+        <v>6705346.832363938</v>
       </c>
       <c r="S99" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="T99" t="inlineStr">
         <is>
@@ -12101,7 +12096,7 @@
       </c>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>08:03</t>
         </is>
       </c>
       <c r="AA99" t="inlineStr">
@@ -12111,7 +12106,7 @@
       </c>
       <c r="AB99" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>08:03</t>
         </is>
       </c>
       <c r="AD99" t="b">
@@ -12120,7 +12115,6 @@
       <c r="AE99" t="b">
         <v>0</v>
       </c>
-      <c r="AF99" t="inlineStr"/>
       <c r="AG99" t="b">
         <v>0</v>
       </c>
@@ -12139,10 +12133,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>111638852</v>
+        <v>111644001</v>
       </c>
       <c r="B100" t="n">
-        <v>56543</v>
+        <v>96348</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -12151,47 +12145,41 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>103021</v>
+        <v>220787</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
       <c r="P100" t="inlineStr">
         <is>
-          <t>Norra Kallbäck Skysslingen 244, Hedemora (Norra Kallbäck Skysslingen 244, Hedemora), Dlr</t>
+          <t>Pellkärret, Dlr</t>
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>564273.9820338928</v>
+        <v>564373.5569152004</v>
       </c>
       <c r="R100" t="n">
-        <v>6705346.832363938</v>
+        <v>6705413.196864827</v>
       </c>
       <c r="S100" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="T100" t="inlineStr">
         <is>
@@ -12220,7 +12208,7 @@
       </c>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>08:03</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA100" t="inlineStr">
@@ -12230,7 +12218,7 @@
       </c>
       <c r="AB100" t="inlineStr">
         <is>
-          <t>08:03</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD100" t="b">
@@ -12257,10 +12245,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>111644001</v>
+        <v>111644021</v>
       </c>
       <c r="B101" t="n">
-        <v>96348</v>
+        <v>98535</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -12269,25 +12257,25 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>220787</v>
+        <v>222498</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I101" t="inlineStr"/>
@@ -12297,10 +12285,10 @@
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>564373.5569152004</v>
+        <v>563895.6898476363</v>
       </c>
       <c r="R101" t="n">
-        <v>6705413.196864827</v>
+        <v>6704897.310479084</v>
       </c>
       <c r="S101" t="n">
         <v>15</v>
@@ -12369,10 +12357,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>111644021</v>
+        <v>111643999</v>
       </c>
       <c r="B102" t="n">
-        <v>98535</v>
+        <v>96348</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -12381,25 +12369,25 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>222498</v>
+        <v>220787</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I102" t="inlineStr"/>
@@ -12409,10 +12397,10 @@
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>563895.6898476363</v>
+        <v>564214.7220113428</v>
       </c>
       <c r="R102" t="n">
-        <v>6704897.310479084</v>
+        <v>6705207.21881969</v>
       </c>
       <c r="S102" t="n">
         <v>15</v>
@@ -12481,10 +12469,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>111644009</v>
+        <v>111643979</v>
       </c>
       <c r="B103" t="n">
-        <v>4717</v>
+        <v>90332</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -12497,21 +12485,21 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>102306</v>
+        <v>4769</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Granbarkgnagare</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Microbregma emarginatum</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>(Duftschmid, 1825)</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I103" t="inlineStr"/>
@@ -12521,10 +12509,10 @@
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>564175.9770425721</v>
+        <v>563891.7046019271</v>
       </c>
       <c r="R103" t="n">
-        <v>6705191.738182176</v>
+        <v>6704899.212729557</v>
       </c>
       <c r="S103" t="n">
         <v>15</v>
@@ -12593,10 +12581,10 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>111644019</v>
+        <v>111644010</v>
       </c>
       <c r="B104" t="n">
-        <v>98535</v>
+        <v>4717</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -12609,21 +12597,21 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>222498</v>
+        <v>102306</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Granbarkgnagare</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Microbregma emarginatum</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Duftschmid, 1825)</t>
         </is>
       </c>
       <c r="I104" t="inlineStr"/>
@@ -12633,10 +12621,10 @@
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>563935.1967805427</v>
+        <v>563970.2832921242</v>
       </c>
       <c r="R104" t="n">
-        <v>6704869.89842237</v>
+        <v>6704869.038919549</v>
       </c>
       <c r="S104" t="n">
         <v>15</v>
@@ -12705,7 +12693,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>111643967</v>
+        <v>111643966</v>
       </c>
       <c r="B105" t="n">
         <v>89405</v>
@@ -12745,10 +12733,10 @@
         </is>
       </c>
       <c r="Q105" t="n">
-        <v>564001.2294282404</v>
+        <v>564005.9723301042</v>
       </c>
       <c r="R105" t="n">
-        <v>6705018.515888276</v>
+        <v>6705057.55723764</v>
       </c>
       <c r="S105" t="n">
         <v>15</v>
@@ -12817,10 +12805,10 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>111643975</v>
+        <v>111643995</v>
       </c>
       <c r="B106" t="n">
-        <v>56543</v>
+        <v>96348</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -12829,35 +12817,35 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>103021</v>
+        <v>220787</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
       <c r="N106" t="inlineStr"/>
       <c r="P106" t="inlineStr">
         <is>
@@ -12865,10 +12853,10 @@
         </is>
       </c>
       <c r="Q106" t="n">
-        <v>564036.8712818418</v>
+        <v>563991.6879464064</v>
       </c>
       <c r="R106" t="n">
-        <v>6705069.938933297</v>
+        <v>6704971.499027047</v>
       </c>
       <c r="S106" t="n">
         <v>15</v>
@@ -12919,6 +12907,7 @@
       <c r="AE106" t="b">
         <v>0</v>
       </c>
+      <c r="AF106" t="inlineStr"/>
       <c r="AG106" t="b">
         <v>0</v>
       </c>
@@ -12937,10 +12926,10 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>111643977</v>
+        <v>111644022</v>
       </c>
       <c r="B107" t="n">
-        <v>90332</v>
+        <v>98535</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -12953,21 +12942,21 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>4769</v>
+        <v>222498</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I107" t="inlineStr"/>
@@ -12977,10 +12966,10 @@
         </is>
       </c>
       <c r="Q107" t="n">
-        <v>563912.9580050925</v>
+        <v>563928.069399631</v>
       </c>
       <c r="R107" t="n">
-        <v>6704870.491959149</v>
+        <v>6704937.827276004</v>
       </c>
       <c r="S107" t="n">
         <v>15</v>
@@ -13049,10 +13038,10 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>111643999</v>
+        <v>111644023</v>
       </c>
       <c r="B108" t="n">
-        <v>96348</v>
+        <v>98535</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -13061,25 +13050,25 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>220787</v>
+        <v>222498</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I108" t="inlineStr"/>
@@ -13089,10 +13078,10 @@
         </is>
       </c>
       <c r="Q108" t="n">
-        <v>564214.7220113428</v>
+        <v>563926.0071291642</v>
       </c>
       <c r="R108" t="n">
-        <v>6705207.21881969</v>
+        <v>6704942.722304372</v>
       </c>
       <c r="S108" t="n">
         <v>15</v>
@@ -13161,10 +13150,10 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>111643970</v>
+        <v>111643977</v>
       </c>
       <c r="B109" t="n">
-        <v>89405</v>
+        <v>90332</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -13173,25 +13162,25 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>1202</v>
+        <v>4769</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I109" t="inlineStr"/>
@@ -13201,10 +13190,10 @@
         </is>
       </c>
       <c r="Q109" t="n">
-        <v>564135.2605183946</v>
+        <v>563912.9580050925</v>
       </c>
       <c r="R109" t="n">
-        <v>6705092.392526213</v>
+        <v>6704870.491959149</v>
       </c>
       <c r="S109" t="n">
         <v>15</v>
@@ -13273,10 +13262,10 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>111643997</v>
+        <v>111643976</v>
       </c>
       <c r="B110" t="n">
-        <v>96348</v>
+        <v>56543</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -13285,38 +13274,46 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>220787</v>
+        <v>103021</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
+      <c r="N110" t="inlineStr"/>
       <c r="P110" t="inlineStr">
         <is>
           <t>Pellkärret, Dlr</t>
         </is>
       </c>
       <c r="Q110" t="n">
-        <v>563960.0269251792</v>
+        <v>563959.9830160879</v>
       </c>
       <c r="R110" t="n">
-        <v>6704946.282213242</v>
+        <v>6704864.911638761</v>
       </c>
       <c r="S110" t="n">
         <v>15</v>
@@ -13385,10 +13382,10 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>111644010</v>
+        <v>111643994</v>
       </c>
       <c r="B111" t="n">
-        <v>4717</v>
+        <v>96348</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -13397,38 +13394,46 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>102306</v>
+        <v>220787</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Granbarkgnagare</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Microbregma emarginatum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>(Duftschmid, 1825)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L111" t="inlineStr"/>
+      <c r="N111" t="inlineStr"/>
       <c r="P111" t="inlineStr">
         <is>
           <t>Pellkärret, Dlr</t>
         </is>
       </c>
       <c r="Q111" t="n">
-        <v>563970.2832921242</v>
+        <v>563938.1604798381</v>
       </c>
       <c r="R111" t="n">
-        <v>6704869.038919549</v>
+        <v>6704953.786161045</v>
       </c>
       <c r="S111" t="n">
         <v>15</v>
@@ -13479,6 +13484,7 @@
       <c r="AE111" t="b">
         <v>0</v>
       </c>
+      <c r="AF111" t="inlineStr"/>
       <c r="AG111" t="b">
         <v>0</v>
       </c>
@@ -13497,10 +13503,10 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>111644023</v>
+        <v>111644011</v>
       </c>
       <c r="B112" t="n">
-        <v>98535</v>
+        <v>4717</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -13513,21 +13519,21 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>222498</v>
+        <v>102306</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Granbarkgnagare</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Microbregma emarginatum</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Duftschmid, 1825)</t>
         </is>
       </c>
       <c r="I112" t="inlineStr"/>
@@ -13537,10 +13543,10 @@
         </is>
       </c>
       <c r="Q112" t="n">
-        <v>563926.0071291642</v>
+        <v>563947.9486855237</v>
       </c>
       <c r="R112" t="n">
-        <v>6704942.722304372</v>
+        <v>6704875.055250473</v>
       </c>
       <c r="S112" t="n">
         <v>15</v>
@@ -13609,10 +13615,10 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>111644002</v>
+        <v>111643968</v>
       </c>
       <c r="B113" t="n">
-        <v>96348</v>
+        <v>89405</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -13621,25 +13627,25 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I113" t="inlineStr"/>
@@ -13649,10 +13655,10 @@
         </is>
       </c>
       <c r="Q113" t="n">
-        <v>564362.9780766467</v>
+        <v>563986.7677190969</v>
       </c>
       <c r="R113" t="n">
-        <v>6705424.842679138</v>
+        <v>6704886.590706035</v>
       </c>
       <c r="S113" t="n">
         <v>15</v>
@@ -13721,10 +13727,10 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>111643969</v>
+        <v>111644009</v>
       </c>
       <c r="B114" t="n">
-        <v>89405</v>
+        <v>4717</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -13733,25 +13739,25 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>1202</v>
+        <v>102306</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Granbarkgnagare</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Microbregma emarginatum</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Duftschmid, 1825)</t>
         </is>
       </c>
       <c r="I114" t="inlineStr"/>
@@ -13761,10 +13767,10 @@
         </is>
       </c>
       <c r="Q114" t="n">
-        <v>563961.9324164493</v>
+        <v>564175.9770425721</v>
       </c>
       <c r="R114" t="n">
-        <v>6704950.261043776</v>
+        <v>6705191.738182176</v>
       </c>
       <c r="S114" t="n">
         <v>15</v>
@@ -13833,7 +13839,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>111643968</v>
+        <v>111643969</v>
       </c>
       <c r="B115" t="n">
         <v>89405</v>
@@ -13873,10 +13879,10 @@
         </is>
       </c>
       <c r="Q115" t="n">
-        <v>563986.7677190969</v>
+        <v>563961.9324164493</v>
       </c>
       <c r="R115" t="n">
-        <v>6704886.590706035</v>
+        <v>6704950.261043776</v>
       </c>
       <c r="S115" t="n">
         <v>15</v>
@@ -13945,10 +13951,10 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>111643971</v>
+        <v>111644019</v>
       </c>
       <c r="B116" t="n">
-        <v>90087</v>
+        <v>98535</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -13961,21 +13967,21 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>3298</v>
+        <v>222498</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I116" t="inlineStr"/>
@@ -13985,10 +13991,10 @@
         </is>
       </c>
       <c r="Q116" t="n">
-        <v>564129.6583918922</v>
+        <v>563935.1967805427</v>
       </c>
       <c r="R116" t="n">
-        <v>6705074.047548601</v>
+        <v>6704869.89842237</v>
       </c>
       <c r="S116" t="n">
         <v>15</v>
@@ -14057,10 +14063,10 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>111644004</v>
+        <v>111643997</v>
       </c>
       <c r="B117" t="n">
-        <v>73634</v>
+        <v>96348</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -14069,25 +14075,25 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>6426</v>
+        <v>220787</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I117" t="inlineStr"/>
@@ -14097,10 +14103,10 @@
         </is>
       </c>
       <c r="Q117" t="n">
-        <v>563968.3080592508</v>
+        <v>563960.0269251792</v>
       </c>
       <c r="R117" t="n">
-        <v>6704869.004009057</v>
+        <v>6704946.282213242</v>
       </c>
       <c r="S117" t="n">
         <v>15</v>
@@ -14169,10 +14175,10 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>111644018</v>
+        <v>111644017</v>
       </c>
       <c r="B118" t="n">
-        <v>5113</v>
+        <v>90687</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -14185,32 +14191,26 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>100526</v>
+        <v>5964</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
       <c r="N118" t="inlineStr"/>
       <c r="P118" t="inlineStr">
         <is>
@@ -14218,10 +14218,10 @@
         </is>
       </c>
       <c r="Q118" t="n">
-        <v>564000.7505970574</v>
+        <v>563880.5711718387</v>
       </c>
       <c r="R118" t="n">
-        <v>6704961.796430262</v>
+        <v>6704914.303850577</v>
       </c>
       <c r="S118" t="n">
         <v>15</v>

--- a/artfynd/A 58548-2022.xlsx
+++ b/artfynd/A 58548-2022.xlsx
@@ -10526,10 +10526,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>111644002</v>
+        <v>111644004</v>
       </c>
       <c r="B86" t="n">
-        <v>96348</v>
+        <v>73634</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -10538,25 +10538,25 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>220787</v>
+        <v>6426</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
@@ -10566,10 +10566,10 @@
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>564362.9780766467</v>
+        <v>563968.3080592508</v>
       </c>
       <c r="R86" t="n">
-        <v>6705424.842679138</v>
+        <v>6704869.004009057</v>
       </c>
       <c r="S86" t="n">
         <v>15</v>
@@ -10638,7 +10638,7 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>111644000</v>
+        <v>111643997</v>
       </c>
       <c r="B87" t="n">
         <v>96348</v>
@@ -10678,10 +10678,10 @@
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>564382.7160046401</v>
+        <v>563960.0269251792</v>
       </c>
       <c r="R87" t="n">
-        <v>6705398.074181959</v>
+        <v>6704946.282213242</v>
       </c>
       <c r="S87" t="n">
         <v>15</v>
@@ -10750,10 +10750,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>111643978</v>
+        <v>111643984</v>
       </c>
       <c r="B88" t="n">
-        <v>90332</v>
+        <v>89183</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -10766,21 +10766,21 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>4769</v>
+        <v>3215</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
@@ -10790,10 +10790,10 @@
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>563897.6824720911</v>
+        <v>563935.2490328623</v>
       </c>
       <c r="R88" t="n">
-        <v>6704896.359355085</v>
+        <v>6704866.940414187</v>
       </c>
       <c r="S88" t="n">
         <v>15</v>
@@ -10838,12 +10838,18 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC88" t="inlineStr">
+        <is>
+          <t>Utanför hänsynssnitslat området</t>
+        </is>
+      </c>
       <c r="AD88" t="b">
         <v>0</v>
       </c>
       <c r="AE88" t="b">
         <v>0</v>
       </c>
+      <c r="AF88" t="inlineStr"/>
       <c r="AG88" t="b">
         <v>0</v>
       </c>
@@ -10862,10 +10868,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>111644018</v>
+        <v>111643970</v>
       </c>
       <c r="B89" t="n">
-        <v>5113</v>
+        <v>89405</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -10874,47 +10880,38 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>100526</v>
+        <v>1202</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
-      <c r="N89" t="inlineStr"/>
       <c r="P89" t="inlineStr">
         <is>
           <t>Pellkärret, Dlr</t>
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>564000.7505970574</v>
+        <v>564135.2605183946</v>
       </c>
       <c r="R89" t="n">
-        <v>6704961.796430262</v>
+        <v>6705092.392526213</v>
       </c>
       <c r="S89" t="n">
         <v>15</v>
@@ -10965,7 +10962,6 @@
       <c r="AE89" t="b">
         <v>0</v>
       </c>
-      <c r="AF89" t="inlineStr"/>
       <c r="AG89" t="b">
         <v>0</v>
       </c>
@@ -10984,10 +10980,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>111643975</v>
+        <v>111644010</v>
       </c>
       <c r="B90" t="n">
-        <v>56543</v>
+        <v>4717</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -10996,46 +10992,38 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>103021</v>
+        <v>102306</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Granbarkgnagare</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Microbregma emarginatum</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Duftschmid, 1825)</t>
         </is>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
-      <c r="N90" t="inlineStr"/>
       <c r="P90" t="inlineStr">
         <is>
           <t>Pellkärret, Dlr</t>
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>564036.8712818418</v>
+        <v>563970.2832921242</v>
       </c>
       <c r="R90" t="n">
-        <v>6705069.938933297</v>
+        <v>6704869.038919549</v>
       </c>
       <c r="S90" t="n">
         <v>15</v>
@@ -11104,10 +11092,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>111644004</v>
+        <v>111643993</v>
       </c>
       <c r="B91" t="n">
-        <v>73634</v>
+        <v>96348</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -11116,38 +11104,46 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>6426</v>
+        <v>220787</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr"/>
+      <c r="N91" t="inlineStr"/>
       <c r="P91" t="inlineStr">
         <is>
           <t>Pellkärret, Dlr</t>
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>563968.3080592508</v>
+        <v>564022.096035301</v>
       </c>
       <c r="R91" t="n">
-        <v>6704869.004009057</v>
+        <v>6705039.59657369</v>
       </c>
       <c r="S91" t="n">
         <v>15</v>
@@ -11198,6 +11194,7 @@
       <c r="AE91" t="b">
         <v>0</v>
       </c>
+      <c r="AF91" t="inlineStr"/>
       <c r="AG91" t="b">
         <v>0</v>
       </c>
@@ -11216,7 +11213,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>111643993</v>
+        <v>111644001</v>
       </c>
       <c r="B92" t="n">
         <v>96348</v>
@@ -11250,24 +11247,16 @@
         </is>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L92" t="inlineStr"/>
-      <c r="N92" t="inlineStr"/>
       <c r="P92" t="inlineStr">
         <is>
           <t>Pellkärret, Dlr</t>
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>564022.096035301</v>
+        <v>564373.5569152004</v>
       </c>
       <c r="R92" t="n">
-        <v>6705039.59657369</v>
+        <v>6705413.196864827</v>
       </c>
       <c r="S92" t="n">
         <v>15</v>
@@ -11318,7 +11307,6 @@
       <c r="AE92" t="b">
         <v>0</v>
       </c>
-      <c r="AF92" t="inlineStr"/>
       <c r="AG92" t="b">
         <v>0</v>
       </c>
@@ -11337,10 +11325,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>111643984</v>
+        <v>111644002</v>
       </c>
       <c r="B93" t="n">
-        <v>89183</v>
+        <v>96348</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -11349,25 +11337,25 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>3215</v>
+        <v>220787</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I93" t="inlineStr"/>
@@ -11377,10 +11365,10 @@
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>563935.2490328623</v>
+        <v>564362.9780766467</v>
       </c>
       <c r="R93" t="n">
-        <v>6704866.940414187</v>
+        <v>6705424.842679138</v>
       </c>
       <c r="S93" t="n">
         <v>15</v>
@@ -11425,18 +11413,12 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC93" t="inlineStr">
-        <is>
-          <t>Utanför hänsynssnitslat området</t>
-        </is>
-      </c>
       <c r="AD93" t="b">
         <v>0</v>
       </c>
       <c r="AE93" t="b">
         <v>0</v>
       </c>
-      <c r="AF93" t="inlineStr"/>
       <c r="AG93" t="b">
         <v>0</v>
       </c>
@@ -11455,7 +11437,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>111643970</v>
+        <v>111643967</v>
       </c>
       <c r="B94" t="n">
         <v>89405</v>
@@ -11495,10 +11477,10 @@
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>564135.2605183946</v>
+        <v>564001.2294282404</v>
       </c>
       <c r="R94" t="n">
-        <v>6705092.392526213</v>
+        <v>6705018.515888276</v>
       </c>
       <c r="S94" t="n">
         <v>15</v>
@@ -11567,10 +11549,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>111643967</v>
+        <v>111643994</v>
       </c>
       <c r="B95" t="n">
-        <v>89405</v>
+        <v>96348</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -11579,38 +11561,46 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr"/>
+      <c r="N95" t="inlineStr"/>
       <c r="P95" t="inlineStr">
         <is>
           <t>Pellkärret, Dlr</t>
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>564001.2294282404</v>
+        <v>563938.1604798381</v>
       </c>
       <c r="R95" t="n">
-        <v>6705018.515888276</v>
+        <v>6704953.786161045</v>
       </c>
       <c r="S95" t="n">
         <v>15</v>
@@ -11661,6 +11651,7 @@
       <c r="AE95" t="b">
         <v>0</v>
       </c>
+      <c r="AF95" t="inlineStr"/>
       <c r="AG95" t="b">
         <v>0</v>
       </c>
@@ -11679,10 +11670,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>111643996</v>
+        <v>111644023</v>
       </c>
       <c r="B96" t="n">
-        <v>96348</v>
+        <v>98535</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -11691,25 +11682,25 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>220787</v>
+        <v>222498</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
@@ -11719,10 +11710,10 @@
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>564022.4274219956</v>
+        <v>563926.0071291642</v>
       </c>
       <c r="R96" t="n">
-        <v>6705020.86335416</v>
+        <v>6704942.722304372</v>
       </c>
       <c r="S96" t="n">
         <v>15</v>
@@ -11791,10 +11782,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>111643998</v>
+        <v>111643975</v>
       </c>
       <c r="B97" t="n">
-        <v>96348</v>
+        <v>56543</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -11803,38 +11794,46 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>220787</v>
+        <v>103021</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr"/>
       <c r="P97" t="inlineStr">
         <is>
           <t>Pellkärret, Dlr</t>
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>564084.7368881714</v>
+        <v>564036.8712818418</v>
       </c>
       <c r="R97" t="n">
-        <v>6705044.650279458</v>
+        <v>6705069.938933297</v>
       </c>
       <c r="S97" t="n">
         <v>15</v>
@@ -11903,10 +11902,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>111643971</v>
+        <v>111644009</v>
       </c>
       <c r="B98" t="n">
-        <v>90087</v>
+        <v>4717</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -11919,21 +11918,21 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>3298</v>
+        <v>102306</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Granbarkgnagare</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Microbregma emarginatum</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Duftschmid, 1825)</t>
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
@@ -11943,10 +11942,10 @@
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>564129.6583918922</v>
+        <v>564175.9770425721</v>
       </c>
       <c r="R98" t="n">
-        <v>6705074.047548601</v>
+        <v>6705191.738182176</v>
       </c>
       <c r="S98" t="n">
         <v>15</v>
@@ -12133,10 +12132,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>111644001</v>
+        <v>111643979</v>
       </c>
       <c r="B100" t="n">
-        <v>96348</v>
+        <v>90332</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -12145,25 +12144,25 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>220787</v>
+        <v>4769</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I100" t="inlineStr"/>
@@ -12173,10 +12172,10 @@
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>564373.5569152004</v>
+        <v>563891.7046019271</v>
       </c>
       <c r="R100" t="n">
-        <v>6705413.196864827</v>
+        <v>6704899.212729557</v>
       </c>
       <c r="S100" t="n">
         <v>15</v>
@@ -12245,10 +12244,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>111644021</v>
+        <v>111643966</v>
       </c>
       <c r="B101" t="n">
-        <v>98535</v>
+        <v>89405</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -12257,25 +12256,25 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>222498</v>
+        <v>1202</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I101" t="inlineStr"/>
@@ -12285,10 +12284,10 @@
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>563895.6898476363</v>
+        <v>564005.9723301042</v>
       </c>
       <c r="R101" t="n">
-        <v>6704897.310479084</v>
+        <v>6705057.55723764</v>
       </c>
       <c r="S101" t="n">
         <v>15</v>
@@ -12469,10 +12468,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>111643979</v>
+        <v>111643969</v>
       </c>
       <c r="B103" t="n">
-        <v>90332</v>
+        <v>89405</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -12481,25 +12480,25 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>4769</v>
+        <v>1202</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I103" t="inlineStr"/>
@@ -12509,10 +12508,10 @@
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>563891.7046019271</v>
+        <v>563961.9324164493</v>
       </c>
       <c r="R103" t="n">
-        <v>6704899.212729557</v>
+        <v>6704950.261043776</v>
       </c>
       <c r="S103" t="n">
         <v>15</v>
@@ -12581,7 +12580,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>111644010</v>
+        <v>111644011</v>
       </c>
       <c r="B104" t="n">
         <v>4717</v>
@@ -12621,10 +12620,10 @@
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>563970.2832921242</v>
+        <v>563947.9486855237</v>
       </c>
       <c r="R104" t="n">
-        <v>6704869.038919549</v>
+        <v>6704875.055250473</v>
       </c>
       <c r="S104" t="n">
         <v>15</v>
@@ -12693,10 +12692,10 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>111643966</v>
+        <v>111644021</v>
       </c>
       <c r="B105" t="n">
-        <v>89405</v>
+        <v>98535</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -12705,25 +12704,25 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>1202</v>
+        <v>222498</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I105" t="inlineStr"/>
@@ -12733,10 +12732,10 @@
         </is>
       </c>
       <c r="Q105" t="n">
-        <v>564005.9723301042</v>
+        <v>563895.6898476363</v>
       </c>
       <c r="R105" t="n">
-        <v>6705057.55723764</v>
+        <v>6704897.310479084</v>
       </c>
       <c r="S105" t="n">
         <v>15</v>
@@ -12805,10 +12804,10 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>111643995</v>
+        <v>111644019</v>
       </c>
       <c r="B106" t="n">
-        <v>96348</v>
+        <v>98535</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -12817,46 +12816,38 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>220787</v>
+        <v>222498</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L106" t="inlineStr"/>
-      <c r="N106" t="inlineStr"/>
       <c r="P106" t="inlineStr">
         <is>
           <t>Pellkärret, Dlr</t>
         </is>
       </c>
       <c r="Q106" t="n">
-        <v>563991.6879464064</v>
+        <v>563935.1967805427</v>
       </c>
       <c r="R106" t="n">
-        <v>6704971.499027047</v>
+        <v>6704869.89842237</v>
       </c>
       <c r="S106" t="n">
         <v>15</v>
@@ -12907,7 +12898,6 @@
       <c r="AE106" t="b">
         <v>0</v>
       </c>
-      <c r="AF106" t="inlineStr"/>
       <c r="AG106" t="b">
         <v>0</v>
       </c>
@@ -12926,10 +12916,10 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>111644022</v>
+        <v>111643996</v>
       </c>
       <c r="B107" t="n">
-        <v>98535</v>
+        <v>96348</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -12938,25 +12928,25 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>222498</v>
+        <v>220787</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I107" t="inlineStr"/>
@@ -12966,10 +12956,10 @@
         </is>
       </c>
       <c r="Q107" t="n">
-        <v>563928.069399631</v>
+        <v>564022.4274219956</v>
       </c>
       <c r="R107" t="n">
-        <v>6704937.827276004</v>
+        <v>6705020.86335416</v>
       </c>
       <c r="S107" t="n">
         <v>15</v>
@@ -13038,10 +13028,10 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>111644023</v>
+        <v>111643998</v>
       </c>
       <c r="B108" t="n">
-        <v>98535</v>
+        <v>96348</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -13050,25 +13040,25 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>222498</v>
+        <v>220787</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I108" t="inlineStr"/>
@@ -13078,10 +13068,10 @@
         </is>
       </c>
       <c r="Q108" t="n">
-        <v>563926.0071291642</v>
+        <v>564084.7368881714</v>
       </c>
       <c r="R108" t="n">
-        <v>6704942.722304372</v>
+        <v>6705044.650279458</v>
       </c>
       <c r="S108" t="n">
         <v>15</v>
@@ -13150,10 +13140,10 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>111643977</v>
+        <v>111644000</v>
       </c>
       <c r="B109" t="n">
-        <v>90332</v>
+        <v>96348</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -13162,25 +13152,25 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>4769</v>
+        <v>220787</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I109" t="inlineStr"/>
@@ -13190,10 +13180,10 @@
         </is>
       </c>
       <c r="Q109" t="n">
-        <v>563912.9580050925</v>
+        <v>564382.7160046401</v>
       </c>
       <c r="R109" t="n">
-        <v>6704870.491959149</v>
+        <v>6705398.074181959</v>
       </c>
       <c r="S109" t="n">
         <v>15</v>
@@ -13262,10 +13252,10 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>111643976</v>
+        <v>111643995</v>
       </c>
       <c r="B110" t="n">
-        <v>56543</v>
+        <v>96348</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -13274,35 +13264,35 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>103021</v>
+        <v>220787</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
       <c r="N110" t="inlineStr"/>
       <c r="P110" t="inlineStr">
         <is>
@@ -13310,10 +13300,10 @@
         </is>
       </c>
       <c r="Q110" t="n">
-        <v>563959.9830160879</v>
+        <v>563991.6879464064</v>
       </c>
       <c r="R110" t="n">
-        <v>6704864.911638761</v>
+        <v>6704971.499027047</v>
       </c>
       <c r="S110" t="n">
         <v>15</v>
@@ -13364,6 +13354,7 @@
       <c r="AE110" t="b">
         <v>0</v>
       </c>
+      <c r="AF110" t="inlineStr"/>
       <c r="AG110" t="b">
         <v>0</v>
       </c>
@@ -13382,10 +13373,10 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>111643994</v>
+        <v>111644017</v>
       </c>
       <c r="B111" t="n">
-        <v>96348</v>
+        <v>90687</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -13394,35 +13385,30 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>220787</v>
+        <v>5964</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="N111" t="inlineStr"/>
       <c r="P111" t="inlineStr">
         <is>
@@ -13430,10 +13416,10 @@
         </is>
       </c>
       <c r="Q111" t="n">
-        <v>563938.1604798381</v>
+        <v>563880.5711718387</v>
       </c>
       <c r="R111" t="n">
-        <v>6704953.786161045</v>
+        <v>6704914.303850577</v>
       </c>
       <c r="S111" t="n">
         <v>15</v>
@@ -13503,10 +13489,10 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>111644011</v>
+        <v>111644018</v>
       </c>
       <c r="B112" t="n">
-        <v>4717</v>
+        <v>5113</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -13519,34 +13505,43 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>102306</v>
+        <v>100526</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Granbarkgnagare</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Microbregma emarginatum</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>(Duftschmid, 1825)</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
+      <c r="N112" t="inlineStr"/>
       <c r="P112" t="inlineStr">
         <is>
           <t>Pellkärret, Dlr</t>
         </is>
       </c>
       <c r="Q112" t="n">
-        <v>563947.9486855237</v>
+        <v>564000.7505970574</v>
       </c>
       <c r="R112" t="n">
-        <v>6704875.055250473</v>
+        <v>6704961.796430262</v>
       </c>
       <c r="S112" t="n">
         <v>15</v>
@@ -13597,6 +13592,7 @@
       <c r="AE112" t="b">
         <v>0</v>
       </c>
+      <c r="AF112" t="inlineStr"/>
       <c r="AG112" t="b">
         <v>0</v>
       </c>
@@ -13615,10 +13611,10 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>111643968</v>
+        <v>111644022</v>
       </c>
       <c r="B113" t="n">
-        <v>89405</v>
+        <v>98535</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -13627,25 +13623,25 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>1202</v>
+        <v>222498</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I113" t="inlineStr"/>
@@ -13655,10 +13651,10 @@
         </is>
       </c>
       <c r="Q113" t="n">
-        <v>563986.7677190969</v>
+        <v>563928.069399631</v>
       </c>
       <c r="R113" t="n">
-        <v>6704886.590706035</v>
+        <v>6704937.827276004</v>
       </c>
       <c r="S113" t="n">
         <v>15</v>
@@ -13727,10 +13723,10 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>111644009</v>
+        <v>111643971</v>
       </c>
       <c r="B114" t="n">
-        <v>4717</v>
+        <v>90087</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -13743,21 +13739,21 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>102306</v>
+        <v>3298</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Granbarkgnagare</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>Microbregma emarginatum</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>(Duftschmid, 1825)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I114" t="inlineStr"/>
@@ -13767,10 +13763,10 @@
         </is>
       </c>
       <c r="Q114" t="n">
-        <v>564175.9770425721</v>
+        <v>564129.6583918922</v>
       </c>
       <c r="R114" t="n">
-        <v>6705191.738182176</v>
+        <v>6705074.047548601</v>
       </c>
       <c r="S114" t="n">
         <v>15</v>
@@ -13839,10 +13835,10 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>111643969</v>
+        <v>111643977</v>
       </c>
       <c r="B115" t="n">
-        <v>89405</v>
+        <v>90332</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -13851,25 +13847,25 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E115" t="n">
-        <v>1202</v>
+        <v>4769</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I115" t="inlineStr"/>
@@ -13879,10 +13875,10 @@
         </is>
       </c>
       <c r="Q115" t="n">
-        <v>563961.9324164493</v>
+        <v>563912.9580050925</v>
       </c>
       <c r="R115" t="n">
-        <v>6704950.261043776</v>
+        <v>6704870.491959149</v>
       </c>
       <c r="S115" t="n">
         <v>15</v>
@@ -13951,10 +13947,10 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>111644019</v>
+        <v>111643976</v>
       </c>
       <c r="B116" t="n">
-        <v>98535</v>
+        <v>56543</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -13963,38 +13959,46 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>222498</v>
+        <v>103021</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
+      <c r="N116" t="inlineStr"/>
       <c r="P116" t="inlineStr">
         <is>
           <t>Pellkärret, Dlr</t>
         </is>
       </c>
       <c r="Q116" t="n">
-        <v>563935.1967805427</v>
+        <v>563959.9830160879</v>
       </c>
       <c r="R116" t="n">
-        <v>6704869.89842237</v>
+        <v>6704864.911638761</v>
       </c>
       <c r="S116" t="n">
         <v>15</v>
@@ -14063,10 +14067,10 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>111643997</v>
+        <v>111643968</v>
       </c>
       <c r="B117" t="n">
-        <v>96348</v>
+        <v>89405</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -14075,25 +14079,25 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I117" t="inlineStr"/>
@@ -14103,10 +14107,10 @@
         </is>
       </c>
       <c r="Q117" t="n">
-        <v>563960.0269251792</v>
+        <v>563986.7677190969</v>
       </c>
       <c r="R117" t="n">
-        <v>6704946.282213242</v>
+        <v>6704886.590706035</v>
       </c>
       <c r="S117" t="n">
         <v>15</v>
@@ -14175,10 +14179,10 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>111644017</v>
+        <v>111643978</v>
       </c>
       <c r="B118" t="n">
-        <v>90687</v>
+        <v>90332</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -14191,37 +14195,34 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>5964</v>
+        <v>4769</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="N118" t="inlineStr"/>
       <c r="P118" t="inlineStr">
         <is>
           <t>Pellkärret, Dlr</t>
         </is>
       </c>
       <c r="Q118" t="n">
-        <v>563880.5711718387</v>
+        <v>563897.6824720911</v>
       </c>
       <c r="R118" t="n">
-        <v>6704914.303850577</v>
+        <v>6704896.359355085</v>
       </c>
       <c r="S118" t="n">
         <v>15</v>
@@ -14272,7 +14273,6 @@
       <c r="AE118" t="b">
         <v>0</v>
       </c>
-      <c r="AF118" t="inlineStr"/>
       <c r="AG118" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 58548-2022.xlsx
+++ b/artfynd/A 58548-2022.xlsx
@@ -13489,10 +13489,10 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>111644018</v>
+        <v>111644022</v>
       </c>
       <c r="B112" t="n">
-        <v>5113</v>
+        <v>98535</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -13505,43 +13505,34 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>100526</v>
+        <v>222498</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
-      <c r="N112" t="inlineStr"/>
       <c r="P112" t="inlineStr">
         <is>
           <t>Pellkärret, Dlr</t>
         </is>
       </c>
       <c r="Q112" t="n">
-        <v>564000.7505970574</v>
+        <v>563928.069399631</v>
       </c>
       <c r="R112" t="n">
-        <v>6704961.796430262</v>
+        <v>6704937.827276004</v>
       </c>
       <c r="S112" t="n">
         <v>15</v>
@@ -13592,7 +13583,6 @@
       <c r="AE112" t="b">
         <v>0</v>
       </c>
-      <c r="AF112" t="inlineStr"/>
       <c r="AG112" t="b">
         <v>0</v>
       </c>
@@ -13611,10 +13601,10 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>111644022</v>
+        <v>111644018</v>
       </c>
       <c r="B113" t="n">
-        <v>98535</v>
+        <v>5113</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -13627,34 +13617,43 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>222498</v>
+        <v>100526</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
+      <c r="N113" t="inlineStr"/>
       <c r="P113" t="inlineStr">
         <is>
           <t>Pellkärret, Dlr</t>
         </is>
       </c>
       <c r="Q113" t="n">
-        <v>563928.069399631</v>
+        <v>564000.7505970574</v>
       </c>
       <c r="R113" t="n">
-        <v>6704937.827276004</v>
+        <v>6704961.796430262</v>
       </c>
       <c r="S113" t="n">
         <v>15</v>
@@ -13705,6 +13704,7 @@
       <c r="AE113" t="b">
         <v>0</v>
       </c>
+      <c r="AF113" t="inlineStr"/>
       <c r="AG113" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 58548-2022.xlsx
+++ b/artfynd/A 58548-2022.xlsx
@@ -10526,10 +10526,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>111644004</v>
+        <v>111643968</v>
       </c>
       <c r="B86" t="n">
-        <v>73634</v>
+        <v>89405</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -10538,25 +10538,25 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>6426</v>
+        <v>1202</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
@@ -10566,10 +10566,10 @@
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>563968.3080592508</v>
+        <v>563986.7677190969</v>
       </c>
       <c r="R86" t="n">
-        <v>6704869.004009057</v>
+        <v>6704886.590706035</v>
       </c>
       <c r="S86" t="n">
         <v>15</v>
@@ -10638,7 +10638,7 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>111643997</v>
+        <v>111643999</v>
       </c>
       <c r="B87" t="n">
         <v>96348</v>
@@ -10678,10 +10678,10 @@
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>563960.0269251792</v>
+        <v>564214.7220113428</v>
       </c>
       <c r="R87" t="n">
-        <v>6704946.282213242</v>
+        <v>6705207.21881969</v>
       </c>
       <c r="S87" t="n">
         <v>15</v>
@@ -10750,10 +10750,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>111643984</v>
+        <v>111643970</v>
       </c>
       <c r="B88" t="n">
-        <v>89183</v>
+        <v>89405</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -10762,25 +10762,25 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>3215</v>
+        <v>1202</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
@@ -10790,10 +10790,10 @@
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>563935.2490328623</v>
+        <v>564135.2605183946</v>
       </c>
       <c r="R88" t="n">
-        <v>6704866.940414187</v>
+        <v>6705092.392526213</v>
       </c>
       <c r="S88" t="n">
         <v>15</v>
@@ -10838,18 +10838,12 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC88" t="inlineStr">
-        <is>
-          <t>Utanför hänsynssnitslat området</t>
-        </is>
-      </c>
       <c r="AD88" t="b">
         <v>0</v>
       </c>
       <c r="AE88" t="b">
         <v>0</v>
       </c>
-      <c r="AF88" t="inlineStr"/>
       <c r="AG88" t="b">
         <v>0</v>
       </c>
@@ -10868,10 +10862,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>111643970</v>
+        <v>111644010</v>
       </c>
       <c r="B89" t="n">
-        <v>89405</v>
+        <v>4717</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -10880,25 +10874,25 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>1202</v>
+        <v>102306</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Granbarkgnagare</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Microbregma emarginatum</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Duftschmid, 1825)</t>
         </is>
       </c>
       <c r="I89" t="inlineStr"/>
@@ -10908,10 +10902,10 @@
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>564135.2605183946</v>
+        <v>563970.2832921242</v>
       </c>
       <c r="R89" t="n">
-        <v>6705092.392526213</v>
+        <v>6704869.038919549</v>
       </c>
       <c r="S89" t="n">
         <v>15</v>
@@ -10980,10 +10974,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>111644010</v>
+        <v>111643966</v>
       </c>
       <c r="B90" t="n">
-        <v>4717</v>
+        <v>89405</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -10992,25 +10986,25 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>102306</v>
+        <v>1202</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Granbarkgnagare</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Microbregma emarginatum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>(Duftschmid, 1825)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I90" t="inlineStr"/>
@@ -11020,10 +11014,10 @@
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>563970.2832921242</v>
+        <v>564005.9723301042</v>
       </c>
       <c r="R90" t="n">
-        <v>6704869.038919549</v>
+        <v>6705057.55723764</v>
       </c>
       <c r="S90" t="n">
         <v>15</v>
@@ -11092,10 +11086,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>111643993</v>
+        <v>111644019</v>
       </c>
       <c r="B91" t="n">
-        <v>96348</v>
+        <v>98535</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -11104,46 +11098,38 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>220787</v>
+        <v>222498</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L91" t="inlineStr"/>
-      <c r="N91" t="inlineStr"/>
       <c r="P91" t="inlineStr">
         <is>
           <t>Pellkärret, Dlr</t>
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>564022.096035301</v>
+        <v>563935.1967805427</v>
       </c>
       <c r="R91" t="n">
-        <v>6705039.59657369</v>
+        <v>6704869.89842237</v>
       </c>
       <c r="S91" t="n">
         <v>15</v>
@@ -11194,7 +11180,6 @@
       <c r="AE91" t="b">
         <v>0</v>
       </c>
-      <c r="AF91" t="inlineStr"/>
       <c r="AG91" t="b">
         <v>0</v>
       </c>
@@ -11213,10 +11198,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>111644001</v>
+        <v>111643969</v>
       </c>
       <c r="B92" t="n">
-        <v>96348</v>
+        <v>89405</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -11225,25 +11210,25 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I92" t="inlineStr"/>
@@ -11253,10 +11238,10 @@
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>564373.5569152004</v>
+        <v>563961.9324164493</v>
       </c>
       <c r="R92" t="n">
-        <v>6705413.196864827</v>
+        <v>6704950.261043776</v>
       </c>
       <c r="S92" t="n">
         <v>15</v>
@@ -11325,10 +11310,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>111644002</v>
+        <v>111644004</v>
       </c>
       <c r="B93" t="n">
-        <v>96348</v>
+        <v>73634</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -11337,25 +11322,25 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>220787</v>
+        <v>6426</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I93" t="inlineStr"/>
@@ -11365,10 +11350,10 @@
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>564362.9780766467</v>
+        <v>563968.3080592508</v>
       </c>
       <c r="R93" t="n">
-        <v>6705424.842679138</v>
+        <v>6704869.004009057</v>
       </c>
       <c r="S93" t="n">
         <v>15</v>
@@ -11437,10 +11422,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>111643967</v>
+        <v>111643993</v>
       </c>
       <c r="B94" t="n">
-        <v>89405</v>
+        <v>96348</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -11449,38 +11434,46 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr"/>
+      <c r="N94" t="inlineStr"/>
       <c r="P94" t="inlineStr">
         <is>
           <t>Pellkärret, Dlr</t>
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>564001.2294282404</v>
+        <v>564022.096035301</v>
       </c>
       <c r="R94" t="n">
-        <v>6705018.515888276</v>
+        <v>6705039.59657369</v>
       </c>
       <c r="S94" t="n">
         <v>15</v>
@@ -11531,6 +11524,7 @@
       <c r="AE94" t="b">
         <v>0</v>
       </c>
+      <c r="AF94" t="inlineStr"/>
       <c r="AG94" t="b">
         <v>0</v>
       </c>
@@ -11549,7 +11543,7 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>111643994</v>
+        <v>111644000</v>
       </c>
       <c r="B95" t="n">
         <v>96348</v>
@@ -11583,24 +11577,16 @@
         </is>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L95" t="inlineStr"/>
-      <c r="N95" t="inlineStr"/>
       <c r="P95" t="inlineStr">
         <is>
           <t>Pellkärret, Dlr</t>
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>563938.1604798381</v>
+        <v>564382.7160046401</v>
       </c>
       <c r="R95" t="n">
-        <v>6704953.786161045</v>
+        <v>6705398.074181959</v>
       </c>
       <c r="S95" t="n">
         <v>15</v>
@@ -11651,7 +11637,6 @@
       <c r="AE95" t="b">
         <v>0</v>
       </c>
-      <c r="AF95" t="inlineStr"/>
       <c r="AG95" t="b">
         <v>0</v>
       </c>
@@ -11670,10 +11655,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>111644023</v>
+        <v>111643975</v>
       </c>
       <c r="B96" t="n">
-        <v>98535</v>
+        <v>56543</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -11682,38 +11667,46 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>222498</v>
+        <v>103021</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr"/>
       <c r="P96" t="inlineStr">
         <is>
           <t>Pellkärret, Dlr</t>
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>563926.0071291642</v>
+        <v>564036.8712818418</v>
       </c>
       <c r="R96" t="n">
-        <v>6704942.722304372</v>
+        <v>6705069.938933297</v>
       </c>
       <c r="S96" t="n">
         <v>15</v>
@@ -11782,10 +11775,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>111643975</v>
+        <v>111643984</v>
       </c>
       <c r="B97" t="n">
-        <v>56543</v>
+        <v>89183</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -11794,46 +11787,38 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>103021</v>
+        <v>3215</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
-      <c r="N97" t="inlineStr"/>
       <c r="P97" t="inlineStr">
         <is>
           <t>Pellkärret, Dlr</t>
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>564036.8712818418</v>
+        <v>563935.2490328623</v>
       </c>
       <c r="R97" t="n">
-        <v>6705069.938933297</v>
+        <v>6704866.940414187</v>
       </c>
       <c r="S97" t="n">
         <v>15</v>
@@ -11878,12 +11863,18 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC97" t="inlineStr">
+        <is>
+          <t>Utanför hänsynssnitslat området</t>
+        </is>
+      </c>
       <c r="AD97" t="b">
         <v>0</v>
       </c>
       <c r="AE97" t="b">
         <v>0</v>
       </c>
+      <c r="AF97" t="inlineStr"/>
       <c r="AG97" t="b">
         <v>0</v>
       </c>
@@ -11902,10 +11893,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>111644009</v>
+        <v>111644022</v>
       </c>
       <c r="B98" t="n">
-        <v>4717</v>
+        <v>98535</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -11918,21 +11909,21 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>102306</v>
+        <v>222498</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Granbarkgnagare</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Microbregma emarginatum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>(Duftschmid, 1825)</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
@@ -11942,10 +11933,10 @@
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>564175.9770425721</v>
+        <v>563928.069399631</v>
       </c>
       <c r="R98" t="n">
-        <v>6705191.738182176</v>
+        <v>6704937.827276004</v>
       </c>
       <c r="S98" t="n">
         <v>15</v>
@@ -12014,10 +12005,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>111638852</v>
+        <v>111643997</v>
       </c>
       <c r="B99" t="n">
-        <v>56543</v>
+        <v>96348</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -12026,47 +12017,41 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>103021</v>
+        <v>220787</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
       <c r="P99" t="inlineStr">
         <is>
-          <t>Norra Kallbäck Skysslingen 244, Hedemora (Norra Kallbäck Skysslingen 244, Hedemora), Dlr</t>
+          <t>Pellkärret, Dlr</t>
         </is>
       </c>
       <c r="Q99" t="n">
-        <v>564273.9820338928</v>
+        <v>563960.0269251792</v>
       </c>
       <c r="R99" t="n">
-        <v>6705346.832363938</v>
+        <v>6704946.282213242</v>
       </c>
       <c r="S99" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="T99" t="inlineStr">
         <is>
@@ -12095,7 +12080,7 @@
       </c>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>08:03</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA99" t="inlineStr">
@@ -12105,7 +12090,7 @@
       </c>
       <c r="AB99" t="inlineStr">
         <is>
-          <t>08:03</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD99" t="b">
@@ -12132,10 +12117,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>111643979</v>
+        <v>111643967</v>
       </c>
       <c r="B100" t="n">
-        <v>90332</v>
+        <v>89405</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -12144,25 +12129,25 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>4769</v>
+        <v>1202</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I100" t="inlineStr"/>
@@ -12172,10 +12157,10 @@
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>563891.7046019271</v>
+        <v>564001.2294282404</v>
       </c>
       <c r="R100" t="n">
-        <v>6704899.212729557</v>
+        <v>6705018.515888276</v>
       </c>
       <c r="S100" t="n">
         <v>15</v>
@@ -12244,10 +12229,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>111643966</v>
+        <v>111643976</v>
       </c>
       <c r="B101" t="n">
-        <v>89405</v>
+        <v>56543</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -12260,34 +12245,42 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>1202</v>
+        <v>103021</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
+      <c r="N101" t="inlineStr"/>
       <c r="P101" t="inlineStr">
         <is>
           <t>Pellkärret, Dlr</t>
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>564005.9723301042</v>
+        <v>563959.9830160879</v>
       </c>
       <c r="R101" t="n">
-        <v>6705057.55723764</v>
+        <v>6704864.911638761</v>
       </c>
       <c r="S101" t="n">
         <v>15</v>
@@ -12356,10 +12349,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>111643999</v>
+        <v>111644017</v>
       </c>
       <c r="B102" t="n">
-        <v>96348</v>
+        <v>90687</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -12368,38 +12361,41 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>220787</v>
+        <v>5964</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="N102" t="inlineStr"/>
       <c r="P102" t="inlineStr">
         <is>
           <t>Pellkärret, Dlr</t>
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>564214.7220113428</v>
+        <v>563880.5711718387</v>
       </c>
       <c r="R102" t="n">
-        <v>6705207.21881969</v>
+        <v>6704914.303850577</v>
       </c>
       <c r="S102" t="n">
         <v>15</v>
@@ -12450,6 +12446,7 @@
       <c r="AE102" t="b">
         <v>0</v>
       </c>
+      <c r="AF102" t="inlineStr"/>
       <c r="AG102" t="b">
         <v>0</v>
       </c>
@@ -12468,10 +12465,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>111643969</v>
+        <v>111643998</v>
       </c>
       <c r="B103" t="n">
-        <v>89405</v>
+        <v>96348</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -12480,25 +12477,25 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I103" t="inlineStr"/>
@@ -12508,10 +12505,10 @@
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>563961.9324164493</v>
+        <v>564084.7368881714</v>
       </c>
       <c r="R103" t="n">
-        <v>6704950.261043776</v>
+        <v>6705044.650279458</v>
       </c>
       <c r="S103" t="n">
         <v>15</v>
@@ -12580,10 +12577,10 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>111644011</v>
+        <v>111644018</v>
       </c>
       <c r="B104" t="n">
-        <v>4717</v>
+        <v>5113</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -12596,34 +12593,43 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>102306</v>
+        <v>100526</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Granbarkgnagare</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Microbregma emarginatum</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>(Duftschmid, 1825)</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
+      <c r="N104" t="inlineStr"/>
       <c r="P104" t="inlineStr">
         <is>
           <t>Pellkärret, Dlr</t>
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>563947.9486855237</v>
+        <v>564000.7505970574</v>
       </c>
       <c r="R104" t="n">
-        <v>6704875.055250473</v>
+        <v>6704961.796430262</v>
       </c>
       <c r="S104" t="n">
         <v>15</v>
@@ -12674,6 +12680,7 @@
       <c r="AE104" t="b">
         <v>0</v>
       </c>
+      <c r="AF104" t="inlineStr"/>
       <c r="AG104" t="b">
         <v>0</v>
       </c>
@@ -12692,10 +12699,10 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>111644021</v>
+        <v>111644002</v>
       </c>
       <c r="B105" t="n">
-        <v>98535</v>
+        <v>96348</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -12704,25 +12711,25 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>222498</v>
+        <v>220787</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I105" t="inlineStr"/>
@@ -12732,10 +12739,10 @@
         </is>
       </c>
       <c r="Q105" t="n">
-        <v>563895.6898476363</v>
+        <v>564362.9780766467</v>
       </c>
       <c r="R105" t="n">
-        <v>6704897.310479084</v>
+        <v>6705424.842679138</v>
       </c>
       <c r="S105" t="n">
         <v>15</v>
@@ -12804,10 +12811,10 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>111644019</v>
+        <v>111643977</v>
       </c>
       <c r="B106" t="n">
-        <v>98535</v>
+        <v>90332</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -12820,21 +12827,21 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>222498</v>
+        <v>4769</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I106" t="inlineStr"/>
@@ -12844,10 +12851,10 @@
         </is>
       </c>
       <c r="Q106" t="n">
-        <v>563935.1967805427</v>
+        <v>563912.9580050925</v>
       </c>
       <c r="R106" t="n">
-        <v>6704869.89842237</v>
+        <v>6704870.491959149</v>
       </c>
       <c r="S106" t="n">
         <v>15</v>
@@ -12916,10 +12923,10 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>111643996</v>
+        <v>111644021</v>
       </c>
       <c r="B107" t="n">
-        <v>96348</v>
+        <v>98535</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -12928,25 +12935,25 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>220787</v>
+        <v>222498</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I107" t="inlineStr"/>
@@ -12956,10 +12963,10 @@
         </is>
       </c>
       <c r="Q107" t="n">
-        <v>564022.4274219956</v>
+        <v>563895.6898476363</v>
       </c>
       <c r="R107" t="n">
-        <v>6705020.86335416</v>
+        <v>6704897.310479084</v>
       </c>
       <c r="S107" t="n">
         <v>15</v>
@@ -13028,7 +13035,7 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>111643998</v>
+        <v>111643995</v>
       </c>
       <c r="B108" t="n">
         <v>96348</v>
@@ -13062,16 +13069,24 @@
         </is>
       </c>
       <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L108" t="inlineStr"/>
+      <c r="N108" t="inlineStr"/>
       <c r="P108" t="inlineStr">
         <is>
           <t>Pellkärret, Dlr</t>
         </is>
       </c>
       <c r="Q108" t="n">
-        <v>564084.7368881714</v>
+        <v>563991.6879464064</v>
       </c>
       <c r="R108" t="n">
-        <v>6705044.650279458</v>
+        <v>6704971.499027047</v>
       </c>
       <c r="S108" t="n">
         <v>15</v>
@@ -13122,6 +13137,7 @@
       <c r="AE108" t="b">
         <v>0</v>
       </c>
+      <c r="AF108" t="inlineStr"/>
       <c r="AG108" t="b">
         <v>0</v>
       </c>
@@ -13140,10 +13156,10 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>111644000</v>
+        <v>111643979</v>
       </c>
       <c r="B109" t="n">
-        <v>96348</v>
+        <v>90332</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -13152,25 +13168,25 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>220787</v>
+        <v>4769</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I109" t="inlineStr"/>
@@ -13180,10 +13196,10 @@
         </is>
       </c>
       <c r="Q109" t="n">
-        <v>564382.7160046401</v>
+        <v>563891.7046019271</v>
       </c>
       <c r="R109" t="n">
-        <v>6705398.074181959</v>
+        <v>6704899.212729557</v>
       </c>
       <c r="S109" t="n">
         <v>15</v>
@@ -13252,10 +13268,10 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>111643995</v>
+        <v>111644011</v>
       </c>
       <c r="B110" t="n">
-        <v>96348</v>
+        <v>4717</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -13264,46 +13280,38 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>220787</v>
+        <v>102306</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Granbarkgnagare</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Microbregma emarginatum</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Duftschmid, 1825)</t>
         </is>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L110" t="inlineStr"/>
-      <c r="N110" t="inlineStr"/>
       <c r="P110" t="inlineStr">
         <is>
           <t>Pellkärret, Dlr</t>
         </is>
       </c>
       <c r="Q110" t="n">
-        <v>563991.6879464064</v>
+        <v>563947.9486855237</v>
       </c>
       <c r="R110" t="n">
-        <v>6704971.499027047</v>
+        <v>6704875.055250473</v>
       </c>
       <c r="S110" t="n">
         <v>15</v>
@@ -13354,7 +13362,6 @@
       <c r="AE110" t="b">
         <v>0</v>
       </c>
-      <c r="AF110" t="inlineStr"/>
       <c r="AG110" t="b">
         <v>0</v>
       </c>
@@ -13373,10 +13380,10 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>111644017</v>
+        <v>111643994</v>
       </c>
       <c r="B111" t="n">
-        <v>90687</v>
+        <v>96348</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -13385,30 +13392,35 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>5964</v>
+        <v>220787</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L111" t="inlineStr"/>
       <c r="N111" t="inlineStr"/>
       <c r="P111" t="inlineStr">
         <is>
@@ -13416,10 +13428,10 @@
         </is>
       </c>
       <c r="Q111" t="n">
-        <v>563880.5711718387</v>
+        <v>563938.1604798381</v>
       </c>
       <c r="R111" t="n">
-        <v>6704914.303850577</v>
+        <v>6704953.786161045</v>
       </c>
       <c r="S111" t="n">
         <v>15</v>
@@ -13489,10 +13501,10 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>111644022</v>
+        <v>111643978</v>
       </c>
       <c r="B112" t="n">
-        <v>98535</v>
+        <v>90332</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -13505,21 +13517,21 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>222498</v>
+        <v>4769</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I112" t="inlineStr"/>
@@ -13529,10 +13541,10 @@
         </is>
       </c>
       <c r="Q112" t="n">
-        <v>563928.069399631</v>
+        <v>563897.6824720911</v>
       </c>
       <c r="R112" t="n">
-        <v>6704937.827276004</v>
+        <v>6704896.359355085</v>
       </c>
       <c r="S112" t="n">
         <v>15</v>
@@ -13601,10 +13613,10 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>111644018</v>
+        <v>111643971</v>
       </c>
       <c r="B113" t="n">
-        <v>5113</v>
+        <v>90087</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -13617,43 +13629,34 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>100526</v>
+        <v>3298</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
-      <c r="N113" t="inlineStr"/>
       <c r="P113" t="inlineStr">
         <is>
           <t>Pellkärret, Dlr</t>
         </is>
       </c>
       <c r="Q113" t="n">
-        <v>564000.7505970574</v>
+        <v>564129.6583918922</v>
       </c>
       <c r="R113" t="n">
-        <v>6704961.796430262</v>
+        <v>6705074.047548601</v>
       </c>
       <c r="S113" t="n">
         <v>15</v>
@@ -13704,7 +13707,6 @@
       <c r="AE113" t="b">
         <v>0</v>
       </c>
-      <c r="AF113" t="inlineStr"/>
       <c r="AG113" t="b">
         <v>0</v>
       </c>
@@ -13723,10 +13725,10 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>111643971</v>
+        <v>111644001</v>
       </c>
       <c r="B114" t="n">
-        <v>90087</v>
+        <v>96348</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -13735,25 +13737,25 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>3298</v>
+        <v>220787</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I114" t="inlineStr"/>
@@ -13763,10 +13765,10 @@
         </is>
       </c>
       <c r="Q114" t="n">
-        <v>564129.6583918922</v>
+        <v>564373.5569152004</v>
       </c>
       <c r="R114" t="n">
-        <v>6705074.047548601</v>
+        <v>6705413.196864827</v>
       </c>
       <c r="S114" t="n">
         <v>15</v>
@@ -13835,10 +13837,10 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>111643977</v>
+        <v>111638852</v>
       </c>
       <c r="B115" t="n">
-        <v>90332</v>
+        <v>56543</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -13847,41 +13849,47 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E115" t="n">
-        <v>4769</v>
+        <v>103021</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
       <c r="P115" t="inlineStr">
         <is>
-          <t>Pellkärret, Dlr</t>
+          <t>Norra Kallbäck Skysslingen 244, Hedemora (Norra Kallbäck Skysslingen 244, Hedemora), Dlr</t>
         </is>
       </c>
       <c r="Q115" t="n">
-        <v>563912.9580050925</v>
+        <v>564273.9820338928</v>
       </c>
       <c r="R115" t="n">
-        <v>6704870.491959149</v>
+        <v>6705346.832363938</v>
       </c>
       <c r="S115" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="T115" t="inlineStr">
         <is>
@@ -13910,7 +13918,7 @@
       </c>
       <c r="Z115" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>08:03</t>
         </is>
       </c>
       <c r="AA115" t="inlineStr">
@@ -13920,7 +13928,7 @@
       </c>
       <c r="AB115" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>08:03</t>
         </is>
       </c>
       <c r="AD115" t="b">
@@ -13947,10 +13955,10 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>111643976</v>
+        <v>111644009</v>
       </c>
       <c r="B116" t="n">
-        <v>56543</v>
+        <v>4717</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -13959,46 +13967,38 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>103021</v>
+        <v>102306</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Granbarkgnagare</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Microbregma emarginatum</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Duftschmid, 1825)</t>
         </is>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
-      <c r="N116" t="inlineStr"/>
       <c r="P116" t="inlineStr">
         <is>
           <t>Pellkärret, Dlr</t>
         </is>
       </c>
       <c r="Q116" t="n">
-        <v>563959.9830160879</v>
+        <v>564175.9770425721</v>
       </c>
       <c r="R116" t="n">
-        <v>6704864.911638761</v>
+        <v>6705191.738182176</v>
       </c>
       <c r="S116" t="n">
         <v>15</v>
@@ -14067,10 +14067,10 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>111643968</v>
+        <v>111644023</v>
       </c>
       <c r="B117" t="n">
-        <v>89405</v>
+        <v>98535</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -14079,25 +14079,25 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>1202</v>
+        <v>222498</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I117" t="inlineStr"/>
@@ -14107,10 +14107,10 @@
         </is>
       </c>
       <c r="Q117" t="n">
-        <v>563986.7677190969</v>
+        <v>563926.0071291642</v>
       </c>
       <c r="R117" t="n">
-        <v>6704886.590706035</v>
+        <v>6704942.722304372</v>
       </c>
       <c r="S117" t="n">
         <v>15</v>
@@ -14179,10 +14179,10 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>111643978</v>
+        <v>111643996</v>
       </c>
       <c r="B118" t="n">
-        <v>90332</v>
+        <v>96348</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -14191,25 +14191,25 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E118" t="n">
-        <v>4769</v>
+        <v>220787</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I118" t="inlineStr"/>
@@ -14219,10 +14219,10 @@
         </is>
       </c>
       <c r="Q118" t="n">
-        <v>563897.6824720911</v>
+        <v>564022.4274219956</v>
       </c>
       <c r="R118" t="n">
-        <v>6704896.359355085</v>
+        <v>6705020.86335416</v>
       </c>
       <c r="S118" t="n">
         <v>15</v>

--- a/artfynd/A 58548-2022.xlsx
+++ b/artfynd/A 58548-2022.xlsx
@@ -10526,10 +10526,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>111643968</v>
+        <v>111643971</v>
       </c>
       <c r="B86" t="n">
-        <v>89405</v>
+        <v>90087</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -10538,25 +10538,25 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>1202</v>
+        <v>3298</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
@@ -10566,10 +10566,10 @@
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>563986.7677190969</v>
+        <v>564130</v>
       </c>
       <c r="R86" t="n">
-        <v>6704886.590706035</v>
+        <v>6705074</v>
       </c>
       <c r="S86" t="n">
         <v>15</v>
@@ -10599,19 +10599,9 @@
           <t>2023-08-23</t>
         </is>
       </c>
-      <c r="Z86" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA86" t="inlineStr">
         <is>
           <t>2023-08-23</t>
-        </is>
-      </c>
-      <c r="AB86" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD86" t="b">
@@ -10638,10 +10628,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>111643999</v>
+        <v>111643979</v>
       </c>
       <c r="B87" t="n">
-        <v>96348</v>
+        <v>90332</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -10650,25 +10640,25 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>220787</v>
+        <v>4769</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
@@ -10678,10 +10668,10 @@
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>564214.7220113428</v>
+        <v>563892</v>
       </c>
       <c r="R87" t="n">
-        <v>6705207.21881969</v>
+        <v>6704899</v>
       </c>
       <c r="S87" t="n">
         <v>15</v>
@@ -10711,19 +10701,9 @@
           <t>2023-08-23</t>
         </is>
       </c>
-      <c r="Z87" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA87" t="inlineStr">
         <is>
           <t>2023-08-23</t>
-        </is>
-      </c>
-      <c r="AB87" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD87" t="b">
@@ -10750,10 +10730,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>111643970</v>
+        <v>111644017</v>
       </c>
       <c r="B88" t="n">
-        <v>89405</v>
+        <v>90687</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -10762,38 +10742,41 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>1202</v>
+        <v>5964</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="N88" t="inlineStr"/>
       <c r="P88" t="inlineStr">
         <is>
           <t>Pellkärret, Dlr</t>
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>564135.2605183946</v>
+        <v>563881</v>
       </c>
       <c r="R88" t="n">
-        <v>6705092.392526213</v>
+        <v>6704914</v>
       </c>
       <c r="S88" t="n">
         <v>15</v>
@@ -10823,27 +10806,18 @@
           <t>2023-08-23</t>
         </is>
       </c>
-      <c r="Z88" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA88" t="inlineStr">
         <is>
           <t>2023-08-23</t>
         </is>
       </c>
-      <c r="AB88" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD88" t="b">
         <v>0</v>
       </c>
       <c r="AE88" t="b">
         <v>0</v>
       </c>
+      <c r="AF88" t="inlineStr"/>
       <c r="AG88" t="b">
         <v>0</v>
       </c>
@@ -10862,10 +10836,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>111644010</v>
+        <v>111644004</v>
       </c>
       <c r="B89" t="n">
-        <v>4717</v>
+        <v>73634</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -10878,21 +10852,21 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>102306</v>
+        <v>6426</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Granbarkgnagare</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Microbregma emarginatum</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>(Duftschmid, 1825)</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I89" t="inlineStr"/>
@@ -10902,10 +10876,10 @@
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>563970.2832921242</v>
+        <v>563968</v>
       </c>
       <c r="R89" t="n">
-        <v>6704869.038919549</v>
+        <v>6704869</v>
       </c>
       <c r="S89" t="n">
         <v>15</v>
@@ -10935,19 +10909,9 @@
           <t>2023-08-23</t>
         </is>
       </c>
-      <c r="Z89" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA89" t="inlineStr">
         <is>
           <t>2023-08-23</t>
-        </is>
-      </c>
-      <c r="AB89" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD89" t="b">
@@ -10974,10 +10938,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>111643966</v>
+        <v>111643978</v>
       </c>
       <c r="B90" t="n">
-        <v>89405</v>
+        <v>90332</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -10986,25 +10950,25 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>1202</v>
+        <v>4769</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I90" t="inlineStr"/>
@@ -11014,10 +10978,10 @@
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>564005.9723301042</v>
+        <v>563898</v>
       </c>
       <c r="R90" t="n">
-        <v>6705057.55723764</v>
+        <v>6704896</v>
       </c>
       <c r="S90" t="n">
         <v>15</v>
@@ -11047,19 +11011,9 @@
           <t>2023-08-23</t>
         </is>
       </c>
-      <c r="Z90" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA90" t="inlineStr">
         <is>
           <t>2023-08-23</t>
-        </is>
-      </c>
-      <c r="AB90" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD90" t="b">
@@ -11086,10 +11040,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>111644019</v>
+        <v>111643975</v>
       </c>
       <c r="B91" t="n">
-        <v>98535</v>
+        <v>56543</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -11098,38 +11052,46 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>222498</v>
+        <v>103021</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr"/>
       <c r="P91" t="inlineStr">
         <is>
           <t>Pellkärret, Dlr</t>
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>563935.1967805427</v>
+        <v>564037</v>
       </c>
       <c r="R91" t="n">
-        <v>6704869.89842237</v>
+        <v>6705070</v>
       </c>
       <c r="S91" t="n">
         <v>15</v>
@@ -11159,19 +11121,9 @@
           <t>2023-08-23</t>
         </is>
       </c>
-      <c r="Z91" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA91" t="inlineStr">
         <is>
           <t>2023-08-23</t>
-        </is>
-      </c>
-      <c r="AB91" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD91" t="b">
@@ -11198,10 +11150,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>111643969</v>
+        <v>111644018</v>
       </c>
       <c r="B92" t="n">
-        <v>89405</v>
+        <v>5113</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -11210,38 +11162,47 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>1202</v>
+        <v>100526</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr"/>
       <c r="P92" t="inlineStr">
         <is>
           <t>Pellkärret, Dlr</t>
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>563961.9324164493</v>
+        <v>564001</v>
       </c>
       <c r="R92" t="n">
-        <v>6704950.261043776</v>
+        <v>6704962</v>
       </c>
       <c r="S92" t="n">
         <v>15</v>
@@ -11271,27 +11232,18 @@
           <t>2023-08-23</t>
         </is>
       </c>
-      <c r="Z92" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA92" t="inlineStr">
         <is>
           <t>2023-08-23</t>
         </is>
       </c>
-      <c r="AB92" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD92" t="b">
         <v>0</v>
       </c>
       <c r="AE92" t="b">
         <v>0</v>
       </c>
+      <c r="AF92" t="inlineStr"/>
       <c r="AG92" t="b">
         <v>0</v>
       </c>
@@ -11310,10 +11262,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>111644004</v>
+        <v>111643999</v>
       </c>
       <c r="B93" t="n">
-        <v>73634</v>
+        <v>96348</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -11322,25 +11274,25 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>6426</v>
+        <v>220787</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I93" t="inlineStr"/>
@@ -11350,10 +11302,10 @@
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>563968.3080592508</v>
+        <v>564215</v>
       </c>
       <c r="R93" t="n">
-        <v>6704869.004009057</v>
+        <v>6705207</v>
       </c>
       <c r="S93" t="n">
         <v>15</v>
@@ -11383,19 +11335,9 @@
           <t>2023-08-23</t>
         </is>
       </c>
-      <c r="Z93" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA93" t="inlineStr">
         <is>
           <t>2023-08-23</t>
-        </is>
-      </c>
-      <c r="AB93" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD93" t="b">
@@ -11422,10 +11364,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>111643993</v>
+        <v>111644023</v>
       </c>
       <c r="B94" t="n">
-        <v>96348</v>
+        <v>98535</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -11434,46 +11376,38 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>220787</v>
+        <v>222498</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L94" t="inlineStr"/>
-      <c r="N94" t="inlineStr"/>
       <c r="P94" t="inlineStr">
         <is>
           <t>Pellkärret, Dlr</t>
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>564022.096035301</v>
+        <v>563926</v>
       </c>
       <c r="R94" t="n">
-        <v>6705039.59657369</v>
+        <v>6704943</v>
       </c>
       <c r="S94" t="n">
         <v>15</v>
@@ -11503,28 +11437,17 @@
           <t>2023-08-23</t>
         </is>
       </c>
-      <c r="Z94" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA94" t="inlineStr">
         <is>
           <t>2023-08-23</t>
         </is>
       </c>
-      <c r="AB94" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD94" t="b">
         <v>0</v>
       </c>
       <c r="AE94" t="b">
         <v>0</v>
       </c>
-      <c r="AF94" t="inlineStr"/>
       <c r="AG94" t="b">
         <v>0</v>
       </c>
@@ -11543,7 +11466,7 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>111644000</v>
+        <v>111643993</v>
       </c>
       <c r="B95" t="n">
         <v>96348</v>
@@ -11577,16 +11500,24 @@
         </is>
       </c>
       <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr"/>
+      <c r="N95" t="inlineStr"/>
       <c r="P95" t="inlineStr">
         <is>
           <t>Pellkärret, Dlr</t>
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>564382.7160046401</v>
+        <v>564022</v>
       </c>
       <c r="R95" t="n">
-        <v>6705398.074181959</v>
+        <v>6705040</v>
       </c>
       <c r="S95" t="n">
         <v>15</v>
@@ -11616,27 +11547,18 @@
           <t>2023-08-23</t>
         </is>
       </c>
-      <c r="Z95" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA95" t="inlineStr">
         <is>
           <t>2023-08-23</t>
         </is>
       </c>
-      <c r="AB95" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD95" t="b">
         <v>0</v>
       </c>
       <c r="AE95" t="b">
         <v>0</v>
       </c>
+      <c r="AF95" t="inlineStr"/>
       <c r="AG95" t="b">
         <v>0</v>
       </c>
@@ -11655,10 +11577,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>111643975</v>
+        <v>111644019</v>
       </c>
       <c r="B96" t="n">
-        <v>56543</v>
+        <v>98535</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -11667,46 +11589,38 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>103021</v>
+        <v>222498</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
-      <c r="N96" t="inlineStr"/>
       <c r="P96" t="inlineStr">
         <is>
           <t>Pellkärret, Dlr</t>
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>564036.8712818418</v>
+        <v>563935</v>
       </c>
       <c r="R96" t="n">
-        <v>6705069.938933297</v>
+        <v>6704870</v>
       </c>
       <c r="S96" t="n">
         <v>15</v>
@@ -11736,19 +11650,9 @@
           <t>2023-08-23</t>
         </is>
       </c>
-      <c r="Z96" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA96" t="inlineStr">
         <is>
           <t>2023-08-23</t>
-        </is>
-      </c>
-      <c r="AB96" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD96" t="b">
@@ -11775,10 +11679,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>111643984</v>
+        <v>111643996</v>
       </c>
       <c r="B97" t="n">
-        <v>89183</v>
+        <v>96348</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -11787,25 +11691,25 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>3215</v>
+        <v>220787</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I97" t="inlineStr"/>
@@ -11815,10 +11719,10 @@
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>563935.2490328623</v>
+        <v>564022</v>
       </c>
       <c r="R97" t="n">
-        <v>6704866.940414187</v>
+        <v>6705021</v>
       </c>
       <c r="S97" t="n">
         <v>15</v>
@@ -11848,33 +11752,17 @@
           <t>2023-08-23</t>
         </is>
       </c>
-      <c r="Z97" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA97" t="inlineStr">
         <is>
           <t>2023-08-23</t>
         </is>
       </c>
-      <c r="AB97" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC97" t="inlineStr">
-        <is>
-          <t>Utanför hänsynssnitslat området</t>
-        </is>
-      </c>
       <c r="AD97" t="b">
         <v>0</v>
       </c>
       <c r="AE97" t="b">
         <v>0</v>
       </c>
-      <c r="AF97" t="inlineStr"/>
       <c r="AG97" t="b">
         <v>0</v>
       </c>
@@ -11893,10 +11781,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>111644022</v>
+        <v>111644010</v>
       </c>
       <c r="B98" t="n">
-        <v>98535</v>
+        <v>4717</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -11909,21 +11797,21 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>222498</v>
+        <v>102306</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Granbarkgnagare</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Microbregma emarginatum</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Duftschmid, 1825)</t>
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
@@ -11933,10 +11821,10 @@
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>563928.069399631</v>
+        <v>563970</v>
       </c>
       <c r="R98" t="n">
-        <v>6704937.827276004</v>
+        <v>6704869</v>
       </c>
       <c r="S98" t="n">
         <v>15</v>
@@ -11966,19 +11854,9 @@
           <t>2023-08-23</t>
         </is>
       </c>
-      <c r="Z98" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA98" t="inlineStr">
         <is>
           <t>2023-08-23</t>
-        </is>
-      </c>
-      <c r="AB98" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD98" t="b">
@@ -12005,10 +11883,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>111643997</v>
+        <v>111644021</v>
       </c>
       <c r="B99" t="n">
-        <v>96348</v>
+        <v>98535</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -12017,25 +11895,25 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>220787</v>
+        <v>222498</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I99" t="inlineStr"/>
@@ -12045,10 +11923,10 @@
         </is>
       </c>
       <c r="Q99" t="n">
-        <v>563960.0269251792</v>
+        <v>563896</v>
       </c>
       <c r="R99" t="n">
-        <v>6704946.282213242</v>
+        <v>6704897</v>
       </c>
       <c r="S99" t="n">
         <v>15</v>
@@ -12078,19 +11956,9 @@
           <t>2023-08-23</t>
         </is>
       </c>
-      <c r="Z99" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA99" t="inlineStr">
         <is>
           <t>2023-08-23</t>
-        </is>
-      </c>
-      <c r="AB99" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD99" t="b">
@@ -12117,10 +11985,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>111643967</v>
+        <v>111643995</v>
       </c>
       <c r="B100" t="n">
-        <v>89405</v>
+        <v>96348</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -12129,38 +11997,46 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr"/>
+      <c r="N100" t="inlineStr"/>
       <c r="P100" t="inlineStr">
         <is>
           <t>Pellkärret, Dlr</t>
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>564001.2294282404</v>
+        <v>563992</v>
       </c>
       <c r="R100" t="n">
-        <v>6705018.515888276</v>
+        <v>6704971</v>
       </c>
       <c r="S100" t="n">
         <v>15</v>
@@ -12190,27 +12066,18 @@
           <t>2023-08-23</t>
         </is>
       </c>
-      <c r="Z100" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA100" t="inlineStr">
         <is>
           <t>2023-08-23</t>
         </is>
       </c>
-      <c r="AB100" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD100" t="b">
         <v>0</v>
       </c>
       <c r="AE100" t="b">
         <v>0</v>
       </c>
+      <c r="AF100" t="inlineStr"/>
       <c r="AG100" t="b">
         <v>0</v>
       </c>
@@ -12229,10 +12096,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>111643976</v>
+        <v>111644022</v>
       </c>
       <c r="B101" t="n">
-        <v>56543</v>
+        <v>98535</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -12241,46 +12108,38 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>103021</v>
+        <v>222498</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
-      <c r="N101" t="inlineStr"/>
       <c r="P101" t="inlineStr">
         <is>
           <t>Pellkärret, Dlr</t>
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>563959.9830160879</v>
+        <v>563928</v>
       </c>
       <c r="R101" t="n">
-        <v>6704864.911638761</v>
+        <v>6704938</v>
       </c>
       <c r="S101" t="n">
         <v>15</v>
@@ -12310,19 +12169,9 @@
           <t>2023-08-23</t>
         </is>
       </c>
-      <c r="Z101" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA101" t="inlineStr">
         <is>
           <t>2023-08-23</t>
-        </is>
-      </c>
-      <c r="AB101" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD101" t="b">
@@ -12349,10 +12198,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>111644017</v>
+        <v>111644011</v>
       </c>
       <c r="B102" t="n">
-        <v>90687</v>
+        <v>4717</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -12365,37 +12214,34 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>5964</v>
+        <v>102306</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Granbarkgnagare</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Microbregma emarginatum</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Duftschmid, 1825)</t>
         </is>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="N102" t="inlineStr"/>
       <c r="P102" t="inlineStr">
         <is>
           <t>Pellkärret, Dlr</t>
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>563880.5711718387</v>
+        <v>563948</v>
       </c>
       <c r="R102" t="n">
-        <v>6704914.303850577</v>
+        <v>6704875</v>
       </c>
       <c r="S102" t="n">
         <v>15</v>
@@ -12425,28 +12271,17 @@
           <t>2023-08-23</t>
         </is>
       </c>
-      <c r="Z102" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA102" t="inlineStr">
         <is>
           <t>2023-08-23</t>
         </is>
       </c>
-      <c r="AB102" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD102" t="b">
         <v>0</v>
       </c>
       <c r="AE102" t="b">
         <v>0</v>
       </c>
-      <c r="AF102" t="inlineStr"/>
       <c r="AG102" t="b">
         <v>0</v>
       </c>
@@ -12465,10 +12300,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>111643998</v>
+        <v>111643969</v>
       </c>
       <c r="B103" t="n">
-        <v>96348</v>
+        <v>89405</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -12477,25 +12312,25 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I103" t="inlineStr"/>
@@ -12505,10 +12340,10 @@
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>564084.7368881714</v>
+        <v>563962</v>
       </c>
       <c r="R103" t="n">
-        <v>6705044.650279458</v>
+        <v>6704950</v>
       </c>
       <c r="S103" t="n">
         <v>15</v>
@@ -12538,19 +12373,9 @@
           <t>2023-08-23</t>
         </is>
       </c>
-      <c r="Z103" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA103" t="inlineStr">
         <is>
           <t>2023-08-23</t>
-        </is>
-      </c>
-      <c r="AB103" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD103" t="b">
@@ -12577,10 +12402,10 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>111644018</v>
+        <v>111643977</v>
       </c>
       <c r="B104" t="n">
-        <v>5113</v>
+        <v>90332</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -12593,43 +12418,34 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>100526</v>
+        <v>4769</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
-      <c r="N104" t="inlineStr"/>
       <c r="P104" t="inlineStr">
         <is>
           <t>Pellkärret, Dlr</t>
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>564000.7505970574</v>
+        <v>563913</v>
       </c>
       <c r="R104" t="n">
-        <v>6704961.796430262</v>
+        <v>6704870</v>
       </c>
       <c r="S104" t="n">
         <v>15</v>
@@ -12659,28 +12475,17 @@
           <t>2023-08-23</t>
         </is>
       </c>
-      <c r="Z104" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA104" t="inlineStr">
         <is>
           <t>2023-08-23</t>
         </is>
       </c>
-      <c r="AB104" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD104" t="b">
         <v>0</v>
       </c>
       <c r="AE104" t="b">
         <v>0</v>
       </c>
-      <c r="AF104" t="inlineStr"/>
       <c r="AG104" t="b">
         <v>0</v>
       </c>
@@ -12739,10 +12544,10 @@
         </is>
       </c>
       <c r="Q105" t="n">
-        <v>564362.9780766467</v>
+        <v>564363</v>
       </c>
       <c r="R105" t="n">
-        <v>6705424.842679138</v>
+        <v>6705425</v>
       </c>
       <c r="S105" t="n">
         <v>15</v>
@@ -12772,19 +12577,9 @@
           <t>2023-08-23</t>
         </is>
       </c>
-      <c r="Z105" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA105" t="inlineStr">
         <is>
           <t>2023-08-23</t>
-        </is>
-      </c>
-      <c r="AB105" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD105" t="b">
@@ -12811,10 +12606,10 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>111643977</v>
+        <v>111643997</v>
       </c>
       <c r="B106" t="n">
-        <v>90332</v>
+        <v>96348</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -12823,25 +12618,25 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>4769</v>
+        <v>220787</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I106" t="inlineStr"/>
@@ -12851,10 +12646,10 @@
         </is>
       </c>
       <c r="Q106" t="n">
-        <v>563912.9580050925</v>
+        <v>563960</v>
       </c>
       <c r="R106" t="n">
-        <v>6704870.491959149</v>
+        <v>6704946</v>
       </c>
       <c r="S106" t="n">
         <v>15</v>
@@ -12884,19 +12679,9 @@
           <t>2023-08-23</t>
         </is>
       </c>
-      <c r="Z106" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA106" t="inlineStr">
         <is>
           <t>2023-08-23</t>
-        </is>
-      </c>
-      <c r="AB106" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD106" t="b">
@@ -12923,10 +12708,10 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>111644021</v>
+        <v>111643967</v>
       </c>
       <c r="B107" t="n">
-        <v>98535</v>
+        <v>89405</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -12935,25 +12720,25 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>222498</v>
+        <v>1202</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I107" t="inlineStr"/>
@@ -12963,10 +12748,10 @@
         </is>
       </c>
       <c r="Q107" t="n">
-        <v>563895.6898476363</v>
+        <v>564001</v>
       </c>
       <c r="R107" t="n">
-        <v>6704897.310479084</v>
+        <v>6705019</v>
       </c>
       <c r="S107" t="n">
         <v>15</v>
@@ -12996,19 +12781,9 @@
           <t>2023-08-23</t>
         </is>
       </c>
-      <c r="Z107" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA107" t="inlineStr">
         <is>
           <t>2023-08-23</t>
-        </is>
-      </c>
-      <c r="AB107" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD107" t="b">
@@ -13035,10 +12810,10 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>111643995</v>
+        <v>111638852</v>
       </c>
       <c r="B108" t="n">
-        <v>96348</v>
+        <v>56543</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -13047,49 +12822,47 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>220787</v>
+        <v>103021</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L108" t="inlineStr"/>
-      <c r="N108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
       <c r="P108" t="inlineStr">
         <is>
-          <t>Pellkärret, Dlr</t>
+          <t>Norra Kallbäck Skysslingen 244, Hedemora (Norra Kallbäck Skysslingen 244, Hedemora), Dlr</t>
         </is>
       </c>
       <c r="Q108" t="n">
-        <v>563991.6879464064</v>
+        <v>564274</v>
       </c>
       <c r="R108" t="n">
-        <v>6704971.499027047</v>
+        <v>6705347</v>
       </c>
       <c r="S108" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="T108" t="inlineStr">
         <is>
@@ -13118,7 +12891,7 @@
       </c>
       <c r="Z108" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>08:03</t>
         </is>
       </c>
       <c r="AA108" t="inlineStr">
@@ -13128,7 +12901,7 @@
       </c>
       <c r="AB108" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>08:03</t>
         </is>
       </c>
       <c r="AD108" t="b">
@@ -13137,7 +12910,6 @@
       <c r="AE108" t="b">
         <v>0</v>
       </c>
-      <c r="AF108" t="inlineStr"/>
       <c r="AG108" t="b">
         <v>0</v>
       </c>
@@ -13156,10 +12928,10 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>111643979</v>
+        <v>111643976</v>
       </c>
       <c r="B109" t="n">
-        <v>90332</v>
+        <v>56543</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -13168,38 +12940,46 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>4769</v>
+        <v>103021</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
+      <c r="N109" t="inlineStr"/>
       <c r="P109" t="inlineStr">
         <is>
           <t>Pellkärret, Dlr</t>
         </is>
       </c>
       <c r="Q109" t="n">
-        <v>563891.7046019271</v>
+        <v>563960</v>
       </c>
       <c r="R109" t="n">
-        <v>6704899.212729557</v>
+        <v>6704865</v>
       </c>
       <c r="S109" t="n">
         <v>15</v>
@@ -13229,19 +13009,9 @@
           <t>2023-08-23</t>
         </is>
       </c>
-      <c r="Z109" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA109" t="inlineStr">
         <is>
           <t>2023-08-23</t>
-        </is>
-      </c>
-      <c r="AB109" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD109" t="b">
@@ -13268,10 +13038,10 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>111644011</v>
+        <v>111643966</v>
       </c>
       <c r="B110" t="n">
-        <v>4717</v>
+        <v>89405</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -13280,25 +13050,25 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>102306</v>
+        <v>1202</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Granbarkgnagare</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Microbregma emarginatum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>(Duftschmid, 1825)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I110" t="inlineStr"/>
@@ -13308,10 +13078,10 @@
         </is>
       </c>
       <c r="Q110" t="n">
-        <v>563947.9486855237</v>
+        <v>564006</v>
       </c>
       <c r="R110" t="n">
-        <v>6704875.055250473</v>
+        <v>6705058</v>
       </c>
       <c r="S110" t="n">
         <v>15</v>
@@ -13341,19 +13111,9 @@
           <t>2023-08-23</t>
         </is>
       </c>
-      <c r="Z110" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA110" t="inlineStr">
         <is>
           <t>2023-08-23</t>
-        </is>
-      </c>
-      <c r="AB110" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD110" t="b">
@@ -13380,7 +13140,7 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>111643994</v>
+        <v>111644001</v>
       </c>
       <c r="B111" t="n">
         <v>96348</v>
@@ -13414,24 +13174,16 @@
         </is>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L111" t="inlineStr"/>
-      <c r="N111" t="inlineStr"/>
       <c r="P111" t="inlineStr">
         <is>
           <t>Pellkärret, Dlr</t>
         </is>
       </c>
       <c r="Q111" t="n">
-        <v>563938.1604798381</v>
+        <v>564374</v>
       </c>
       <c r="R111" t="n">
-        <v>6704953.786161045</v>
+        <v>6705413</v>
       </c>
       <c r="S111" t="n">
         <v>15</v>
@@ -13461,28 +13213,17 @@
           <t>2023-08-23</t>
         </is>
       </c>
-      <c r="Z111" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA111" t="inlineStr">
         <is>
           <t>2023-08-23</t>
         </is>
       </c>
-      <c r="AB111" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD111" t="b">
         <v>0</v>
       </c>
       <c r="AE111" t="b">
         <v>0</v>
       </c>
-      <c r="AF111" t="inlineStr"/>
       <c r="AG111" t="b">
         <v>0</v>
       </c>
@@ -13501,10 +13242,10 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>111643978</v>
+        <v>111644000</v>
       </c>
       <c r="B112" t="n">
-        <v>90332</v>
+        <v>96348</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -13513,25 +13254,25 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>4769</v>
+        <v>220787</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I112" t="inlineStr"/>
@@ -13541,10 +13282,10 @@
         </is>
       </c>
       <c r="Q112" t="n">
-        <v>563897.6824720911</v>
+        <v>564383</v>
       </c>
       <c r="R112" t="n">
-        <v>6704896.359355085</v>
+        <v>6705398</v>
       </c>
       <c r="S112" t="n">
         <v>15</v>
@@ -13574,19 +13315,9 @@
           <t>2023-08-23</t>
         </is>
       </c>
-      <c r="Z112" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA112" t="inlineStr">
         <is>
           <t>2023-08-23</t>
-        </is>
-      </c>
-      <c r="AB112" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD112" t="b">
@@ -13613,10 +13344,10 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>111643971</v>
+        <v>111643984</v>
       </c>
       <c r="B113" t="n">
-        <v>90087</v>
+        <v>89183</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -13629,21 +13360,21 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>3298</v>
+        <v>3215</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I113" t="inlineStr"/>
@@ -13653,10 +13384,10 @@
         </is>
       </c>
       <c r="Q113" t="n">
-        <v>564129.6583918922</v>
+        <v>563935</v>
       </c>
       <c r="R113" t="n">
-        <v>6705074.047548601</v>
+        <v>6704867</v>
       </c>
       <c r="S113" t="n">
         <v>15</v>
@@ -13686,19 +13417,14 @@
           <t>2023-08-23</t>
         </is>
       </c>
-      <c r="Z113" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA113" t="inlineStr">
         <is>
           <t>2023-08-23</t>
         </is>
       </c>
-      <c r="AB113" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC113" t="inlineStr">
+        <is>
+          <t>Utanför hänsynssnitslat området</t>
         </is>
       </c>
       <c r="AD113" t="b">
@@ -13707,6 +13433,7 @@
       <c r="AE113" t="b">
         <v>0</v>
       </c>
+      <c r="AF113" t="inlineStr"/>
       <c r="AG113" t="b">
         <v>0</v>
       </c>
@@ -13725,7 +13452,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>111644001</v>
+        <v>111643994</v>
       </c>
       <c r="B114" t="n">
         <v>96348</v>
@@ -13759,16 +13486,24 @@
         </is>
       </c>
       <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L114" t="inlineStr"/>
+      <c r="N114" t="inlineStr"/>
       <c r="P114" t="inlineStr">
         <is>
           <t>Pellkärret, Dlr</t>
         </is>
       </c>
       <c r="Q114" t="n">
-        <v>564373.5569152004</v>
+        <v>563938</v>
       </c>
       <c r="R114" t="n">
-        <v>6705413.196864827</v>
+        <v>6704954</v>
       </c>
       <c r="S114" t="n">
         <v>15</v>
@@ -13798,27 +13533,18 @@
           <t>2023-08-23</t>
         </is>
       </c>
-      <c r="Z114" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA114" t="inlineStr">
         <is>
           <t>2023-08-23</t>
         </is>
       </c>
-      <c r="AB114" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD114" t="b">
         <v>0</v>
       </c>
       <c r="AE114" t="b">
         <v>0</v>
       </c>
+      <c r="AF114" t="inlineStr"/>
       <c r="AG114" t="b">
         <v>0</v>
       </c>
@@ -13837,10 +13563,10 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>111638852</v>
+        <v>111643968</v>
       </c>
       <c r="B115" t="n">
-        <v>56543</v>
+        <v>89405</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -13853,43 +13579,37 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>103021</v>
+        <v>1202</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="M115" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
       <c r="P115" t="inlineStr">
         <is>
-          <t>Norra Kallbäck Skysslingen 244, Hedemora (Norra Kallbäck Skysslingen 244, Hedemora), Dlr</t>
+          <t>Pellkärret, Dlr</t>
         </is>
       </c>
       <c r="Q115" t="n">
-        <v>564273.9820338928</v>
+        <v>563987</v>
       </c>
       <c r="R115" t="n">
-        <v>6705346.832363938</v>
+        <v>6704887</v>
       </c>
       <c r="S115" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="T115" t="inlineStr">
         <is>
@@ -13916,19 +13636,9 @@
           <t>2023-08-23</t>
         </is>
       </c>
-      <c r="Z115" t="inlineStr">
-        <is>
-          <t>08:03</t>
-        </is>
-      </c>
       <c r="AA115" t="inlineStr">
         <is>
           <t>2023-08-23</t>
-        </is>
-      </c>
-      <c r="AB115" t="inlineStr">
-        <is>
-          <t>08:03</t>
         </is>
       </c>
       <c r="AD115" t="b">
@@ -13955,10 +13665,10 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>111644009</v>
+        <v>111643970</v>
       </c>
       <c r="B116" t="n">
-        <v>4717</v>
+        <v>89405</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -13967,25 +13677,25 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>102306</v>
+        <v>1202</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Granbarkgnagare</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>Microbregma emarginatum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>(Duftschmid, 1825)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I116" t="inlineStr"/>
@@ -13995,10 +13705,10 @@
         </is>
       </c>
       <c r="Q116" t="n">
-        <v>564175.9770425721</v>
+        <v>564135</v>
       </c>
       <c r="R116" t="n">
-        <v>6705191.738182176</v>
+        <v>6705092</v>
       </c>
       <c r="S116" t="n">
         <v>15</v>
@@ -14028,19 +13738,9 @@
           <t>2023-08-23</t>
         </is>
       </c>
-      <c r="Z116" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA116" t="inlineStr">
         <is>
           <t>2023-08-23</t>
-        </is>
-      </c>
-      <c r="AB116" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD116" t="b">
@@ -14067,10 +13767,10 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>111644023</v>
+        <v>111643998</v>
       </c>
       <c r="B117" t="n">
-        <v>98535</v>
+        <v>96348</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -14079,25 +13779,25 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>222498</v>
+        <v>220787</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I117" t="inlineStr"/>
@@ -14107,10 +13807,10 @@
         </is>
       </c>
       <c r="Q117" t="n">
-        <v>563926.0071291642</v>
+        <v>564085</v>
       </c>
       <c r="R117" t="n">
-        <v>6704942.722304372</v>
+        <v>6705045</v>
       </c>
       <c r="S117" t="n">
         <v>15</v>
@@ -14140,19 +13840,9 @@
           <t>2023-08-23</t>
         </is>
       </c>
-      <c r="Z117" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA117" t="inlineStr">
         <is>
           <t>2023-08-23</t>
-        </is>
-      </c>
-      <c r="AB117" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD117" t="b">
@@ -14179,10 +13869,10 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>111643996</v>
+        <v>111644009</v>
       </c>
       <c r="B118" t="n">
-        <v>96348</v>
+        <v>4717</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -14191,25 +13881,25 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E118" t="n">
-        <v>220787</v>
+        <v>102306</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Granbarkgnagare</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Microbregma emarginatum</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Duftschmid, 1825)</t>
         </is>
       </c>
       <c r="I118" t="inlineStr"/>
@@ -14219,10 +13909,10 @@
         </is>
       </c>
       <c r="Q118" t="n">
-        <v>564022.4274219956</v>
+        <v>564176</v>
       </c>
       <c r="R118" t="n">
-        <v>6705020.86335416</v>
+        <v>6705192</v>
       </c>
       <c r="S118" t="n">
         <v>15</v>
@@ -14252,19 +13942,9 @@
           <t>2023-08-23</t>
         </is>
       </c>
-      <c r="Z118" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA118" t="inlineStr">
         <is>
           <t>2023-08-23</t>
-        </is>
-      </c>
-      <c r="AB118" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD118" t="b">
@@ -14334,10 +14014,10 @@
         </is>
       </c>
       <c r="Q119" t="n">
-        <v>563946.113487391</v>
+        <v>563946</v>
       </c>
       <c r="R119" t="n">
-        <v>6704950.967804938</v>
+        <v>6704951</v>
       </c>
       <c r="S119" t="n">
         <v>15</v>
@@ -14367,19 +14047,9 @@
           <t>2023-08-23</t>
         </is>
       </c>
-      <c r="Z119" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA119" t="inlineStr">
         <is>
           <t>2023-08-23</t>
-        </is>
-      </c>
-      <c r="AB119" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC119" t="inlineStr">
